--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-30-4б-500-14 Батькова/XXI-В-30-4б-500-14 Батькова от 07.02.2020.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-30-4б-500-14 Батькова/XXI-В-30-4б-500-14 Батькова от 07.02.2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="151">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -266,9 +266,6 @@
     <t>1.</t>
   </si>
   <si>
-    <t>Формокомплект соответствует требованиям КД и готов к эксплуатации.</t>
-  </si>
-  <si>
     <t>приемки формокомплекта для производства бутылки:</t>
   </si>
   <si>
@@ -473,34 +470,7 @@
     <t>ФИО</t>
   </si>
   <si>
-    <t xml:space="preserve"> (владелец ООО "Завод Бульбаш" дог. безвозм. польз. №0910 от 09.10.2019)</t>
-  </si>
-  <si>
     <t>Дата поставки  21.01.2020 (c остаточным ресурсом 100 %)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Вес, гр. (ном. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t>400</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> гр.)</t>
-    </r>
   </si>
   <si>
     <t>XXI-В-30-4б-500-14 (Батькова)</t>
@@ -516,6 +486,18 @@
   </si>
   <si>
     <t xml:space="preserve">Полная высота 53,4 </t>
+  </si>
+  <si>
+    <t>Вес, гр. (ном. 380 гр.)</t>
+  </si>
+  <si>
+    <t>На всех формах на одной половинке надпись "FROM BELARUS" выполнена не согласно чертежу, т.е. глубина гравировки по факту 0,35-0,4 мм, а согласно чертежа должна быть 0,5 мм.</t>
+  </si>
+  <si>
+    <t>Формокомплект не соответствует требованиям КД.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (владелец ООО "Ведатранзит" Договор аренды имущества №3 от 23.01.2019 г.)</t>
   </si>
 </sst>
 </file>
@@ -2196,7 +2178,7 @@
     <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="641">
+  <cellXfs count="647">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3480,8 +3462,6 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3571,9 +3551,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3704,6 +3681,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3719,18 +3726,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4034,6 +4029,15 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6456,138 +6460,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="489" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="493"/>
-      <c r="C1" s="493"/>
-      <c r="D1" s="493"/>
-      <c r="E1" s="493"/>
+      <c r="A1" s="486" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="490"/>
+      <c r="C1" s="490"/>
+      <c r="D1" s="490"/>
+      <c r="E1" s="490"/>
       <c r="G1" s="357" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="490" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="491"/>
-      <c r="C2" s="491"/>
-      <c r="D2" s="491"/>
-      <c r="E2" s="492"/>
+      <c r="A2" s="487" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="489"/>
       <c r="G2" s="356" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="G3" s="356" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="494" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="495"/>
-      <c r="C4" s="495"/>
-      <c r="D4" s="495"/>
-      <c r="E4" s="495"/>
+      <c r="A4" s="491" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="492"/>
+      <c r="C4" s="492"/>
+      <c r="D4" s="492"/>
+      <c r="E4" s="492"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="496" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="497"/>
-      <c r="C5" s="497"/>
-      <c r="D5" s="497"/>
-      <c r="E5" s="498"/>
+      <c r="A5" s="493" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="494"/>
+      <c r="C5" s="494"/>
+      <c r="D5" s="494"/>
+      <c r="E5" s="495"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="489" t="s">
+      <c r="A7" s="486" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="490"/>
+      <c r="C7" s="490"/>
+      <c r="D7" s="490"/>
+      <c r="E7" s="490"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="496"/>
+      <c r="B8" s="497"/>
+      <c r="C8" s="497"/>
+      <c r="D8" s="497"/>
+      <c r="E8" s="498"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="486" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="493"/>
-      <c r="C7" s="493"/>
-      <c r="D7" s="493"/>
-      <c r="E7" s="493"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="499"/>
-      <c r="B8" s="500"/>
-      <c r="C8" s="500"/>
-      <c r="D8" s="500"/>
-      <c r="E8" s="501"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="489" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="489"/>
+      <c r="B10" s="486"/>
       <c r="C10" s="358"/>
       <c r="D10" s="364" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" s="358"/>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="487"/>
-      <c r="B11" s="488"/>
+      <c r="A11" s="484"/>
+      <c r="B11" s="485"/>
       <c r="D11" s="363">
         <v>43868</v>
       </c>
-      <c r="F11" s="502" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="502"/>
-      <c r="H11" s="502"/>
-      <c r="I11" s="502"/>
-      <c r="J11" s="503" t="s">
+      <c r="F11" s="499" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="499"/>
+      <c r="H11" s="499"/>
+      <c r="I11" s="499"/>
+      <c r="J11" s="500" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="500"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F12" s="499" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="499"/>
+      <c r="H12" s="499"/>
+      <c r="I12" s="499"/>
+      <c r="J12" s="500" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="503"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="502" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="502"/>
-      <c r="H12" s="502"/>
-      <c r="I12" s="502"/>
-      <c r="J12" s="503" t="s">
-        <v>99</v>
-      </c>
-      <c r="K12" s="503"/>
+      <c r="K12" s="500"/>
     </row>
     <row r="13" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" s="368" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="368" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="368" t="s">
-        <v>89</v>
-      </c>
       <c r="C13" s="368" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="368" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="459" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="461" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13" s="502" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="502"/>
-      <c r="H13" s="502"/>
-      <c r="I13" s="502"/>
-      <c r="J13" s="503" t="s">
-        <v>100</v>
-      </c>
-      <c r="K13" s="503"/>
+      <c r="F13" s="499" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="499"/>
+      <c r="H13" s="499"/>
+      <c r="I13" s="499"/>
+      <c r="J13" s="500" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="500"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="359" t="s">
@@ -6597,7 +6601,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="366" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D14" s="360">
         <v>32.5</v>
@@ -6615,7 +6619,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="366" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D15" s="360">
         <v>3</v>
@@ -6633,7 +6637,7 @@
         <v>32</v>
       </c>
       <c r="C16" s="366" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D16" s="360">
         <v>34.200000000000003</v>
@@ -6651,7 +6655,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="366" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D17" s="360">
         <v>1.3</v>
@@ -6669,7 +6673,7 @@
         <v>60</v>
       </c>
       <c r="C18" s="366" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D18" s="360">
         <v>1.29</v>
@@ -6681,13 +6685,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="359" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="360">
         <v>70</v>
       </c>
       <c r="C19" s="366" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D19" s="360">
         <v>0.3</v>
@@ -6705,7 +6709,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="366" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D20" s="360">
         <v>0.5</v>
@@ -6731,7 +6735,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="359" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" s="366"/>
       <c r="C22" s="366"/>
@@ -6749,7 +6753,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="366" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D23" s="360">
         <v>1.7</v>
@@ -6767,7 +6771,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="366" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D24" s="360">
         <v>3</v>
@@ -6779,7 +6783,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="359" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" s="366"/>
       <c r="C25" s="366"/>
@@ -6797,7 +6801,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="366" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D26" s="360">
         <v>1.5</v>
@@ -6809,7 +6813,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="361" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B27" s="367">
         <v>20</v>
@@ -6834,15 +6838,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="486" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="486"/>
-      <c r="C29" s="486"/>
+      <c r="A29" s="483" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="483"/>
+      <c r="C29" s="483"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="357" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -6915,47 +6919,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="163"/>
-      <c r="B2" s="592"/>
-      <c r="C2" s="593"/>
-      <c r="D2" s="594"/>
-      <c r="E2" s="601" t="s">
+      <c r="B2" s="595"/>
+      <c r="C2" s="596"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="604" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="602"/>
-      <c r="G2" s="602"/>
-      <c r="H2" s="603"/>
-      <c r="I2" s="607" t="s">
+      <c r="F2" s="605"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="606"/>
+      <c r="I2" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="608"/>
-      <c r="K2" s="611">
+      <c r="J2" s="611"/>
+      <c r="K2" s="614">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="612"/>
+      <c r="L2" s="615"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="630"/>
-      <c r="Q2" s="630"/>
+      <c r="P2" s="633"/>
+      <c r="Q2" s="633"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="163"/>
-      <c r="B3" s="595"/>
-      <c r="C3" s="596"/>
-      <c r="D3" s="597"/>
-      <c r="E3" s="604" t="s">
+      <c r="B3" s="598"/>
+      <c r="C3" s="599"/>
+      <c r="D3" s="600"/>
+      <c r="E3" s="607" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="605"/>
-      <c r="G3" s="605"/>
-      <c r="H3" s="606"/>
-      <c r="I3" s="609"/>
-      <c r="J3" s="610"/>
-      <c r="K3" s="613"/>
-      <c r="L3" s="614"/>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="612"/>
+      <c r="J3" s="613"/>
+      <c r="K3" s="616"/>
+      <c r="L3" s="617"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -6966,9 +6970,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="163"/>
-      <c r="B4" s="598"/>
-      <c r="C4" s="599"/>
-      <c r="D4" s="600"/>
+      <c r="B4" s="601"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="603"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -6987,22 +6991,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="163"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="615"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="618"/>
+      <c r="D5" s="493" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="616"/>
-      <c r="J5" s="617"/>
-      <c r="K5" s="618"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="494"/>
+      <c r="F5" s="494"/>
+      <c r="G5" s="494"/>
+      <c r="H5" s="495"/>
+      <c r="I5" s="619"/>
+      <c r="J5" s="620"/>
+      <c r="K5" s="621"/>
+      <c r="L5" s="495"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7013,22 +7017,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="163"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="615"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="618"/>
+      <c r="D6" s="487" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="616"/>
-      <c r="J6" s="617"/>
-      <c r="K6" s="618"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="590"/>
+      <c r="F6" s="590"/>
+      <c r="G6" s="590"/>
+      <c r="H6" s="591"/>
+      <c r="I6" s="619"/>
+      <c r="J6" s="620"/>
+      <c r="K6" s="621"/>
+      <c r="L6" s="495"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7039,27 +7043,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="163"/>
-      <c r="B7" s="548" t="s">
+      <c r="B7" s="551" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="619"/>
-      <c r="D7" s="499">
+      <c r="C7" s="622"/>
+      <c r="D7" s="496">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="550"/>
-      <c r="F7" s="550"/>
-      <c r="G7" s="550"/>
-      <c r="H7" s="551"/>
-      <c r="I7" s="620" t="s">
+      <c r="E7" s="553"/>
+      <c r="F7" s="553"/>
+      <c r="G7" s="553"/>
+      <c r="H7" s="554"/>
+      <c r="I7" s="623" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="619"/>
-      <c r="K7" s="487">
+      <c r="J7" s="622"/>
+      <c r="K7" s="484">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="485"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7444,25 +7448,25 @@
     </row>
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L21" s="621" t="s">
-        <v>136</v>
-      </c>
-      <c r="M21" s="621"/>
-      <c r="N21" s="621"/>
-      <c r="O21" s="462"/>
-      <c r="P21" s="462"/>
-      <c r="Q21" s="478"/>
-      <c r="R21" s="478"/>
+      <c r="L21" s="624" t="s">
+        <v>135</v>
+      </c>
+      <c r="M21" s="624"/>
+      <c r="N21" s="624"/>
+      <c r="O21" s="460"/>
+      <c r="P21" s="460"/>
+      <c r="Q21" s="476"/>
+      <c r="R21" s="476"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O22" s="553" t="s">
+      <c r="O22" s="556" t="s">
+        <v>139</v>
+      </c>
+      <c r="P22" s="556"/>
+      <c r="Q22" s="557" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="553"/>
-      <c r="Q22" s="554" t="s">
-        <v>141</v>
-      </c>
-      <c r="R22" s="555"/>
+      <c r="R22" s="558"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -7552,47 +7556,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="202"/>
-      <c r="B2" s="592"/>
-      <c r="C2" s="593"/>
-      <c r="D2" s="594"/>
-      <c r="E2" s="601" t="s">
+      <c r="B2" s="595"/>
+      <c r="C2" s="596"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="604" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="602"/>
-      <c r="G2" s="602"/>
-      <c r="H2" s="603"/>
-      <c r="I2" s="607" t="s">
+      <c r="F2" s="605"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="606"/>
+      <c r="I2" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="608"/>
-      <c r="K2" s="611">
+      <c r="J2" s="611"/>
+      <c r="K2" s="614">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="L2" s="612"/>
+      <c r="L2" s="615"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="634"/>
-      <c r="Q2" s="634"/>
+      <c r="P2" s="637"/>
+      <c r="Q2" s="637"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="202"/>
-      <c r="B3" s="595"/>
-      <c r="C3" s="596"/>
-      <c r="D3" s="597"/>
-      <c r="E3" s="604" t="s">
+      <c r="B3" s="598"/>
+      <c r="C3" s="599"/>
+      <c r="D3" s="600"/>
+      <c r="E3" s="607" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="605"/>
-      <c r="G3" s="605"/>
-      <c r="H3" s="606"/>
-      <c r="I3" s="609"/>
-      <c r="J3" s="610"/>
-      <c r="K3" s="613"/>
-      <c r="L3" s="614"/>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="612"/>
+      <c r="J3" s="613"/>
+      <c r="K3" s="616"/>
+      <c r="L3" s="617"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7603,9 +7607,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="202"/>
-      <c r="B4" s="598"/>
-      <c r="C4" s="599"/>
-      <c r="D4" s="600"/>
+      <c r="B4" s="601"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="603"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7624,22 +7628,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="202"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="615"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="618"/>
+      <c r="D5" s="493" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="616"/>
-      <c r="J5" s="617"/>
-      <c r="K5" s="618"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="494"/>
+      <c r="F5" s="494"/>
+      <c r="G5" s="494"/>
+      <c r="H5" s="495"/>
+      <c r="I5" s="619"/>
+      <c r="J5" s="620"/>
+      <c r="K5" s="621"/>
+      <c r="L5" s="495"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -7650,22 +7654,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="202"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="615"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="618"/>
+      <c r="D6" s="487" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="616"/>
-      <c r="J6" s="617"/>
-      <c r="K6" s="618"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="590"/>
+      <c r="F6" s="590"/>
+      <c r="G6" s="590"/>
+      <c r="H6" s="591"/>
+      <c r="I6" s="619"/>
+      <c r="J6" s="620"/>
+      <c r="K6" s="621"/>
+      <c r="L6" s="495"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -7676,27 +7680,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="202"/>
-      <c r="B7" s="548" t="s">
+      <c r="B7" s="551" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="619"/>
-      <c r="D7" s="499">
+      <c r="C7" s="622"/>
+      <c r="D7" s="496">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="550"/>
-      <c r="F7" s="550"/>
-      <c r="G7" s="550"/>
-      <c r="H7" s="551"/>
-      <c r="I7" s="620" t="s">
+      <c r="E7" s="553"/>
+      <c r="F7" s="553"/>
+      <c r="G7" s="553"/>
+      <c r="H7" s="554"/>
+      <c r="I7" s="623" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="619"/>
-      <c r="K7" s="487">
+      <c r="J7" s="622"/>
+      <c r="K7" s="484">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="485"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8025,12 +8029,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="212"/>
-      <c r="B18" s="631" t="s">
+      <c r="B18" s="634" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="632"/>
-      <c r="D18" s="632"/>
-      <c r="E18" s="633"/>
+      <c r="C18" s="635"/>
+      <c r="D18" s="635"/>
+      <c r="E18" s="636"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8073,25 +8077,25 @@
     </row>
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L21" s="621" t="s">
-        <v>136</v>
-      </c>
-      <c r="M21" s="621"/>
-      <c r="N21" s="621"/>
-      <c r="O21" s="462"/>
-      <c r="P21" s="462"/>
-      <c r="Q21" s="478"/>
-      <c r="R21" s="478"/>
+      <c r="L21" s="624" t="s">
+        <v>135</v>
+      </c>
+      <c r="M21" s="624"/>
+      <c r="N21" s="624"/>
+      <c r="O21" s="460"/>
+      <c r="P21" s="460"/>
+      <c r="Q21" s="476"/>
+      <c r="R21" s="476"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O22" s="553" t="s">
+      <c r="O22" s="556" t="s">
+        <v>139</v>
+      </c>
+      <c r="P22" s="556"/>
+      <c r="Q22" s="557" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="553"/>
-      <c r="Q22" s="554" t="s">
-        <v>141</v>
-      </c>
-      <c r="R22" s="555"/>
+      <c r="R22" s="558"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -8191,47 +8195,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="130"/>
-      <c r="B2" s="592"/>
-      <c r="C2" s="593"/>
-      <c r="D2" s="594"/>
-      <c r="E2" s="601" t="s">
+      <c r="B2" s="595"/>
+      <c r="C2" s="596"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="604" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="602"/>
-      <c r="G2" s="602"/>
-      <c r="H2" s="603"/>
-      <c r="I2" s="607" t="s">
+      <c r="F2" s="605"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="606"/>
+      <c r="I2" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="608"/>
-      <c r="K2" s="611">
+      <c r="J2" s="611"/>
+      <c r="K2" s="614">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="L2" s="612"/>
+      <c r="L2" s="615"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="635"/>
-      <c r="Q2" s="635"/>
+      <c r="P2" s="638"/>
+      <c r="Q2" s="638"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="130"/>
-      <c r="B3" s="595"/>
-      <c r="C3" s="596"/>
-      <c r="D3" s="597"/>
-      <c r="E3" s="604" t="s">
+      <c r="B3" s="598"/>
+      <c r="C3" s="599"/>
+      <c r="D3" s="600"/>
+      <c r="E3" s="607" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="605"/>
-      <c r="G3" s="605"/>
-      <c r="H3" s="606"/>
-      <c r="I3" s="609"/>
-      <c r="J3" s="610"/>
-      <c r="K3" s="613"/>
-      <c r="L3" s="614"/>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="612"/>
+      <c r="J3" s="613"/>
+      <c r="K3" s="616"/>
+      <c r="L3" s="617"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8242,9 +8246,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="130"/>
-      <c r="B4" s="598"/>
-      <c r="C4" s="599"/>
-      <c r="D4" s="600"/>
+      <c r="B4" s="601"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="603"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8263,22 +8267,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="130"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="615"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="618"/>
+      <c r="D5" s="493" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="616"/>
-      <c r="J5" s="617"/>
-      <c r="K5" s="618"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="494"/>
+      <c r="F5" s="494"/>
+      <c r="G5" s="494"/>
+      <c r="H5" s="495"/>
+      <c r="I5" s="619"/>
+      <c r="J5" s="620"/>
+      <c r="K5" s="621"/>
+      <c r="L5" s="495"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8289,22 +8293,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="130"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="615"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="618"/>
+      <c r="D6" s="487" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="616"/>
-      <c r="J6" s="617"/>
-      <c r="K6" s="618"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="590"/>
+      <c r="F6" s="590"/>
+      <c r="G6" s="590"/>
+      <c r="H6" s="591"/>
+      <c r="I6" s="619"/>
+      <c r="J6" s="620"/>
+      <c r="K6" s="621"/>
+      <c r="L6" s="495"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8315,27 +8319,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="130"/>
-      <c r="B7" s="548" t="s">
+      <c r="B7" s="551" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="619"/>
-      <c r="D7" s="499">
+      <c r="C7" s="622"/>
+      <c r="D7" s="496">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="550"/>
-      <c r="F7" s="550"/>
-      <c r="G7" s="550"/>
-      <c r="H7" s="551"/>
-      <c r="I7" s="620" t="s">
+      <c r="E7" s="553"/>
+      <c r="F7" s="553"/>
+      <c r="G7" s="553"/>
+      <c r="H7" s="554"/>
+      <c r="I7" s="623" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="619"/>
-      <c r="K7" s="487">
+      <c r="J7" s="622"/>
+      <c r="K7" s="484">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="485"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8652,25 +8656,25 @@
     </row>
     <row r="18" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L19" s="621" t="s">
-        <v>136</v>
-      </c>
-      <c r="M19" s="621"/>
-      <c r="N19" s="621"/>
-      <c r="O19" s="462"/>
-      <c r="P19" s="462"/>
-      <c r="Q19" s="478"/>
-      <c r="R19" s="478"/>
+      <c r="L19" s="624" t="s">
+        <v>135</v>
+      </c>
+      <c r="M19" s="624"/>
+      <c r="N19" s="624"/>
+      <c r="O19" s="460"/>
+      <c r="P19" s="460"/>
+      <c r="Q19" s="476"/>
+      <c r="R19" s="476"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="553" t="s">
+      <c r="O20" s="556" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="556"/>
+      <c r="Q20" s="557" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="553"/>
-      <c r="Q20" s="554" t="s">
-        <v>141</v>
-      </c>
-      <c r="R20" s="555"/>
+      <c r="R20" s="558"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -8751,47 +8755,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="259"/>
-      <c r="B2" s="592"/>
-      <c r="C2" s="593"/>
-      <c r="D2" s="594"/>
-      <c r="E2" s="601" t="s">
+      <c r="B2" s="595"/>
+      <c r="C2" s="596"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="604" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="602"/>
-      <c r="G2" s="602"/>
-      <c r="H2" s="603"/>
-      <c r="I2" s="607" t="s">
+      <c r="F2" s="605"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="606"/>
+      <c r="I2" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="608"/>
-      <c r="K2" s="636">
+      <c r="J2" s="611"/>
+      <c r="K2" s="639">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="637"/>
+      <c r="L2" s="640"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="640"/>
-      <c r="Q2" s="640"/>
+      <c r="P2" s="643"/>
+      <c r="Q2" s="643"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="259"/>
-      <c r="B3" s="595"/>
-      <c r="C3" s="596"/>
-      <c r="D3" s="597"/>
-      <c r="E3" s="604" t="s">
+      <c r="B3" s="598"/>
+      <c r="C3" s="599"/>
+      <c r="D3" s="600"/>
+      <c r="E3" s="607" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="605"/>
-      <c r="G3" s="605"/>
-      <c r="H3" s="606"/>
-      <c r="I3" s="609"/>
-      <c r="J3" s="610"/>
-      <c r="K3" s="638"/>
-      <c r="L3" s="639"/>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="612"/>
+      <c r="J3" s="613"/>
+      <c r="K3" s="641"/>
+      <c r="L3" s="642"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -8802,9 +8806,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="259"/>
-      <c r="B4" s="598"/>
-      <c r="C4" s="599"/>
-      <c r="D4" s="600"/>
+      <c r="B4" s="601"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="603"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8823,22 +8827,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="259"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="615"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="618"/>
+      <c r="D5" s="493" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="616"/>
-      <c r="J5" s="617"/>
-      <c r="K5" s="618"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="494"/>
+      <c r="F5" s="494"/>
+      <c r="G5" s="494"/>
+      <c r="H5" s="495"/>
+      <c r="I5" s="619"/>
+      <c r="J5" s="620"/>
+      <c r="K5" s="621"/>
+      <c r="L5" s="495"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -8849,22 +8853,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="259"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="615"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="618"/>
+      <c r="D6" s="487" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="616"/>
-      <c r="J6" s="617"/>
-      <c r="K6" s="618"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="590"/>
+      <c r="F6" s="590"/>
+      <c r="G6" s="590"/>
+      <c r="H6" s="591"/>
+      <c r="I6" s="619"/>
+      <c r="J6" s="620"/>
+      <c r="K6" s="621"/>
+      <c r="L6" s="495"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -8875,27 +8879,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="259"/>
-      <c r="B7" s="548" t="s">
+      <c r="B7" s="551" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="619"/>
-      <c r="D7" s="499">
+      <c r="C7" s="622"/>
+      <c r="D7" s="496">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="550"/>
-      <c r="F7" s="550"/>
-      <c r="G7" s="550"/>
-      <c r="H7" s="551"/>
-      <c r="I7" s="620" t="s">
+      <c r="E7" s="553"/>
+      <c r="F7" s="553"/>
+      <c r="G7" s="553"/>
+      <c r="H7" s="554"/>
+      <c r="I7" s="623" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="619"/>
-      <c r="K7" s="487">
+      <c r="J7" s="622"/>
+      <c r="K7" s="484">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="485"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9146,25 +9150,25 @@
     </row>
     <row r="16" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L17" s="621" t="s">
-        <v>136</v>
-      </c>
-      <c r="M17" s="621"/>
-      <c r="N17" s="621"/>
-      <c r="O17" s="462"/>
-      <c r="P17" s="462"/>
-      <c r="Q17" s="478"/>
-      <c r="R17" s="478"/>
+      <c r="L17" s="624" t="s">
+        <v>135</v>
+      </c>
+      <c r="M17" s="624"/>
+      <c r="N17" s="624"/>
+      <c r="O17" s="460"/>
+      <c r="P17" s="460"/>
+      <c r="Q17" s="476"/>
+      <c r="R17" s="476"/>
     </row>
     <row r="18" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="O18" s="553" t="s">
+      <c r="O18" s="556" t="s">
+        <v>139</v>
+      </c>
+      <c r="P18" s="556"/>
+      <c r="Q18" s="557" t="s">
         <v>140</v>
       </c>
-      <c r="P18" s="553"/>
-      <c r="Q18" s="554" t="s">
-        <v>141</v>
-      </c>
-      <c r="R18" s="555"/>
+      <c r="R18" s="558"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -9211,8 +9215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9233,11 +9237,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="374"/>
-      <c r="B1" s="460" t="s">
-        <v>109</v>
+      <c r="B1" s="458" t="s">
+        <v>108</v>
       </c>
       <c r="C1" s="374"/>
-      <c r="D1" s="459" t="str">
+      <c r="D1" s="457" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
@@ -9253,7 +9257,7 @@
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="374"/>
       <c r="B2" s="374" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C2" s="374"/>
       <c r="D2" s="374"/>
@@ -9267,17 +9271,17 @@
       <c r="L2" s="375"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="506" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="506"/>
-      <c r="C3" s="506"/>
-      <c r="D3" s="506"/>
-      <c r="E3" s="506"/>
-      <c r="F3" s="506"/>
-      <c r="G3" s="506"/>
-      <c r="H3" s="506"/>
-      <c r="I3" s="506"/>
+      <c r="A3" s="503" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="503"/>
+      <c r="C3" s="503"/>
+      <c r="D3" s="503"/>
+      <c r="E3" s="503"/>
+      <c r="F3" s="503"/>
+      <c r="G3" s="503"/>
+      <c r="H3" s="503"/>
+      <c r="I3" s="503"/>
       <c r="K3" s="376"/>
       <c r="L3" s="376"/>
       <c r="M3" s="377"/>
@@ -9296,28 +9300,28 @@
     </row>
     <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="381" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="382" t="s">
         <v>110</v>
-      </c>
-      <c r="B5" s="382" t="s">
-        <v>111</v>
       </c>
       <c r="C5" s="382" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="383" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="382" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="382" t="s">
+      <c r="F5" s="382" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="382" t="s">
+      <c r="G5" s="382" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="382" t="s">
+      <c r="H5" s="384" t="s">
         <v>115</v>
-      </c>
-      <c r="H5" s="384" t="s">
-        <v>116</v>
       </c>
       <c r="I5" s="385"/>
       <c r="J5" s="385"/>
@@ -9694,7 +9698,7 @@
     <row r="18" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="377"/>
       <c r="B18" s="405" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="358"/>
       <c r="D18" s="358"/>
@@ -9709,34 +9713,34 @@
     </row>
     <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="381" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="382" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="382" t="s">
+      <c r="C19" s="382" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="382" t="s">
+      <c r="D19" s="382" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="382" t="s">
+      <c r="E19" s="382" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="382" t="s">
+      <c r="F19" s="382" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="382" t="s">
+      <c r="G19" s="407" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="407" t="s">
+      <c r="H19" s="408" t="s">
         <v>124</v>
       </c>
-      <c r="H19" s="408" t="s">
+      <c r="I19" s="409" t="s">
         <v>125</v>
       </c>
-      <c r="I19" s="409" t="s">
-        <v>126</v>
-      </c>
       <c r="J19" s="409" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K19" s="385"/>
       <c r="L19" s="385"/>
@@ -9747,33 +9751,35 @@
         <v>16800000</v>
       </c>
       <c r="B20" s="411">
-        <v>43759</v>
+        <v>43914</v>
       </c>
       <c r="C20" s="412">
-        <v>43765</v>
+        <v>43917</v>
       </c>
       <c r="D20" s="411">
-        <v>43769</v>
+        <v>43920</v>
       </c>
       <c r="E20" s="413">
-        <v>948096</v>
+        <v>618648</v>
       </c>
       <c r="F20" s="413">
-        <v>1031915</v>
+        <v>667526</v>
       </c>
       <c r="G20" s="414">
         <f>F20/A$20</f>
-        <v>6.1423511904761904E-2</v>
+        <v>3.9733690476190478E-2</v>
       </c>
       <c r="H20" s="415">
         <f>A20-F20</f>
-        <v>15768085</v>
+        <v>16132474</v>
       </c>
       <c r="I20" s="416">
         <f>1-G20</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="J20" s="479"/>
+        <v>0.96026630952380954</v>
+      </c>
+      <c r="J20" s="646">
+        <v>372</v>
+      </c>
       <c r="K20" s="397"/>
       <c r="L20" s="397"/>
     </row>
@@ -9790,13 +9796,13 @@
       </c>
       <c r="H21" s="421">
         <f>H20-F21</f>
-        <v>15768085</v>
+        <v>16132474</v>
       </c>
       <c r="I21" s="422">
         <f>I20-G21</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="J21" s="480"/>
+        <v>0.96026630952380954</v>
+      </c>
+      <c r="J21" s="477"/>
       <c r="K21" s="377"/>
       <c r="L21" s="377"/>
     </row>
@@ -9810,7 +9816,7 @@
       <c r="G22" s="426"/>
       <c r="H22" s="427"/>
       <c r="I22" s="428"/>
-      <c r="J22" s="481"/>
+      <c r="J22" s="478"/>
       <c r="K22" s="397"/>
       <c r="L22" s="397"/>
     </row>
@@ -9824,7 +9830,7 @@
       <c r="G23" s="369"/>
       <c r="H23" s="369"/>
       <c r="I23" s="429"/>
-      <c r="J23" s="482"/>
+      <c r="J23" s="479"/>
       <c r="K23" s="417"/>
       <c r="L23" s="377"/>
     </row>
@@ -9838,7 +9844,7 @@
       <c r="G24" s="430"/>
       <c r="H24" s="427"/>
       <c r="I24" s="428"/>
-      <c r="J24" s="481"/>
+      <c r="J24" s="478"/>
       <c r="K24" s="431"/>
       <c r="L24" s="377"/>
     </row>
@@ -9852,7 +9858,7 @@
       <c r="G25" s="430"/>
       <c r="H25" s="427"/>
       <c r="I25" s="428"/>
-      <c r="J25" s="481"/>
+      <c r="J25" s="478"/>
       <c r="K25" s="417"/>
       <c r="L25" s="377"/>
     </row>
@@ -9866,7 +9872,7 @@
       <c r="G26" s="430"/>
       <c r="H26" s="427"/>
       <c r="I26" s="428"/>
-      <c r="J26" s="481"/>
+      <c r="J26" s="478"/>
       <c r="K26" s="417"/>
       <c r="L26" s="377"/>
     </row>
@@ -9880,7 +9886,7 @@
       <c r="G27" s="430"/>
       <c r="H27" s="427"/>
       <c r="I27" s="428"/>
-      <c r="J27" s="481"/>
+      <c r="J27" s="478"/>
       <c r="K27" s="417"/>
       <c r="L27" s="377"/>
     </row>
@@ -9894,7 +9900,7 @@
       <c r="G28" s="432"/>
       <c r="H28" s="427"/>
       <c r="I28" s="433"/>
-      <c r="J28" s="483"/>
+      <c r="J28" s="480"/>
       <c r="K28" s="417"/>
       <c r="L28" s="377"/>
     </row>
@@ -9908,7 +9914,7 @@
       <c r="G29" s="430"/>
       <c r="H29" s="427"/>
       <c r="I29" s="433"/>
-      <c r="J29" s="483"/>
+      <c r="J29" s="480"/>
       <c r="K29" s="417"/>
       <c r="L29" s="377"/>
     </row>
@@ -9922,40 +9928,40 @@
       <c r="G30" s="438"/>
       <c r="H30" s="439"/>
       <c r="I30" s="440"/>
-      <c r="J30" s="484"/>
+      <c r="J30" s="481"/>
       <c r="K30" s="377"/>
       <c r="L30" s="377"/>
     </row>
     <row r="31" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="441" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B31" s="442"/>
       <c r="C31" s="442"/>
       <c r="D31" s="443"/>
-      <c r="E31" s="444">
+      <c r="E31" s="644">
         <f>SUM(E20:E30)</f>
-        <v>948096</v>
-      </c>
-      <c r="F31" s="445">
+        <v>618648</v>
+      </c>
+      <c r="F31" s="645">
         <f>SUM(F20:F30)</f>
-        <v>1031915</v>
-      </c>
-      <c r="G31" s="446">
+        <v>667526</v>
+      </c>
+      <c r="G31" s="444">
         <f>SUM(G20:G30)</f>
-        <v>6.1423511904761904E-2</v>
-      </c>
-      <c r="H31" s="447">
+        <v>3.9733690476190478E-2</v>
+      </c>
+      <c r="H31" s="445">
         <f>A20-F31</f>
-        <v>15768085</v>
-      </c>
-      <c r="I31" s="448">
+        <v>16132474</v>
+      </c>
+      <c r="I31" s="446">
         <f>1-G31</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="J31" s="485"/>
-      <c r="K31" s="449"/>
-      <c r="L31" s="449"/>
+        <v>0.96026630952380954</v>
+      </c>
+      <c r="J31" s="482"/>
+      <c r="K31" s="447"/>
+      <c r="L31" s="447"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="377"/>
@@ -9970,12 +9976,12 @@
       <c r="J34" s="377"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="507" t="s">
-        <v>128</v>
-      </c>
-      <c r="B35" s="507"/>
-      <c r="C35" s="507"/>
-      <c r="D35" s="507"/>
+      <c r="A35" s="504" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="504"/>
+      <c r="C35" s="504"/>
+      <c r="D35" s="504"/>
       <c r="E35" s="377"/>
       <c r="F35" s="377"/>
       <c r="G35" s="377"/>
@@ -9984,15 +9990,15 @@
       <c r="J35" s="377"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="508" t="s">
+      <c r="A36" s="505" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="505"/>
+      <c r="C36" s="448" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="508"/>
-      <c r="C36" s="450" t="s">
+      <c r="D36" s="448" t="s">
         <v>130</v>
-      </c>
-      <c r="D36" s="450" t="s">
-        <v>131</v>
       </c>
       <c r="E36" s="377"/>
       <c r="F36" s="377"/>
@@ -10002,27 +10008,27 @@
       <c r="J36" s="377"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="509">
+      <c r="A37" s="506">
         <f>A20-F31</f>
-        <v>15768085</v>
-      </c>
-      <c r="B37" s="510"/>
-      <c r="C37" s="451">
+        <v>16132474</v>
+      </c>
+      <c r="B37" s="507"/>
+      <c r="C37" s="449">
         <f>1-G31</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="D37" s="452">
+        <v>0.96026630952380954</v>
+      </c>
+      <c r="D37" s="450">
         <f>(C37/0.8)*100</f>
-        <v>117.32206101190474</v>
-      </c>
-      <c r="E37" s="453" t="s">
-        <v>132</v>
-      </c>
-      <c r="F37" s="453"/>
-      <c r="G37" s="453"/>
-      <c r="H37" s="453"/>
-      <c r="I37" s="453"/>
-      <c r="J37" s="453"/>
+        <v>120.03328869047618</v>
+      </c>
+      <c r="E37" s="451" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="451"/>
+      <c r="G37" s="451"/>
+      <c r="H37" s="451"/>
+      <c r="I37" s="451"/>
+      <c r="J37" s="451"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="377"/>
@@ -10049,8 +10055,8 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="377"/>
-      <c r="B40" s="454"/>
-      <c r="C40" s="454"/>
+      <c r="B40" s="452"/>
+      <c r="C40" s="452"/>
       <c r="D40" s="377"/>
       <c r="E40" s="377"/>
       <c r="F40" s="377"/>
@@ -10060,113 +10066,113 @@
       <c r="J40" s="377"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="455"/>
-      <c r="B41" s="455"/>
-      <c r="C41" s="455"/>
-      <c r="D41" s="455"/>
-      <c r="E41" s="455"/>
-      <c r="F41" s="455"/>
-      <c r="G41" s="455"/>
-      <c r="H41" s="455"/>
-      <c r="I41" s="511"/>
-      <c r="J41" s="512"/>
+      <c r="A41" s="453"/>
+      <c r="B41" s="453"/>
+      <c r="C41" s="453"/>
+      <c r="D41" s="453"/>
+      <c r="E41" s="453"/>
+      <c r="F41" s="453"/>
+      <c r="G41" s="453"/>
+      <c r="H41" s="453"/>
+      <c r="I41" s="508"/>
+      <c r="J41" s="509"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="456"/>
-      <c r="B42" s="457"/>
-      <c r="C42" s="457"/>
+      <c r="A42" s="454"/>
+      <c r="B42" s="455"/>
+      <c r="C42" s="455"/>
       <c r="D42" s="377"/>
       <c r="E42" s="377"/>
-      <c r="F42" s="457"/>
+      <c r="F42" s="455"/>
       <c r="G42" s="401"/>
-      <c r="H42" s="457"/>
+      <c r="H42" s="455"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="456"/>
-      <c r="B43" s="457"/>
-      <c r="C43" s="457"/>
-      <c r="D43" s="457"/>
-      <c r="E43" s="457"/>
-      <c r="F43" s="457"/>
+      <c r="A43" s="454"/>
+      <c r="B43" s="455"/>
+      <c r="C43" s="455"/>
+      <c r="D43" s="455"/>
+      <c r="E43" s="455"/>
+      <c r="F43" s="455"/>
       <c r="G43" s="401"/>
-      <c r="H43" s="457"/>
+      <c r="H43" s="455"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="456"/>
-      <c r="B44" s="457"/>
-      <c r="C44" s="457"/>
+      <c r="A44" s="454"/>
+      <c r="B44" s="455"/>
+      <c r="C44" s="455"/>
       <c r="D44" s="377"/>
       <c r="E44" s="377"/>
-      <c r="F44" s="457"/>
+      <c r="F44" s="455"/>
       <c r="G44" s="401"/>
-      <c r="H44" s="457"/>
+      <c r="H44" s="455"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="456"/>
-      <c r="B45" s="457"/>
-      <c r="C45" s="457"/>
-      <c r="D45" s="457"/>
-      <c r="E45" s="457"/>
-      <c r="F45" s="457"/>
+      <c r="A45" s="454"/>
+      <c r="B45" s="455"/>
+      <c r="C45" s="455"/>
+      <c r="D45" s="455"/>
+      <c r="E45" s="455"/>
+      <c r="F45" s="455"/>
       <c r="G45" s="401"/>
-      <c r="H45" s="457"/>
+      <c r="H45" s="455"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="456"/>
-      <c r="B46" s="457"/>
-      <c r="C46" s="457"/>
+      <c r="A46" s="454"/>
+      <c r="B46" s="455"/>
+      <c r="C46" s="455"/>
       <c r="D46" s="377"/>
       <c r="E46" s="377"/>
-      <c r="F46" s="457"/>
+      <c r="F46" s="455"/>
       <c r="G46" s="401"/>
-      <c r="H46" s="457"/>
+      <c r="H46" s="455"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="456"/>
-      <c r="B47" s="457"/>
+      <c r="A47" s="454"/>
+      <c r="B47" s="455"/>
       <c r="C47" s="397"/>
-      <c r="D47" s="458"/>
-      <c r="E47" s="458"/>
+      <c r="D47" s="456"/>
+      <c r="E47" s="456"/>
       <c r="F47" s="397"/>
       <c r="G47" s="397"/>
       <c r="H47" s="397"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="456"/>
-      <c r="B48" s="457"/>
-      <c r="C48" s="457"/>
-      <c r="D48" s="457"/>
-      <c r="E48" s="457"/>
-      <c r="F48" s="457"/>
+      <c r="A48" s="454"/>
+      <c r="B48" s="455"/>
+      <c r="C48" s="455"/>
+      <c r="D48" s="455"/>
+      <c r="E48" s="455"/>
+      <c r="F48" s="455"/>
       <c r="G48" s="401"/>
-      <c r="H48" s="457"/>
+      <c r="H48" s="455"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="456"/>
-      <c r="B49" s="457"/>
-      <c r="C49" s="457"/>
-      <c r="D49" s="457"/>
-      <c r="E49" s="457"/>
-      <c r="F49" s="457"/>
+      <c r="A49" s="454"/>
+      <c r="B49" s="455"/>
+      <c r="C49" s="455"/>
+      <c r="D49" s="455"/>
+      <c r="E49" s="455"/>
+      <c r="F49" s="455"/>
       <c r="G49" s="401"/>
-      <c r="H49" s="457"/>
+      <c r="H49" s="455"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="456"/>
-      <c r="B50" s="457"/>
-      <c r="C50" s="457"/>
+      <c r="A50" s="454"/>
+      <c r="B50" s="455"/>
+      <c r="C50" s="455"/>
       <c r="D50" s="377"/>
       <c r="E50" s="377"/>
-      <c r="F50" s="457"/>
+      <c r="F50" s="455"/>
       <c r="G50" s="401"/>
-      <c r="H50" s="457"/>
+      <c r="H50" s="455"/>
     </row>
     <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="377"/>
-      <c r="B51" s="504"/>
-      <c r="C51" s="504"/>
-      <c r="D51" s="505"/>
-      <c r="E51" s="453"/>
+      <c r="B51" s="501"/>
+      <c r="C51" s="501"/>
+      <c r="D51" s="502"/>
+      <c r="E51" s="451"/>
       <c r="F51" s="377"/>
       <c r="G51" s="377"/>
       <c r="H51" s="377"/>
@@ -10174,31 +10180,31 @@
       <c r="J51" s="377"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="455"/>
-      <c r="B52" s="455"/>
-      <c r="C52" s="455"/>
-      <c r="D52" s="455"/>
-      <c r="E52" s="455"/>
-      <c r="F52" s="455"/>
-      <c r="G52" s="455"/>
-      <c r="H52" s="455"/>
-      <c r="I52" s="511"/>
-      <c r="J52" s="512"/>
+      <c r="A52" s="453"/>
+      <c r="B52" s="453"/>
+      <c r="C52" s="453"/>
+      <c r="D52" s="453"/>
+      <c r="E52" s="453"/>
+      <c r="F52" s="453"/>
+      <c r="G52" s="453"/>
+      <c r="H52" s="453"/>
+      <c r="I52" s="508"/>
+      <c r="J52" s="509"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="456"/>
+      <c r="A53" s="454"/>
       <c r="B53" s="377"/>
       <c r="C53" s="377"/>
       <c r="D53" s="377"/>
       <c r="E53" s="377"/>
       <c r="F53" s="401"/>
       <c r="G53" s="401"/>
-      <c r="H53" s="457"/>
-      <c r="I53" s="513"/>
-      <c r="J53" s="513"/>
+      <c r="H53" s="455"/>
+      <c r="I53" s="510"/>
+      <c r="J53" s="510"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="456"/>
+      <c r="A54" s="454"/>
       <c r="B54" s="377"/>
       <c r="C54" s="377"/>
       <c r="D54" s="397"/>
@@ -10206,8 +10212,8 @@
       <c r="F54" s="397"/>
       <c r="G54" s="397"/>
       <c r="H54" s="397"/>
-      <c r="I54" s="513"/>
-      <c r="J54" s="513"/>
+      <c r="I54" s="510"/>
+      <c r="J54" s="510"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="377"/>
@@ -10220,12 +10226,12 @@
       <c r="H55" s="377"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="511"/>
-      <c r="C60" s="512"/>
+      <c r="B60" s="508"/>
+      <c r="C60" s="509"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="511"/>
-      <c r="C67" s="512"/>
+      <c r="B67" s="508"/>
+      <c r="C67" s="509"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10254,8 +10260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A32" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A47"/>
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10281,7 +10287,7 @@
     </row>
     <row r="3" spans="1:11" s="353" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="G3" s="304" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H3" s="305"/>
       <c r="I3" s="305"/>
@@ -10290,7 +10296,7 @@
     </row>
     <row r="4" spans="1:11" s="353" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="G4" s="304" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H4" s="305"/>
       <c r="I4" s="305"/>
@@ -10301,7 +10307,7 @@
     <row r="6" spans="1:11" s="353" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="G6" s="354"/>
       <c r="H6" s="304" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I6" s="305"/>
       <c r="J6" s="305"/>
@@ -10317,52 +10323,52 @@
       </c>
       <c r="H8" s="354"/>
       <c r="I8" s="304" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J8" s="305"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="515" t="s">
+      <c r="A11" s="512" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="515"/>
-      <c r="C11" s="515"/>
-      <c r="D11" s="515"/>
-      <c r="E11" s="515"/>
-      <c r="F11" s="515"/>
-      <c r="G11" s="515"/>
-      <c r="H11" s="515"/>
-      <c r="I11" s="515"/>
-      <c r="J11" s="515"/>
+      <c r="B11" s="512"/>
+      <c r="C11" s="512"/>
+      <c r="D11" s="512"/>
+      <c r="E11" s="512"/>
+      <c r="F11" s="512"/>
+      <c r="G11" s="512"/>
+      <c r="H11" s="512"/>
+      <c r="I11" s="512"/>
+      <c r="J11" s="512"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="514" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="514"/>
-      <c r="C12" s="514"/>
-      <c r="D12" s="514"/>
-      <c r="E12" s="514"/>
-      <c r="F12" s="514"/>
-      <c r="G12" s="514"/>
-      <c r="H12" s="514"/>
-      <c r="I12" s="514"/>
-      <c r="J12" s="514"/>
+      <c r="A12" s="511" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="511"/>
+      <c r="C12" s="511"/>
+      <c r="D12" s="511"/>
+      <c r="E12" s="511"/>
+      <c r="F12" s="511"/>
+      <c r="G12" s="511"/>
+      <c r="H12" s="511"/>
+      <c r="I12" s="511"/>
+      <c r="J12" s="511"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="516" t="str">
+      <c r="A13" s="513" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="B13" s="515"/>
-      <c r="C13" s="515"/>
-      <c r="D13" s="515"/>
-      <c r="E13" s="515"/>
-      <c r="F13" s="515"/>
-      <c r="G13" s="515"/>
-      <c r="H13" s="515"/>
-      <c r="I13" s="515"/>
-      <c r="J13" s="515"/>
+      <c r="B13" s="512"/>
+      <c r="C13" s="512"/>
+      <c r="D13" s="512"/>
+      <c r="E13" s="512"/>
+      <c r="F13" s="512"/>
+      <c r="G13" s="512"/>
+      <c r="H13" s="512"/>
+      <c r="I13" s="512"/>
+      <c r="J13" s="512"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="299" t="s">
@@ -10383,7 +10389,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="299" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="299"/>
       <c r="C16" s="299"/>
@@ -10457,7 +10463,7 @@
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="299" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="299"/>
       <c r="C20" s="299"/>
@@ -10474,7 +10480,7 @@
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="299" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="299"/>
       <c r="C21" s="299"/>
@@ -10487,493 +10493,495 @@
       <c r="J21" s="300"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="520" t="s">
+      <c r="A22" s="517" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="520" t="s">
+      <c r="B22" s="517" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="520"/>
-      <c r="D22" s="520"/>
-      <c r="E22" s="520" t="s">
+      <c r="C22" s="517"/>
+      <c r="D22" s="517"/>
+      <c r="E22" s="517" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="520"/>
-      <c r="G22" s="538" t="s">
+      <c r="F22" s="517"/>
+      <c r="G22" s="535" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="520" t="s">
+      <c r="H22" s="517" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="520"/>
-      <c r="J22" s="520"/>
+      <c r="I22" s="517"/>
+      <c r="J22" s="517"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="520"/>
-      <c r="B23" s="520"/>
-      <c r="C23" s="520"/>
-      <c r="D23" s="520"/>
-      <c r="E23" s="520"/>
-      <c r="F23" s="520"/>
-      <c r="G23" s="538"/>
-      <c r="H23" s="520"/>
-      <c r="I23" s="520"/>
-      <c r="J23" s="520"/>
+      <c r="A23" s="517"/>
+      <c r="B23" s="517"/>
+      <c r="C23" s="517"/>
+      <c r="D23" s="517"/>
+      <c r="E23" s="517"/>
+      <c r="F23" s="517"/>
+      <c r="G23" s="535"/>
+      <c r="H23" s="517"/>
+      <c r="I23" s="517"/>
+      <c r="J23" s="517"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="521">
+      <c r="A24" s="518">
         <v>1</v>
       </c>
-      <c r="B24" s="535" t="s">
+      <c r="B24" s="532" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="536"/>
-      <c r="D24" s="537"/>
-      <c r="E24" s="523" t="str">
+      <c r="C24" s="533"/>
+      <c r="D24" s="534"/>
+      <c r="E24" s="520" t="str">
         <f>Данные!C14</f>
         <v>Батькова</v>
       </c>
-      <c r="F24" s="524"/>
-      <c r="G24" s="527">
+      <c r="F24" s="521"/>
+      <c r="G24" s="524">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="529"/>
-      <c r="I24" s="530"/>
-      <c r="J24" s="531"/>
-    </row>
-    <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="522"/>
-      <c r="B25" s="517" t="str">
+      <c r="H24" s="526" t="s">
+        <v>148</v>
+      </c>
+      <c r="I24" s="527"/>
+      <c r="J24" s="528"/>
+    </row>
+    <row r="25" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="519"/>
+      <c r="B25" s="514" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C25" s="518"/>
-      <c r="D25" s="519"/>
-      <c r="E25" s="525"/>
-      <c r="F25" s="526"/>
-      <c r="G25" s="528"/>
-      <c r="H25" s="532"/>
-      <c r="I25" s="533"/>
-      <c r="J25" s="534"/>
+      <c r="C25" s="515"/>
+      <c r="D25" s="516"/>
+      <c r="E25" s="522"/>
+      <c r="F25" s="523"/>
+      <c r="G25" s="525"/>
+      <c r="H25" s="529"/>
+      <c r="I25" s="530"/>
+      <c r="J25" s="531"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="521">
+      <c r="A26" s="518">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="539" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="540"/>
-      <c r="D26" s="541"/>
-      <c r="E26" s="523" t="str">
+      <c r="B26" s="542" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="543"/>
+      <c r="D26" s="544"/>
+      <c r="E26" s="520" t="str">
         <f>Данные!C15</f>
         <v>Батькова</v>
       </c>
-      <c r="F26" s="524"/>
-      <c r="G26" s="527">
+      <c r="F26" s="521"/>
+      <c r="G26" s="524">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="529"/>
-      <c r="I26" s="530"/>
-      <c r="J26" s="531"/>
+      <c r="H26" s="536"/>
+      <c r="I26" s="537"/>
+      <c r="J26" s="538"/>
     </row>
     <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="522"/>
-      <c r="B27" s="517" t="str">
+      <c r="A27" s="519"/>
+      <c r="B27" s="514" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C27" s="518"/>
-      <c r="D27" s="519"/>
-      <c r="E27" s="525"/>
-      <c r="F27" s="526"/>
-      <c r="G27" s="528"/>
-      <c r="H27" s="532"/>
-      <c r="I27" s="533"/>
-      <c r="J27" s="534"/>
+      <c r="C27" s="515"/>
+      <c r="D27" s="516"/>
+      <c r="E27" s="522"/>
+      <c r="F27" s="523"/>
+      <c r="G27" s="525"/>
+      <c r="H27" s="539"/>
+      <c r="I27" s="540"/>
+      <c r="J27" s="541"/>
     </row>
     <row r="28" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="521">
+      <c r="A28" s="518">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="539" t="s">
+      <c r="B28" s="542" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="540"/>
-      <c r="D28" s="541"/>
-      <c r="E28" s="523" t="str">
+      <c r="C28" s="543"/>
+      <c r="D28" s="544"/>
+      <c r="E28" s="520" t="str">
         <f>Данные!C16</f>
         <v>Батькова</v>
       </c>
-      <c r="F28" s="524"/>
-      <c r="G28" s="527">
+      <c r="F28" s="521"/>
+      <c r="G28" s="524">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="529"/>
-      <c r="I28" s="530"/>
-      <c r="J28" s="531"/>
+      <c r="H28" s="536"/>
+      <c r="I28" s="537"/>
+      <c r="J28" s="538"/>
     </row>
     <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="522"/>
-      <c r="B29" s="517" t="str">
+      <c r="A29" s="519"/>
+      <c r="B29" s="514" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C29" s="518"/>
-      <c r="D29" s="519"/>
-      <c r="E29" s="525"/>
-      <c r="F29" s="526"/>
-      <c r="G29" s="528"/>
-      <c r="H29" s="532"/>
-      <c r="I29" s="533"/>
-      <c r="J29" s="534"/>
+      <c r="C29" s="515"/>
+      <c r="D29" s="516"/>
+      <c r="E29" s="522"/>
+      <c r="F29" s="523"/>
+      <c r="G29" s="525"/>
+      <c r="H29" s="539"/>
+      <c r="I29" s="540"/>
+      <c r="J29" s="541"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="521">
+      <c r="A30" s="518">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="539" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="540"/>
-      <c r="D30" s="541"/>
-      <c r="E30" s="523" t="str">
+      <c r="B30" s="542" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="543"/>
+      <c r="D30" s="544"/>
+      <c r="E30" s="520" t="str">
         <f>Данные!C17</f>
         <v>Батькова</v>
       </c>
-      <c r="F30" s="524"/>
-      <c r="G30" s="527">
+      <c r="F30" s="521"/>
+      <c r="G30" s="524">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="529"/>
-      <c r="I30" s="530"/>
-      <c r="J30" s="531"/>
+      <c r="H30" s="536"/>
+      <c r="I30" s="537"/>
+      <c r="J30" s="538"/>
     </row>
     <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="522"/>
-      <c r="B31" s="517" t="str">
+      <c r="A31" s="519"/>
+      <c r="B31" s="514" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C31" s="518"/>
-      <c r="D31" s="519"/>
-      <c r="E31" s="542"/>
-      <c r="F31" s="526"/>
-      <c r="G31" s="528"/>
-      <c r="H31" s="532"/>
-      <c r="I31" s="533"/>
-      <c r="J31" s="534"/>
+      <c r="C31" s="515"/>
+      <c r="D31" s="516"/>
+      <c r="E31" s="545"/>
+      <c r="F31" s="523"/>
+      <c r="G31" s="525"/>
+      <c r="H31" s="539"/>
+      <c r="I31" s="540"/>
+      <c r="J31" s="541"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="521">
+      <c r="A32" s="518">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="539" t="s">
+      <c r="B32" s="542" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="540"/>
-      <c r="D32" s="541"/>
-      <c r="E32" s="523" t="str">
+      <c r="C32" s="543"/>
+      <c r="D32" s="544"/>
+      <c r="E32" s="520" t="str">
         <f>Данные!C18</f>
         <v>Батькова</v>
       </c>
-      <c r="F32" s="524"/>
-      <c r="G32" s="527">
+      <c r="F32" s="521"/>
+      <c r="G32" s="524">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H32" s="529"/>
-      <c r="I32" s="530"/>
-      <c r="J32" s="531"/>
+      <c r="H32" s="536"/>
+      <c r="I32" s="537"/>
+      <c r="J32" s="538"/>
     </row>
     <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="522"/>
-      <c r="B33" s="517" t="str">
+      <c r="A33" s="519"/>
+      <c r="B33" s="514" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C33" s="518"/>
-      <c r="D33" s="519"/>
-      <c r="E33" s="542"/>
-      <c r="F33" s="526"/>
-      <c r="G33" s="528"/>
-      <c r="H33" s="532"/>
-      <c r="I33" s="533"/>
-      <c r="J33" s="534"/>
+      <c r="C33" s="515"/>
+      <c r="D33" s="516"/>
+      <c r="E33" s="545"/>
+      <c r="F33" s="523"/>
+      <c r="G33" s="525"/>
+      <c r="H33" s="539"/>
+      <c r="I33" s="540"/>
+      <c r="J33" s="541"/>
     </row>
     <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="521">
+      <c r="A34" s="518">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="539" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="540"/>
-      <c r="D34" s="541"/>
-      <c r="E34" s="523" t="str">
+      <c r="B34" s="542" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="543"/>
+      <c r="D34" s="544"/>
+      <c r="E34" s="520" t="str">
         <f>Данные!C19</f>
         <v>Батькова</v>
       </c>
-      <c r="F34" s="524"/>
-      <c r="G34" s="527">
+      <c r="F34" s="521"/>
+      <c r="G34" s="524">
         <f>Данные!B19</f>
         <v>70</v>
       </c>
-      <c r="H34" s="529"/>
-      <c r="I34" s="530"/>
-      <c r="J34" s="531"/>
+      <c r="H34" s="536"/>
+      <c r="I34" s="537"/>
+      <c r="J34" s="538"/>
     </row>
     <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="522"/>
-      <c r="B35" s="517" t="str">
+      <c r="A35" s="519"/>
+      <c r="B35" s="514" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C35" s="518"/>
-      <c r="D35" s="519"/>
-      <c r="E35" s="542"/>
-      <c r="F35" s="526"/>
-      <c r="G35" s="528"/>
-      <c r="H35" s="532"/>
-      <c r="I35" s="533"/>
-      <c r="J35" s="534"/>
+      <c r="C35" s="515"/>
+      <c r="D35" s="516"/>
+      <c r="E35" s="545"/>
+      <c r="F35" s="523"/>
+      <c r="G35" s="525"/>
+      <c r="H35" s="539"/>
+      <c r="I35" s="540"/>
+      <c r="J35" s="541"/>
     </row>
     <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="521">
+      <c r="A36" s="518">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="539" t="s">
+      <c r="B36" s="542" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="540"/>
-      <c r="D36" s="541"/>
-      <c r="E36" s="523" t="str">
+      <c r="C36" s="543"/>
+      <c r="D36" s="544"/>
+      <c r="E36" s="520" t="str">
         <f>Данные!C20</f>
         <v>Батькова</v>
       </c>
-      <c r="F36" s="524"/>
-      <c r="G36" s="527">
+      <c r="F36" s="521"/>
+      <c r="G36" s="524">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="529"/>
-      <c r="I36" s="530"/>
-      <c r="J36" s="531"/>
+      <c r="H36" s="536"/>
+      <c r="I36" s="537"/>
+      <c r="J36" s="538"/>
     </row>
     <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="522"/>
-      <c r="B37" s="517" t="str">
+      <c r="A37" s="519"/>
+      <c r="B37" s="514" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C37" s="518"/>
-      <c r="D37" s="519"/>
-      <c r="E37" s="542"/>
-      <c r="F37" s="526"/>
-      <c r="G37" s="528"/>
-      <c r="H37" s="532"/>
-      <c r="I37" s="533"/>
-      <c r="J37" s="534"/>
+      <c r="C37" s="515"/>
+      <c r="D37" s="516"/>
+      <c r="E37" s="545"/>
+      <c r="F37" s="523"/>
+      <c r="G37" s="525"/>
+      <c r="H37" s="539"/>
+      <c r="I37" s="540"/>
+      <c r="J37" s="541"/>
     </row>
     <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="521">
+      <c r="A38" s="518">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="539" t="s">
+      <c r="B38" s="542" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="540"/>
-      <c r="D38" s="541"/>
-      <c r="E38" s="523">
+      <c r="C38" s="543"/>
+      <c r="D38" s="544"/>
+      <c r="E38" s="520">
         <f>Данные!C21</f>
         <v>0</v>
       </c>
-      <c r="F38" s="524"/>
-      <c r="G38" s="527">
+      <c r="F38" s="521"/>
+      <c r="G38" s="524">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="H38" s="529"/>
-      <c r="I38" s="530"/>
-      <c r="J38" s="531"/>
+      <c r="H38" s="536"/>
+      <c r="I38" s="537"/>
+      <c r="J38" s="538"/>
     </row>
     <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="522"/>
-      <c r="B39" s="517" t="str">
+      <c r="A39" s="519"/>
+      <c r="B39" s="514" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C39" s="518"/>
-      <c r="D39" s="519"/>
-      <c r="E39" s="542"/>
-      <c r="F39" s="526"/>
-      <c r="G39" s="528"/>
-      <c r="H39" s="532"/>
-      <c r="I39" s="533"/>
-      <c r="J39" s="534"/>
+      <c r="C39" s="515"/>
+      <c r="D39" s="516"/>
+      <c r="E39" s="545"/>
+      <c r="F39" s="523"/>
+      <c r="G39" s="525"/>
+      <c r="H39" s="539"/>
+      <c r="I39" s="540"/>
+      <c r="J39" s="541"/>
     </row>
     <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="521">
+      <c r="A40" s="518">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="539" t="s">
+      <c r="B40" s="542" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="540"/>
-      <c r="D40" s="541"/>
-      <c r="E40" s="523" t="str">
+      <c r="C40" s="543"/>
+      <c r="D40" s="544"/>
+      <c r="E40" s="520" t="str">
         <f>Данные!C23</f>
         <v>Батькова</v>
       </c>
-      <c r="F40" s="524"/>
-      <c r="G40" s="527">
+      <c r="F40" s="521"/>
+      <c r="G40" s="524">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="529"/>
-      <c r="I40" s="530"/>
-      <c r="J40" s="531"/>
+      <c r="H40" s="536"/>
+      <c r="I40" s="537"/>
+      <c r="J40" s="538"/>
     </row>
     <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="522"/>
-      <c r="B41" s="517" t="str">
+      <c r="A41" s="519"/>
+      <c r="B41" s="514" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C41" s="518"/>
-      <c r="D41" s="519"/>
-      <c r="E41" s="542"/>
-      <c r="F41" s="526"/>
-      <c r="G41" s="528"/>
-      <c r="H41" s="532"/>
-      <c r="I41" s="533"/>
-      <c r="J41" s="534"/>
+      <c r="C41" s="515"/>
+      <c r="D41" s="516"/>
+      <c r="E41" s="545"/>
+      <c r="F41" s="523"/>
+      <c r="G41" s="525"/>
+      <c r="H41" s="539"/>
+      <c r="I41" s="540"/>
+      <c r="J41" s="541"/>
     </row>
     <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="521">
+      <c r="A42" s="518">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="539" t="s">
+      <c r="B42" s="542" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="540"/>
-      <c r="D42" s="541"/>
-      <c r="E42" s="523" t="str">
+      <c r="C42" s="543"/>
+      <c r="D42" s="544"/>
+      <c r="E42" s="520" t="str">
         <f>Данные!C26</f>
         <v>Батькова</v>
       </c>
-      <c r="F42" s="524"/>
-      <c r="G42" s="527">
+      <c r="F42" s="521"/>
+      <c r="G42" s="524">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="H42" s="529"/>
-      <c r="I42" s="530"/>
-      <c r="J42" s="531"/>
+      <c r="H42" s="536"/>
+      <c r="I42" s="537"/>
+      <c r="J42" s="538"/>
     </row>
     <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="522"/>
-      <c r="B43" s="517" t="str">
+      <c r="A43" s="519"/>
+      <c r="B43" s="514" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C43" s="518"/>
-      <c r="D43" s="519"/>
-      <c r="E43" s="542"/>
-      <c r="F43" s="526"/>
-      <c r="G43" s="528"/>
-      <c r="H43" s="532"/>
-      <c r="I43" s="533"/>
-      <c r="J43" s="534"/>
+      <c r="C43" s="515"/>
+      <c r="D43" s="516"/>
+      <c r="E43" s="545"/>
+      <c r="F43" s="523"/>
+      <c r="G43" s="525"/>
+      <c r="H43" s="539"/>
+      <c r="I43" s="540"/>
+      <c r="J43" s="541"/>
     </row>
     <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="521">
+      <c r="A44" s="518">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="539" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="540"/>
-      <c r="D44" s="541"/>
-      <c r="E44" s="523">
+      <c r="B44" s="542" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="543"/>
+      <c r="D44" s="544"/>
+      <c r="E44" s="520">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="524"/>
-      <c r="G44" s="527">
+      <c r="F44" s="521"/>
+      <c r="G44" s="524">
         <f>Данные!B27</f>
         <v>20</v>
       </c>
-      <c r="H44" s="529"/>
-      <c r="I44" s="530"/>
-      <c r="J44" s="531"/>
+      <c r="H44" s="536"/>
+      <c r="I44" s="537"/>
+      <c r="J44" s="538"/>
     </row>
     <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="522"/>
-      <c r="B45" s="517" t="str">
+      <c r="A45" s="519"/>
+      <c r="B45" s="514" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C45" s="518"/>
-      <c r="D45" s="519"/>
-      <c r="E45" s="542"/>
-      <c r="F45" s="526"/>
-      <c r="G45" s="528"/>
-      <c r="H45" s="532"/>
-      <c r="I45" s="533"/>
-      <c r="J45" s="534"/>
+      <c r="C45" s="515"/>
+      <c r="D45" s="516"/>
+      <c r="E45" s="545"/>
+      <c r="F45" s="523"/>
+      <c r="G45" s="525"/>
+      <c r="H45" s="539"/>
+      <c r="I45" s="540"/>
+      <c r="J45" s="541"/>
     </row>
     <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="521">
+      <c r="A46" s="518">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="539" t="s">
+      <c r="B46" s="542" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="540"/>
-      <c r="D46" s="541"/>
-      <c r="E46" s="523" t="str">
+      <c r="C46" s="543"/>
+      <c r="D46" s="544"/>
+      <c r="E46" s="520" t="str">
         <f>Данные!C24</f>
         <v>Батькова</v>
       </c>
-      <c r="F46" s="524"/>
-      <c r="G46" s="527">
+      <c r="F46" s="521"/>
+      <c r="G46" s="524">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="529"/>
-      <c r="I46" s="530"/>
-      <c r="J46" s="531"/>
+      <c r="H46" s="536"/>
+      <c r="I46" s="537"/>
+      <c r="J46" s="538"/>
     </row>
     <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="522"/>
-      <c r="B47" s="517" t="str">
+      <c r="A47" s="519"/>
+      <c r="B47" s="514" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C47" s="518"/>
-      <c r="D47" s="519"/>
-      <c r="E47" s="542"/>
-      <c r="F47" s="526"/>
-      <c r="G47" s="528"/>
-      <c r="H47" s="532"/>
-      <c r="I47" s="533"/>
-      <c r="J47" s="534"/>
+      <c r="C47" s="515"/>
+      <c r="D47" s="516"/>
+      <c r="E47" s="545"/>
+      <c r="F47" s="523"/>
+      <c r="G47" s="525"/>
+      <c r="H47" s="539"/>
+      <c r="I47" s="540"/>
+      <c r="J47" s="541"/>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="299"/>
@@ -11019,7 +11027,7 @@
         <v>72</v>
       </c>
       <c r="C51" s="299" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="D51" s="299"/>
       <c r="E51" s="299"/>
@@ -11185,7 +11193,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11236,47 +11244,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="557"/>
-      <c r="C2" s="558"/>
-      <c r="D2" s="559"/>
-      <c r="E2" s="566" t="s">
+      <c r="B2" s="560"/>
+      <c r="C2" s="561"/>
+      <c r="D2" s="562"/>
+      <c r="E2" s="569" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="567"/>
-      <c r="G2" s="567"/>
-      <c r="H2" s="568"/>
-      <c r="I2" s="573" t="s">
+      <c r="F2" s="570"/>
+      <c r="G2" s="570"/>
+      <c r="H2" s="571"/>
+      <c r="I2" s="576" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="574"/>
-      <c r="K2" s="577">
+      <c r="J2" s="577"/>
+      <c r="K2" s="580">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="578"/>
+      <c r="L2" s="581"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="569"/>
-      <c r="Q2" s="569"/>
+      <c r="P2" s="572"/>
+      <c r="Q2" s="572"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="560"/>
-      <c r="C3" s="561"/>
-      <c r="D3" s="562"/>
-      <c r="E3" s="570" t="s">
+      <c r="B3" s="563"/>
+      <c r="C3" s="564"/>
+      <c r="D3" s="565"/>
+      <c r="E3" s="573" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="571"/>
-      <c r="G3" s="571"/>
-      <c r="H3" s="572"/>
-      <c r="I3" s="575"/>
-      <c r="J3" s="576"/>
-      <c r="K3" s="579"/>
-      <c r="L3" s="580"/>
+      <c r="F3" s="574"/>
+      <c r="G3" s="574"/>
+      <c r="H3" s="575"/>
+      <c r="I3" s="578"/>
+      <c r="J3" s="579"/>
+      <c r="K3" s="582"/>
+      <c r="L3" s="583"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11287,9 +11295,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="563"/>
-      <c r="C4" s="564"/>
-      <c r="D4" s="565"/>
+      <c r="B4" s="566"/>
+      <c r="C4" s="567"/>
+      <c r="D4" s="568"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11308,22 +11316,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="585"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="493" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="546"/>
-      <c r="J5" s="547"/>
-      <c r="K5" s="497"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="494"/>
+      <c r="F5" s="494"/>
+      <c r="G5" s="494"/>
+      <c r="H5" s="495"/>
+      <c r="I5" s="549"/>
+      <c r="J5" s="550"/>
+      <c r="K5" s="494"/>
+      <c r="L5" s="495"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11334,22 +11342,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="586"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="589"/>
+      <c r="D6" s="487" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="546"/>
-      <c r="J6" s="547"/>
-      <c r="K6" s="497"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="590"/>
+      <c r="F6" s="590"/>
+      <c r="G6" s="590"/>
+      <c r="H6" s="591"/>
+      <c r="I6" s="549"/>
+      <c r="J6" s="550"/>
+      <c r="K6" s="494"/>
+      <c r="L6" s="495"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11360,27 +11368,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="548" t="s">
+      <c r="B7" s="551" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="549"/>
-      <c r="D7" s="499">
+      <c r="C7" s="552"/>
+      <c r="D7" s="496">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="550"/>
-      <c r="F7" s="550"/>
-      <c r="G7" s="550"/>
-      <c r="H7" s="551"/>
-      <c r="I7" s="548" t="s">
+      <c r="E7" s="553"/>
+      <c r="F7" s="553"/>
+      <c r="G7" s="553"/>
+      <c r="H7" s="554"/>
+      <c r="I7" s="551" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="552"/>
-      <c r="K7" s="487">
+      <c r="J7" s="555"/>
+      <c r="K7" s="484">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="485"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11841,7 +11849,7 @@
         <v>41</v>
       </c>
       <c r="C22" s="347" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D22" s="104">
         <v>0.02</v>
@@ -11870,12 +11878,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="543" t="s">
+      <c r="B23" s="546" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="544"/>
-      <c r="D23" s="544"/>
-      <c r="E23" s="545"/>
+      <c r="C23" s="547"/>
+      <c r="D23" s="547"/>
+      <c r="E23" s="548"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -11897,12 +11905,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="581" t="s">
+      <c r="B24" s="584" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="582"/>
-      <c r="D24" s="582"/>
-      <c r="E24" s="583"/>
+      <c r="C24" s="585"/>
+      <c r="D24" s="585"/>
+      <c r="E24" s="586"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -11945,25 +11953,25 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K27" s="556" t="s">
-        <v>136</v>
-      </c>
-      <c r="L27" s="556"/>
-      <c r="M27" s="556"/>
-      <c r="N27" s="462"/>
-      <c r="O27" s="462"/>
-      <c r="P27" s="478"/>
-      <c r="Q27" s="478"/>
+      <c r="K27" s="559" t="s">
+        <v>135</v>
+      </c>
+      <c r="L27" s="559"/>
+      <c r="M27" s="559"/>
+      <c r="N27" s="460"/>
+      <c r="O27" s="460"/>
+      <c r="P27" s="476"/>
+      <c r="Q27" s="476"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N28" s="553" t="s">
+      <c r="N28" s="556" t="s">
+        <v>139</v>
+      </c>
+      <c r="O28" s="556"/>
+      <c r="P28" s="557" t="s">
         <v>140</v>
       </c>
-      <c r="O28" s="553"/>
-      <c r="P28" s="554" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q28" s="555"/>
+      <c r="Q28" s="558"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -12055,50 +12063,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="592">
+      <c r="B2" s="595">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="593"/>
-      <c r="D2" s="594"/>
-      <c r="E2" s="601" t="s">
+      <c r="C2" s="596"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="604" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="602"/>
-      <c r="G2" s="602"/>
-      <c r="H2" s="603"/>
-      <c r="I2" s="607" t="s">
+      <c r="F2" s="605"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="606"/>
+      <c r="I2" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="608"/>
-      <c r="K2" s="611">
+      <c r="J2" s="611"/>
+      <c r="K2" s="614">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="612"/>
+      <c r="L2" s="615"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="569"/>
-      <c r="Q2" s="569"/>
+      <c r="P2" s="572"/>
+      <c r="Q2" s="572"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="595"/>
-      <c r="C3" s="596"/>
-      <c r="D3" s="597"/>
-      <c r="E3" s="604" t="s">
+      <c r="B3" s="598"/>
+      <c r="C3" s="599"/>
+      <c r="D3" s="600"/>
+      <c r="E3" s="607" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="605"/>
-      <c r="G3" s="605"/>
-      <c r="H3" s="606"/>
-      <c r="I3" s="609"/>
-      <c r="J3" s="610"/>
-      <c r="K3" s="613"/>
-      <c r="L3" s="614"/>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="612"/>
+      <c r="J3" s="613"/>
+      <c r="K3" s="616"/>
+      <c r="L3" s="617"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12109,9 +12117,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="598"/>
-      <c r="C4" s="599"/>
-      <c r="D4" s="600"/>
+      <c r="B4" s="601"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="603"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12130,22 +12138,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="615"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="618"/>
+      <c r="D5" s="493" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="616"/>
-      <c r="J5" s="617"/>
-      <c r="K5" s="618"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="494"/>
+      <c r="F5" s="494"/>
+      <c r="G5" s="494"/>
+      <c r="H5" s="495"/>
+      <c r="I5" s="619"/>
+      <c r="J5" s="620"/>
+      <c r="K5" s="621"/>
+      <c r="L5" s="495"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12156,22 +12164,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="615"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="618"/>
+      <c r="D6" s="487" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="616"/>
-      <c r="J6" s="617"/>
-      <c r="K6" s="618"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="590"/>
+      <c r="F6" s="590"/>
+      <c r="G6" s="590"/>
+      <c r="H6" s="591"/>
+      <c r="I6" s="619"/>
+      <c r="J6" s="620"/>
+      <c r="K6" s="621"/>
+      <c r="L6" s="495"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12182,27 +12190,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="548" t="s">
+      <c r="B7" s="551" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="619"/>
-      <c r="D7" s="499">
+      <c r="C7" s="622"/>
+      <c r="D7" s="496">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="550"/>
-      <c r="F7" s="550"/>
-      <c r="G7" s="550"/>
-      <c r="H7" s="551"/>
-      <c r="I7" s="620" t="s">
+      <c r="E7" s="553"/>
+      <c r="F7" s="553"/>
+      <c r="G7" s="553"/>
+      <c r="H7" s="554"/>
+      <c r="I7" s="623" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="619"/>
-      <c r="K7" s="487">
+      <c r="J7" s="622"/>
+      <c r="K7" s="484">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="485"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12399,12 +12407,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="590" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="591"/>
-      <c r="D14" s="591"/>
-      <c r="E14" s="591"/>
+      <c r="B14" s="593" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="594"/>
+      <c r="D14" s="594"/>
+      <c r="E14" s="594"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12426,15 +12434,15 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="543" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="544"/>
-      <c r="D15" s="544"/>
-      <c r="E15" s="544"/>
-      <c r="F15" s="589"/>
+      <c r="B15" s="546" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="547"/>
+      <c r="D15" s="547"/>
+      <c r="E15" s="547"/>
+      <c r="F15" s="592"/>
       <c r="G15" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H15" s="105"/>
       <c r="I15" s="104"/>
@@ -12451,12 +12459,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="581" t="s">
+      <c r="B16" s="584" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="582"/>
-      <c r="D16" s="582"/>
-      <c r="E16" s="583"/>
+      <c r="C16" s="585"/>
+      <c r="D16" s="585"/>
+      <c r="E16" s="586"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12503,25 +12511,25 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="121"/>
-      <c r="L19" s="556" t="s">
-        <v>136</v>
-      </c>
-      <c r="M19" s="556"/>
-      <c r="N19" s="556"/>
-      <c r="O19" s="462"/>
-      <c r="P19" s="462"/>
-      <c r="Q19" s="478"/>
-      <c r="R19" s="478"/>
+      <c r="L19" s="559" t="s">
+        <v>135</v>
+      </c>
+      <c r="M19" s="559"/>
+      <c r="N19" s="559"/>
+      <c r="O19" s="460"/>
+      <c r="P19" s="460"/>
+      <c r="Q19" s="476"/>
+      <c r="R19" s="476"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="553" t="s">
+      <c r="O20" s="556" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="556"/>
+      <c r="Q20" s="557" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="553"/>
-      <c r="Q20" s="554" t="s">
-        <v>141</v>
-      </c>
-      <c r="R20" s="555"/>
+      <c r="R20" s="558"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -12622,47 +12630,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="557"/>
-      <c r="C2" s="558"/>
-      <c r="D2" s="559"/>
-      <c r="E2" s="566" t="s">
+      <c r="B2" s="560"/>
+      <c r="C2" s="561"/>
+      <c r="D2" s="562"/>
+      <c r="E2" s="569" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="567"/>
-      <c r="G2" s="567"/>
-      <c r="H2" s="568"/>
-      <c r="I2" s="573" t="s">
+      <c r="F2" s="570"/>
+      <c r="G2" s="570"/>
+      <c r="H2" s="571"/>
+      <c r="I2" s="576" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="574"/>
-      <c r="K2" s="577">
+      <c r="J2" s="577"/>
+      <c r="K2" s="580">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="578"/>
+      <c r="L2" s="581"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="569"/>
-      <c r="Q2" s="569"/>
+      <c r="P2" s="572"/>
+      <c r="Q2" s="572"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="560"/>
-      <c r="C3" s="561"/>
-      <c r="D3" s="562"/>
-      <c r="E3" s="570" t="s">
+      <c r="B3" s="563"/>
+      <c r="C3" s="564"/>
+      <c r="D3" s="565"/>
+      <c r="E3" s="573" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="571"/>
-      <c r="G3" s="571"/>
-      <c r="H3" s="572"/>
-      <c r="I3" s="575"/>
-      <c r="J3" s="576"/>
-      <c r="K3" s="579"/>
-      <c r="L3" s="580"/>
+      <c r="F3" s="574"/>
+      <c r="G3" s="574"/>
+      <c r="H3" s="575"/>
+      <c r="I3" s="578"/>
+      <c r="J3" s="579"/>
+      <c r="K3" s="582"/>
+      <c r="L3" s="583"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12673,9 +12681,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="563"/>
-      <c r="C4" s="564"/>
-      <c r="D4" s="565"/>
+      <c r="B4" s="566"/>
+      <c r="C4" s="567"/>
+      <c r="D4" s="568"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12694,22 +12702,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="585"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="493" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="546"/>
-      <c r="J5" s="547"/>
-      <c r="K5" s="497"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="494"/>
+      <c r="F5" s="494"/>
+      <c r="G5" s="494"/>
+      <c r="H5" s="495"/>
+      <c r="I5" s="549"/>
+      <c r="J5" s="550"/>
+      <c r="K5" s="494"/>
+      <c r="L5" s="495"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12720,22 +12728,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="586"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="589"/>
+      <c r="D6" s="487" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="546"/>
-      <c r="J6" s="547"/>
-      <c r="K6" s="497"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="590"/>
+      <c r="F6" s="590"/>
+      <c r="G6" s="590"/>
+      <c r="H6" s="591"/>
+      <c r="I6" s="549"/>
+      <c r="J6" s="550"/>
+      <c r="K6" s="494"/>
+      <c r="L6" s="495"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12746,27 +12754,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="548" t="s">
+      <c r="B7" s="551" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="549"/>
-      <c r="D7" s="499">
+      <c r="C7" s="552"/>
+      <c r="D7" s="496">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="550"/>
-      <c r="F7" s="550"/>
-      <c r="G7" s="550"/>
-      <c r="H7" s="551"/>
-      <c r="I7" s="548" t="s">
+      <c r="E7" s="553"/>
+      <c r="F7" s="553"/>
+      <c r="G7" s="553"/>
+      <c r="H7" s="554"/>
+      <c r="I7" s="551" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="552"/>
-      <c r="K7" s="487">
+      <c r="J7" s="555"/>
+      <c r="K7" s="484">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="485"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13246,25 +13254,25 @@
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="L23" s="621" t="s">
-        <v>136</v>
-      </c>
-      <c r="M23" s="621"/>
-      <c r="N23" s="621"/>
-      <c r="O23" s="462"/>
-      <c r="P23" s="462"/>
-      <c r="Q23" s="478"/>
-      <c r="R23" s="478"/>
+      <c r="L23" s="624" t="s">
+        <v>135</v>
+      </c>
+      <c r="M23" s="624"/>
+      <c r="N23" s="624"/>
+      <c r="O23" s="460"/>
+      <c r="P23" s="460"/>
+      <c r="Q23" s="476"/>
+      <c r="R23" s="476"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O24" s="553" t="s">
+      <c r="O24" s="556" t="s">
+        <v>139</v>
+      </c>
+      <c r="P24" s="556"/>
+      <c r="Q24" s="557" t="s">
         <v>140</v>
       </c>
-      <c r="P24" s="553"/>
-      <c r="Q24" s="554" t="s">
-        <v>141</v>
-      </c>
-      <c r="R24" s="555"/>
+      <c r="R24" s="558"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -13356,47 +13364,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="557"/>
-      <c r="C2" s="558"/>
-      <c r="D2" s="559"/>
-      <c r="E2" s="566" t="s">
+      <c r="B2" s="560"/>
+      <c r="C2" s="561"/>
+      <c r="D2" s="562"/>
+      <c r="E2" s="569" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="567"/>
-      <c r="G2" s="567"/>
-      <c r="H2" s="568"/>
-      <c r="I2" s="573" t="s">
+      <c r="F2" s="570"/>
+      <c r="G2" s="570"/>
+      <c r="H2" s="571"/>
+      <c r="I2" s="576" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="574"/>
-      <c r="K2" s="577">
+      <c r="J2" s="577"/>
+      <c r="K2" s="580">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="578"/>
+      <c r="L2" s="581"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="622"/>
-      <c r="Q2" s="622"/>
+      <c r="P2" s="625"/>
+      <c r="Q2" s="625"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="560"/>
-      <c r="C3" s="561"/>
-      <c r="D3" s="562"/>
-      <c r="E3" s="570" t="s">
+      <c r="B3" s="563"/>
+      <c r="C3" s="564"/>
+      <c r="D3" s="565"/>
+      <c r="E3" s="573" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="571"/>
-      <c r="G3" s="571"/>
-      <c r="H3" s="572"/>
-      <c r="I3" s="575"/>
-      <c r="J3" s="576"/>
-      <c r="K3" s="579"/>
-      <c r="L3" s="580"/>
+      <c r="F3" s="574"/>
+      <c r="G3" s="574"/>
+      <c r="H3" s="575"/>
+      <c r="I3" s="578"/>
+      <c r="J3" s="579"/>
+      <c r="K3" s="582"/>
+      <c r="L3" s="583"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13407,9 +13415,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="563"/>
-      <c r="C4" s="564"/>
-      <c r="D4" s="565"/>
+      <c r="B4" s="566"/>
+      <c r="C4" s="567"/>
+      <c r="D4" s="568"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13428,22 +13436,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="585"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="493" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="546"/>
-      <c r="J5" s="547"/>
-      <c r="K5" s="497"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="494"/>
+      <c r="F5" s="494"/>
+      <c r="G5" s="494"/>
+      <c r="H5" s="495"/>
+      <c r="I5" s="549"/>
+      <c r="J5" s="550"/>
+      <c r="K5" s="494"/>
+      <c r="L5" s="495"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13454,22 +13462,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="586"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="589"/>
+      <c r="D6" s="487" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="546"/>
-      <c r="J6" s="547"/>
-      <c r="K6" s="497"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="590"/>
+      <c r="F6" s="590"/>
+      <c r="G6" s="590"/>
+      <c r="H6" s="591"/>
+      <c r="I6" s="549"/>
+      <c r="J6" s="550"/>
+      <c r="K6" s="494"/>
+      <c r="L6" s="495"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13480,27 +13488,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="548" t="s">
+      <c r="B7" s="551" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="549"/>
-      <c r="D7" s="499">
+      <c r="C7" s="552"/>
+      <c r="D7" s="496">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="550"/>
-      <c r="F7" s="550"/>
-      <c r="G7" s="550"/>
-      <c r="H7" s="551"/>
-      <c r="I7" s="548" t="s">
+      <c r="E7" s="553"/>
+      <c r="F7" s="553"/>
+      <c r="G7" s="553"/>
+      <c r="H7" s="554"/>
+      <c r="I7" s="551" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="552"/>
-      <c r="K7" s="487">
+      <c r="J7" s="555"/>
+      <c r="K7" s="484">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="485"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13784,25 +13792,25 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="621" t="s">
-        <v>136</v>
-      </c>
-      <c r="M18" s="621"/>
-      <c r="N18" s="621"/>
-      <c r="O18" s="462"/>
-      <c r="P18" s="462"/>
-      <c r="Q18" s="478"/>
-      <c r="R18" s="478"/>
+      <c r="L18" s="624" t="s">
+        <v>135</v>
+      </c>
+      <c r="M18" s="624"/>
+      <c r="N18" s="624"/>
+      <c r="O18" s="460"/>
+      <c r="P18" s="460"/>
+      <c r="Q18" s="476"/>
+      <c r="R18" s="476"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="O19" s="553" t="s">
+      <c r="O19" s="556" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="556"/>
+      <c r="Q19" s="557" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="553"/>
-      <c r="Q19" s="554" t="s">
-        <v>141</v>
-      </c>
-      <c r="R19" s="555"/>
+      <c r="R19" s="558"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -13898,60 +13906,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="592"/>
-      <c r="C2" s="593"/>
-      <c r="D2" s="594"/>
-      <c r="E2" s="601" t="s">
+      <c r="B2" s="595"/>
+      <c r="C2" s="596"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="604" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="602"/>
-      <c r="G2" s="602"/>
-      <c r="H2" s="603"/>
-      <c r="I2" s="607" t="s">
+      <c r="F2" s="605"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="606"/>
+      <c r="I2" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="608"/>
-      <c r="K2" s="611">
+      <c r="J2" s="611"/>
+      <c r="K2" s="614">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="612"/>
-      <c r="M2" s="623"/>
-      <c r="N2" s="624"/>
-      <c r="O2" s="624"/>
-      <c r="P2" s="624"/>
-      <c r="Q2" s="624"/>
-      <c r="R2" s="625"/>
+      <c r="L2" s="615"/>
+      <c r="M2" s="626"/>
+      <c r="N2" s="627"/>
+      <c r="O2" s="627"/>
+      <c r="P2" s="627"/>
+      <c r="Q2" s="627"/>
+      <c r="R2" s="628"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="595"/>
-      <c r="C3" s="596"/>
-      <c r="D3" s="597"/>
-      <c r="E3" s="604" t="s">
+      <c r="B3" s="598"/>
+      <c r="C3" s="599"/>
+      <c r="D3" s="600"/>
+      <c r="E3" s="607" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="605"/>
-      <c r="G3" s="605"/>
-      <c r="H3" s="606"/>
-      <c r="I3" s="609"/>
-      <c r="J3" s="610"/>
-      <c r="K3" s="613"/>
-      <c r="L3" s="614"/>
-      <c r="M3" s="626"/>
-      <c r="N3" s="627"/>
-      <c r="O3" s="627"/>
-      <c r="P3" s="627"/>
-      <c r="Q3" s="627"/>
-      <c r="R3" s="628"/>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="612"/>
+      <c r="J3" s="613"/>
+      <c r="K3" s="616"/>
+      <c r="L3" s="617"/>
+      <c r="M3" s="629"/>
+      <c r="N3" s="630"/>
+      <c r="O3" s="630"/>
+      <c r="P3" s="630"/>
+      <c r="Q3" s="630"/>
+      <c r="R3" s="631"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="598"/>
-      <c r="C4" s="599"/>
-      <c r="D4" s="600"/>
+      <c r="B4" s="601"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="603"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -13960,95 +13968,95 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="626"/>
-      <c r="N4" s="627"/>
-      <c r="O4" s="627"/>
-      <c r="P4" s="627"/>
-      <c r="Q4" s="627"/>
-      <c r="R4" s="628"/>
+      <c r="M4" s="629"/>
+      <c r="N4" s="630"/>
+      <c r="O4" s="630"/>
+      <c r="P4" s="630"/>
+      <c r="Q4" s="630"/>
+      <c r="R4" s="631"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="615"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="618"/>
+      <c r="D5" s="493" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="616"/>
-      <c r="J5" s="617"/>
-      <c r="K5" s="618"/>
-      <c r="L5" s="498"/>
-      <c r="M5" s="626"/>
-      <c r="N5" s="627"/>
-      <c r="O5" s="627"/>
-      <c r="P5" s="627"/>
-      <c r="Q5" s="627"/>
-      <c r="R5" s="628"/>
+      <c r="E5" s="494"/>
+      <c r="F5" s="494"/>
+      <c r="G5" s="494"/>
+      <c r="H5" s="495"/>
+      <c r="I5" s="619"/>
+      <c r="J5" s="620"/>
+      <c r="K5" s="621"/>
+      <c r="L5" s="495"/>
+      <c r="M5" s="629"/>
+      <c r="N5" s="630"/>
+      <c r="O5" s="630"/>
+      <c r="P5" s="630"/>
+      <c r="Q5" s="630"/>
+      <c r="R5" s="631"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="615"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="618"/>
+      <c r="D6" s="487" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="616"/>
-      <c r="J6" s="617"/>
-      <c r="K6" s="618"/>
-      <c r="L6" s="498"/>
-      <c r="M6" s="626"/>
-      <c r="N6" s="627"/>
-      <c r="O6" s="627"/>
-      <c r="P6" s="627"/>
-      <c r="Q6" s="627"/>
-      <c r="R6" s="628"/>
+      <c r="E6" s="590"/>
+      <c r="F6" s="590"/>
+      <c r="G6" s="590"/>
+      <c r="H6" s="591"/>
+      <c r="I6" s="619"/>
+      <c r="J6" s="620"/>
+      <c r="K6" s="621"/>
+      <c r="L6" s="495"/>
+      <c r="M6" s="629"/>
+      <c r="N6" s="630"/>
+      <c r="O6" s="630"/>
+      <c r="P6" s="630"/>
+      <c r="Q6" s="630"/>
+      <c r="R6" s="631"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="548" t="s">
+      <c r="B7" s="551" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="619"/>
-      <c r="D7" s="499">
+      <c r="C7" s="622"/>
+      <c r="D7" s="496">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="550"/>
-      <c r="F7" s="550"/>
-      <c r="G7" s="550"/>
-      <c r="H7" s="551"/>
-      <c r="I7" s="620" t="s">
+      <c r="E7" s="553"/>
+      <c r="F7" s="553"/>
+      <c r="G7" s="553"/>
+      <c r="H7" s="554"/>
+      <c r="I7" s="623" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="619"/>
-      <c r="K7" s="487">
+      <c r="J7" s="622"/>
+      <c r="K7" s="484">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
-      <c r="M7" s="626"/>
-      <c r="N7" s="627"/>
-      <c r="O7" s="627"/>
-      <c r="P7" s="627"/>
-      <c r="Q7" s="627"/>
-      <c r="R7" s="628"/>
+      <c r="L7" s="485"/>
+      <c r="M7" s="629"/>
+      <c r="N7" s="630"/>
+      <c r="O7" s="630"/>
+      <c r="P7" s="630"/>
+      <c r="Q7" s="630"/>
+      <c r="R7" s="631"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14204,38 +14212,38 @@
       <c r="R12" s="317"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" s="473" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="463"/>
-      <c r="B13" s="464" t="s">
+    <row r="13" spans="1:19" s="471" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="461"/>
+      <c r="B13" s="462" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="465">
+      <c r="C13" s="463">
         <v>38.1</v>
       </c>
-      <c r="D13" s="466">
+      <c r="D13" s="464">
         <v>0.03</v>
       </c>
-      <c r="E13" s="466">
+      <c r="E13" s="464">
         <v>0</v>
       </c>
-      <c r="F13" s="467" t="s">
+      <c r="F13" s="465" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="292" t="s">
-        <v>137</v>
-      </c>
-      <c r="H13" s="468"/>
-      <c r="I13" s="469"/>
-      <c r="J13" s="469"/>
-      <c r="K13" s="469"/>
-      <c r="L13" s="469"/>
-      <c r="M13" s="470"/>
-      <c r="N13" s="470"/>
-      <c r="O13" s="470"/>
-      <c r="P13" s="470"/>
-      <c r="Q13" s="470"/>
-      <c r="R13" s="471"/>
-      <c r="S13" s="472"/>
+        <v>136</v>
+      </c>
+      <c r="H13" s="466"/>
+      <c r="I13" s="467"/>
+      <c r="J13" s="467"/>
+      <c r="K13" s="467"/>
+      <c r="L13" s="467"/>
+      <c r="M13" s="468"/>
+      <c r="N13" s="468"/>
+      <c r="O13" s="468"/>
+      <c r="P13" s="468"/>
+      <c r="Q13" s="468"/>
+      <c r="R13" s="469"/>
+      <c r="S13" s="470"/>
     </row>
     <row r="14" spans="1:19" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
@@ -14255,7 +14263,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="292" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H14" s="98"/>
       <c r="I14" s="97"/>
@@ -14387,7 +14395,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="292" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H18" s="98"/>
       <c r="I18" s="97"/>
@@ -14437,12 +14445,12 @@
     </row>
     <row r="20" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78"/>
-      <c r="B20" s="581" t="s">
+      <c r="B20" s="584" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="582"/>
-      <c r="D20" s="582"/>
-      <c r="E20" s="583"/>
+      <c r="C20" s="585"/>
+      <c r="D20" s="585"/>
+      <c r="E20" s="586"/>
       <c r="F20" s="114" t="s">
         <v>16</v>
       </c>
@@ -14487,25 +14495,25 @@
       <c r="B22" s="121"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L23" s="621" t="s">
-        <v>136</v>
-      </c>
-      <c r="M23" s="621"/>
-      <c r="N23" s="621"/>
-      <c r="O23" s="462"/>
-      <c r="P23" s="462"/>
-      <c r="Q23" s="478"/>
-      <c r="R23" s="478"/>
+      <c r="L23" s="624" t="s">
+        <v>135</v>
+      </c>
+      <c r="M23" s="624"/>
+      <c r="N23" s="624"/>
+      <c r="O23" s="460"/>
+      <c r="P23" s="460"/>
+      <c r="Q23" s="476"/>
+      <c r="R23" s="476"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O24" s="553" t="s">
+      <c r="O24" s="556" t="s">
+        <v>139</v>
+      </c>
+      <c r="P24" s="556"/>
+      <c r="Q24" s="557" t="s">
         <v>140</v>
       </c>
-      <c r="P24" s="553"/>
-      <c r="Q24" s="554" t="s">
-        <v>141</v>
-      </c>
-      <c r="R24" s="555"/>
+      <c r="R24" s="558"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -14595,47 +14603,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="592"/>
-      <c r="C2" s="593"/>
-      <c r="D2" s="594"/>
-      <c r="E2" s="601" t="s">
+      <c r="B2" s="595"/>
+      <c r="C2" s="596"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="604" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="602"/>
-      <c r="G2" s="602"/>
-      <c r="H2" s="603"/>
-      <c r="I2" s="607" t="s">
+      <c r="F2" s="605"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="606"/>
+      <c r="I2" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="608"/>
-      <c r="K2" s="611">
+      <c r="J2" s="611"/>
+      <c r="K2" s="614">
         <f>Данные!B19</f>
         <v>70</v>
       </c>
-      <c r="L2" s="612"/>
+      <c r="L2" s="615"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="629"/>
-      <c r="Q2" s="629"/>
+      <c r="P2" s="632"/>
+      <c r="Q2" s="632"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="595"/>
-      <c r="C3" s="596"/>
-      <c r="D3" s="597"/>
-      <c r="E3" s="604" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="605"/>
-      <c r="G3" s="605"/>
-      <c r="H3" s="606"/>
-      <c r="I3" s="609"/>
-      <c r="J3" s="610"/>
-      <c r="K3" s="613"/>
-      <c r="L3" s="614"/>
+      <c r="B3" s="598"/>
+      <c r="C3" s="599"/>
+      <c r="D3" s="600"/>
+      <c r="E3" s="607" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="612"/>
+      <c r="J3" s="613"/>
+      <c r="K3" s="616"/>
+      <c r="L3" s="617"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14646,9 +14654,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="598"/>
-      <c r="C4" s="599"/>
-      <c r="D4" s="600"/>
+      <c r="B4" s="601"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="603"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14667,22 +14675,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="615"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="618"/>
+      <c r="D5" s="493" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="616"/>
-      <c r="J5" s="617"/>
-      <c r="K5" s="618"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="494"/>
+      <c r="F5" s="494"/>
+      <c r="G5" s="494"/>
+      <c r="H5" s="495"/>
+      <c r="I5" s="619"/>
+      <c r="J5" s="620"/>
+      <c r="K5" s="621"/>
+      <c r="L5" s="495"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14693,22 +14701,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="615"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="618"/>
+      <c r="D6" s="487" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="616"/>
-      <c r="J6" s="617"/>
-      <c r="K6" s="618"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="590"/>
+      <c r="F6" s="590"/>
+      <c r="G6" s="590"/>
+      <c r="H6" s="591"/>
+      <c r="I6" s="619"/>
+      <c r="J6" s="620"/>
+      <c r="K6" s="621"/>
+      <c r="L6" s="495"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14719,27 +14727,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="548" t="s">
+      <c r="B7" s="551" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="619"/>
-      <c r="D7" s="499">
+      <c r="C7" s="622"/>
+      <c r="D7" s="496">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="550"/>
-      <c r="F7" s="550"/>
-      <c r="G7" s="550"/>
-      <c r="H7" s="551"/>
-      <c r="I7" s="620" t="s">
+      <c r="E7" s="553"/>
+      <c r="F7" s="553"/>
+      <c r="G7" s="553"/>
+      <c r="H7" s="554"/>
+      <c r="I7" s="623" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="619"/>
-      <c r="K7" s="487">
+      <c r="J7" s="622"/>
+      <c r="K7" s="484">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="485"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14868,38 +14876,38 @@
       <c r="R11" s="99"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" s="473" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="463"/>
-      <c r="B12" s="474" t="s">
+    <row r="12" spans="1:19" s="471" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="461"/>
+      <c r="B12" s="472" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="475">
+      <c r="C12" s="473">
         <v>28.6</v>
       </c>
-      <c r="D12" s="469">
+      <c r="D12" s="467">
         <v>0</v>
       </c>
-      <c r="E12" s="469">
+      <c r="E12" s="467">
         <v>-0.03</v>
       </c>
-      <c r="F12" s="467" t="s">
+      <c r="F12" s="465" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="292" t="s">
-        <v>139</v>
-      </c>
-      <c r="H12" s="476"/>
-      <c r="I12" s="469"/>
-      <c r="J12" s="469"/>
-      <c r="K12" s="469"/>
-      <c r="L12" s="469"/>
-      <c r="M12" s="469"/>
-      <c r="N12" s="469"/>
-      <c r="O12" s="469"/>
-      <c r="P12" s="469"/>
-      <c r="Q12" s="469"/>
-      <c r="R12" s="477"/>
-      <c r="S12" s="472"/>
+        <v>138</v>
+      </c>
+      <c r="H12" s="474"/>
+      <c r="I12" s="467"/>
+      <c r="J12" s="467"/>
+      <c r="K12" s="467"/>
+      <c r="L12" s="467"/>
+      <c r="M12" s="467"/>
+      <c r="N12" s="467"/>
+      <c r="O12" s="467"/>
+      <c r="P12" s="467"/>
+      <c r="Q12" s="467"/>
+      <c r="R12" s="475"/>
+      <c r="S12" s="470"/>
     </row>
     <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="78"/>
@@ -15002,12 +15010,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="581" t="s">
+      <c r="B16" s="584" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="582"/>
-      <c r="D16" s="582"/>
-      <c r="E16" s="583"/>
+      <c r="C16" s="585"/>
+      <c r="D16" s="585"/>
+      <c r="E16" s="586"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15052,25 +15060,25 @@
       <c r="B18" s="121"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L19" s="621" t="s">
-        <v>136</v>
-      </c>
-      <c r="M19" s="621"/>
-      <c r="N19" s="621"/>
-      <c r="O19" s="462"/>
-      <c r="P19" s="462"/>
-      <c r="Q19" s="478"/>
-      <c r="R19" s="478"/>
+      <c r="L19" s="624" t="s">
+        <v>135</v>
+      </c>
+      <c r="M19" s="624"/>
+      <c r="N19" s="624"/>
+      <c r="O19" s="460"/>
+      <c r="P19" s="460"/>
+      <c r="Q19" s="476"/>
+      <c r="R19" s="476"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="553" t="s">
+      <c r="O20" s="556" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="556"/>
+      <c r="Q20" s="557" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="553"/>
-      <c r="Q20" s="554" t="s">
-        <v>141</v>
-      </c>
-      <c r="R20" s="555"/>
+      <c r="R20" s="558"/>
     </row>
   </sheetData>
   <mergeCells count="22">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-30-4б-500-14 Батькова/XXI-В-30-4б-500-14 Батькова от 07.02.2020.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-30-4б-500-14 Батькова/XXI-В-30-4б-500-14 Батькова от 07.02.2020.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-В-30-4б-500-14 Батькова\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2FBC22-6B74-4713-82B2-7DB5F06E7C30}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -40,7 +41,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Чист.  поддон'!$A$1:$S$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист. форма'!$A$1:$S$28</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -503,13 +511,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="58" x14ac:knownFonts="1">
     <font>
@@ -2175,7 +2183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="647">
@@ -3334,7 +3342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3349,7 +3357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3393,25 +3401,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3423,11 +3431,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3437,7 +3445,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3451,11 +3459,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1"/>
@@ -3465,13 +3473,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="97" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="97" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="97" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="97" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3484,7 +3492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3563,6 +3571,21 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="97" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3607,11 +3630,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3624,16 +3646,80 @@
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="47" fillId="12" borderId="95" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="95" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3644,42 +3730,6 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3707,47 +3757,104 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -3755,6 +3862,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3770,110 +3891,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3883,93 +3987,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -4000,6 +4017,9 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4009,12 +4029,12 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4026,24 +4046,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Процентный" xfId="4" builtinId="5"/>
     <cellStyle name="Финансовый" xfId="3" builtinId="3"/>
   </cellStyles>
@@ -4306,7 +4314,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4352,7 +4366,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4397,7 +4417,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Прямая соединительная линия 9"/>
+        <xdr:cNvPr id="10" name="Прямая соединительная линия 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4441,7 +4467,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4490,7 +4522,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1"/>
+        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4536,7 +4574,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4580,7 +4624,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4624,7 +4674,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4673,7 +4729,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4719,7 +4781,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4763,7 +4831,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4807,7 +4881,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4856,7 +4936,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4902,7 +4988,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4946,7 +5038,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4990,7 +5088,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5039,7 +5143,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG"/>
+        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5085,7 +5195,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5129,7 +5245,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5173,7 +5295,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5222,7 +5350,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5268,7 +5402,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5312,7 +5452,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Прямая соединительная линия 3"/>
+        <xdr:cNvPr id="4" name="Прямая соединительная линия 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5356,7 +5502,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5400,7 +5552,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5443,7 +5601,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)"/>
+        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5489,7 +5653,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5533,7 +5703,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Прямая соединительная линия 3"/>
+        <xdr:cNvPr id="4" name="Прямая соединительная линия 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5577,7 +5753,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5626,7 +5808,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif"/>
+        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5672,7 +5860,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5716,7 +5910,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5760,7 +5960,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5809,7 +6015,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE"/>
+        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5855,7 +6067,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5899,7 +6117,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5943,7 +6167,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5992,7 +6222,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD"/>
+        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6038,7 +6274,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6082,7 +6324,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6126,7 +6374,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6234,6 +6488,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6269,6 +6540,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -6444,90 +6732,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="486" t="s">
+    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="491" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="490"/>
-      <c r="C1" s="490"/>
-      <c r="D1" s="490"/>
-      <c r="E1" s="490"/>
+      <c r="B1" s="495"/>
+      <c r="C1" s="495"/>
+      <c r="D1" s="495"/>
+      <c r="E1" s="495"/>
       <c r="G1" s="357" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="487" t="s">
+    <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="492" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="488"/>
-      <c r="C2" s="488"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="489"/>
+      <c r="B2" s="493"/>
+      <c r="C2" s="493"/>
+      <c r="D2" s="493"/>
+      <c r="E2" s="494"/>
       <c r="G2" s="356" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="G3" s="356" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="491" t="s">
+    <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="496" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="492"/>
-      <c r="C4" s="492"/>
-      <c r="D4" s="492"/>
-      <c r="E4" s="492"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="493" t="s">
+      <c r="B4" s="497"/>
+      <c r="C4" s="497"/>
+      <c r="D4" s="497"/>
+      <c r="E4" s="497"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="498" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="494"/>
-      <c r="C5" s="494"/>
-      <c r="D5" s="494"/>
-      <c r="E5" s="495"/>
-    </row>
-    <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="486" t="s">
+      <c r="B5" s="499"/>
+      <c r="C5" s="499"/>
+      <c r="D5" s="499"/>
+      <c r="E5" s="500"/>
+    </row>
+    <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="491" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="490"/>
-      <c r="C7" s="490"/>
-      <c r="D7" s="490"/>
-      <c r="E7" s="490"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="496"/>
-      <c r="B8" s="497"/>
-      <c r="C8" s="497"/>
-      <c r="D8" s="497"/>
-      <c r="E8" s="498"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="486" t="s">
+      <c r="B7" s="495"/>
+      <c r="C7" s="495"/>
+      <c r="D7" s="495"/>
+      <c r="E7" s="495"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="501"/>
+      <c r="B8" s="502"/>
+      <c r="C8" s="502"/>
+      <c r="D8" s="502"/>
+      <c r="E8" s="503"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="491" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="486"/>
+      <c r="B10" s="491"/>
       <c r="C10" s="358"/>
       <c r="D10" s="364" t="s">
         <v>92</v>
@@ -6537,36 +6825,36 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="484"/>
-      <c r="B11" s="485"/>
+    <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="489"/>
+      <c r="B11" s="490"/>
       <c r="D11" s="363">
         <v>43868</v>
       </c>
-      <c r="F11" s="499" t="s">
+      <c r="F11" s="486" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="499"/>
-      <c r="H11" s="499"/>
-      <c r="I11" s="499"/>
-      <c r="J11" s="500" t="s">
+      <c r="G11" s="486"/>
+      <c r="H11" s="486"/>
+      <c r="I11" s="486"/>
+      <c r="J11" s="487" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="500"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="499" t="s">
+      <c r="K11" s="487"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F12" s="486" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="499"/>
-      <c r="H12" s="499"/>
-      <c r="I12" s="499"/>
-      <c r="J12" s="500" t="s">
+      <c r="G12" s="486"/>
+      <c r="H12" s="486"/>
+      <c r="I12" s="486"/>
+      <c r="J12" s="487" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="500"/>
-    </row>
-    <row r="13" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="K12" s="487"/>
+    </row>
+    <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="368" t="s">
         <v>87</v>
       </c>
@@ -6582,18 +6870,18 @@
       <c r="E13" s="459" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="499" t="s">
+      <c r="F13" s="486" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="499"/>
-      <c r="H13" s="499"/>
-      <c r="I13" s="499"/>
-      <c r="J13" s="500" t="s">
+      <c r="G13" s="486"/>
+      <c r="H13" s="486"/>
+      <c r="I13" s="486"/>
+      <c r="J13" s="487" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="500"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="487"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="359" t="s">
         <v>43</v>
       </c>
@@ -6611,7 +6899,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="359" t="s">
         <v>44</v>
       </c>
@@ -6629,7 +6917,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="359" t="s">
         <v>38</v>
       </c>
@@ -6647,7 +6935,7 @@
         <v>1094.4000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="359" t="s">
         <v>23</v>
       </c>
@@ -6665,7 +6953,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="359" t="s">
         <v>47</v>
       </c>
@@ -6683,7 +6971,7 @@
         <v>77.400000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="359" t="s">
         <v>89</v>
       </c>
@@ -6701,7 +6989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="359" t="s">
         <v>51</v>
       </c>
@@ -6719,7 +7007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="359" t="s">
         <v>53</v>
       </c>
@@ -6733,7 +7021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="359" t="s">
         <v>90</v>
       </c>
@@ -6745,7 +7033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="359" t="s">
         <v>56</v>
       </c>
@@ -6763,7 +7051,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="359" t="s">
         <v>70</v>
       </c>
@@ -6781,7 +7069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="359" t="s">
         <v>91</v>
       </c>
@@ -6793,7 +7081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="361" t="s">
         <v>55</v>
       </c>
@@ -6811,7 +7099,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="361" t="s">
         <v>104</v>
       </c>
@@ -6822,7 +7110,7 @@
       <c r="D27" s="360"/>
       <c r="E27" s="360"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="365"/>
       <c r="D28" s="364"/>
       <c r="E28" s="364">
@@ -6837,26 +7125,20 @@
         <v>205.59999999999991</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="483" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="488" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="483"/>
-      <c r="C29" s="483"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="488"/>
+      <c r="C29" s="488"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="357" t="s">
         <v>143</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -6866,6 +7148,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -6873,7 +7161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -6883,20 +7171,20 @@
       <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="162" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="162" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="162" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="162" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="162" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="162" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="162" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="162" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="162" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="162" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="162" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="162" customWidth="1"/>
     <col min="8" max="18" width="9" style="162" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="162" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="162"/>
+    <col min="19" max="19" width="1.42578125" style="162" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="162"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="158"/>
       <c r="B1" s="159"/>
       <c r="C1" s="160"/>
@@ -6917,49 +7205,49 @@
       <c r="R1" s="160"/>
       <c r="S1" s="161"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="595"/>
-      <c r="C2" s="596"/>
-      <c r="D2" s="597"/>
-      <c r="E2" s="604" t="s">
+      <c r="B2" s="601"/>
+      <c r="C2" s="602"/>
+      <c r="D2" s="603"/>
+      <c r="E2" s="610" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="605"/>
-      <c r="G2" s="605"/>
-      <c r="H2" s="606"/>
-      <c r="I2" s="610" t="s">
+      <c r="F2" s="611"/>
+      <c r="G2" s="611"/>
+      <c r="H2" s="612"/>
+      <c r="I2" s="616" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="611"/>
-      <c r="K2" s="614">
+      <c r="J2" s="617"/>
+      <c r="K2" s="620">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="615"/>
+      <c r="L2" s="621"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="633"/>
-      <c r="Q2" s="633"/>
+      <c r="P2" s="636"/>
+      <c r="Q2" s="636"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="598"/>
-      <c r="C3" s="599"/>
-      <c r="D3" s="600"/>
-      <c r="E3" s="607" t="s">
+      <c r="B3" s="604"/>
+      <c r="C3" s="605"/>
+      <c r="D3" s="606"/>
+      <c r="E3" s="613" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="608"/>
-      <c r="G3" s="608"/>
-      <c r="H3" s="609"/>
-      <c r="I3" s="612"/>
-      <c r="J3" s="613"/>
-      <c r="K3" s="616"/>
-      <c r="L3" s="617"/>
+      <c r="F3" s="614"/>
+      <c r="G3" s="614"/>
+      <c r="H3" s="615"/>
+      <c r="I3" s="618"/>
+      <c r="J3" s="619"/>
+      <c r="K3" s="622"/>
+      <c r="L3" s="623"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -6968,11 +7256,11 @@
       <c r="R3" s="171"/>
       <c r="S3" s="168"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="601"/>
-      <c r="C4" s="602"/>
-      <c r="D4" s="603"/>
+      <c r="B4" s="607"/>
+      <c r="C4" s="608"/>
+      <c r="D4" s="609"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -6989,24 +7277,24 @@
       <c r="R4" s="171"/>
       <c r="S4" s="168"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="580" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="618"/>
-      <c r="D5" s="493" t="str">
+      <c r="C5" s="595"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="494"/>
-      <c r="F5" s="494"/>
-      <c r="G5" s="494"/>
-      <c r="H5" s="495"/>
-      <c r="I5" s="619"/>
-      <c r="J5" s="620"/>
-      <c r="K5" s="621"/>
-      <c r="L5" s="495"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="596"/>
+      <c r="J5" s="597"/>
+      <c r="K5" s="598"/>
+      <c r="L5" s="500"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7015,24 +7303,24 @@
       <c r="R5" s="171"/>
       <c r="S5" s="168"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="580" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="618"/>
-      <c r="D6" s="487" t="str">
+      <c r="C6" s="595"/>
+      <c r="D6" s="492" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="590"/>
-      <c r="F6" s="590"/>
-      <c r="G6" s="590"/>
-      <c r="H6" s="591"/>
-      <c r="I6" s="619"/>
-      <c r="J6" s="620"/>
-      <c r="K6" s="621"/>
-      <c r="L6" s="495"/>
+      <c r="E6" s="585"/>
+      <c r="F6" s="585"/>
+      <c r="G6" s="585"/>
+      <c r="H6" s="586"/>
+      <c r="I6" s="596"/>
+      <c r="J6" s="597"/>
+      <c r="K6" s="598"/>
+      <c r="L6" s="500"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7041,29 +7329,29 @@
       <c r="R6" s="171"/>
       <c r="S6" s="168"/>
     </row>
-    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="551" t="s">
+      <c r="B7" s="590" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="622"/>
-      <c r="D7" s="496">
+      <c r="C7" s="599"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="553"/>
-      <c r="F7" s="553"/>
-      <c r="G7" s="553"/>
-      <c r="H7" s="554"/>
-      <c r="I7" s="623" t="s">
+      <c r="E7" s="592"/>
+      <c r="F7" s="592"/>
+      <c r="G7" s="592"/>
+      <c r="H7" s="593"/>
+      <c r="I7" s="600" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="622"/>
-      <c r="K7" s="484">
+      <c r="J7" s="599"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="485"/>
+      <c r="L7" s="490"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7072,7 +7360,7 @@
       <c r="R7" s="171"/>
       <c r="S7" s="168"/>
     </row>
-    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="173"/>
       <c r="B8" s="174"/>
       <c r="C8" s="175"/>
@@ -7093,7 +7381,7 @@
       <c r="R8" s="178"/>
       <c r="S8" s="179"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="180"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -7126,7 +7414,7 @@
       <c r="R9" s="333"/>
       <c r="S9" s="195"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="173"/>
       <c r="B10" s="182" t="s">
         <v>25</v>
@@ -7161,7 +7449,7 @@
       <c r="R10" s="335"/>
       <c r="S10" s="179"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="173"/>
       <c r="B11" s="184" t="s">
         <v>26</v>
@@ -7194,7 +7482,7 @@
       <c r="R11" s="337"/>
       <c r="S11" s="179"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="173"/>
       <c r="B12" s="184" t="s">
         <v>2</v>
@@ -7227,7 +7515,7 @@
       <c r="R12" s="337"/>
       <c r="S12" s="179"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="173"/>
       <c r="B13" s="184" t="s">
         <v>3</v>
@@ -7260,7 +7548,7 @@
       <c r="R13" s="337"/>
       <c r="S13" s="179"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="173"/>
       <c r="B14" s="184" t="s">
         <v>27</v>
@@ -7293,7 +7581,7 @@
       <c r="R14" s="337"/>
       <c r="S14" s="179"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="173"/>
       <c r="B15" s="184" t="s">
         <v>28</v>
@@ -7326,7 +7614,7 @@
       <c r="R15" s="337"/>
       <c r="S15" s="179"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="173"/>
       <c r="B16" s="184" t="s">
         <v>4</v>
@@ -7359,7 +7647,7 @@
       <c r="R16" s="337"/>
       <c r="S16" s="179"/>
     </row>
-    <row r="17" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A17" s="173"/>
       <c r="B17" s="184" t="s">
         <v>9</v>
@@ -7392,7 +7680,7 @@
       <c r="R17" s="337"/>
       <c r="S17" s="179"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="173"/>
       <c r="B18" s="184" t="s">
         <v>5</v>
@@ -7425,7 +7713,7 @@
       <c r="R18" s="337"/>
       <c r="S18" s="179"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="186"/>
       <c r="B19" s="187"/>
       <c r="C19" s="187"/>
@@ -7446,30 +7734,35 @@
       <c r="R19" s="187"/>
       <c r="S19" s="189"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L21" s="624" t="s">
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L21" s="627" t="s">
         <v>135</v>
       </c>
-      <c r="M21" s="624"/>
-      <c r="N21" s="624"/>
+      <c r="M21" s="627"/>
+      <c r="N21" s="627"/>
       <c r="O21" s="460"/>
       <c r="P21" s="460"/>
       <c r="Q21" s="476"/>
       <c r="R21" s="476"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O22" s="556" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O22" s="549" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="556"/>
-      <c r="Q22" s="557" t="s">
+      <c r="P22" s="549"/>
+      <c r="Q22" s="550" t="s">
         <v>140</v>
       </c>
-      <c r="R22" s="558"/>
+      <c r="R22" s="551"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="B2:D4"/>
@@ -7486,11 +7779,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
@@ -7510,7 +7798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -7520,20 +7808,20 @@
       <selection pane="bottomRight" activeCell="O21" sqref="O21:R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="201" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="201" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="201" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="201" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="201" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="201" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="201" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="201" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="201" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="201" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="201" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="201" customWidth="1"/>
     <col min="8" max="18" width="9" style="201" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="201" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="201"/>
+    <col min="19" max="19" width="1.42578125" style="201" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="201"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="197"/>
       <c r="B1" s="198"/>
       <c r="C1" s="199"/>
@@ -7554,26 +7842,26 @@
       <c r="R1" s="199"/>
       <c r="S1" s="200"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="595"/>
-      <c r="C2" s="596"/>
-      <c r="D2" s="597"/>
-      <c r="E2" s="604" t="s">
+      <c r="B2" s="601"/>
+      <c r="C2" s="602"/>
+      <c r="D2" s="603"/>
+      <c r="E2" s="610" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="605"/>
-      <c r="G2" s="605"/>
-      <c r="H2" s="606"/>
-      <c r="I2" s="610" t="s">
+      <c r="F2" s="611"/>
+      <c r="G2" s="611"/>
+      <c r="H2" s="612"/>
+      <c r="I2" s="616" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="611"/>
-      <c r="K2" s="614">
+      <c r="J2" s="617"/>
+      <c r="K2" s="620">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="L2" s="615"/>
+      <c r="L2" s="621"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
@@ -7582,21 +7870,21 @@
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="598"/>
-      <c r="C3" s="599"/>
-      <c r="D3" s="600"/>
-      <c r="E3" s="607" t="s">
+      <c r="B3" s="604"/>
+      <c r="C3" s="605"/>
+      <c r="D3" s="606"/>
+      <c r="E3" s="613" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="608"/>
-      <c r="G3" s="608"/>
-      <c r="H3" s="609"/>
-      <c r="I3" s="612"/>
-      <c r="J3" s="613"/>
-      <c r="K3" s="616"/>
-      <c r="L3" s="617"/>
+      <c r="F3" s="614"/>
+      <c r="G3" s="614"/>
+      <c r="H3" s="615"/>
+      <c r="I3" s="618"/>
+      <c r="J3" s="619"/>
+      <c r="K3" s="622"/>
+      <c r="L3" s="623"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7605,11 +7893,11 @@
       <c r="R3" s="210"/>
       <c r="S3" s="207"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="601"/>
-      <c r="C4" s="602"/>
-      <c r="D4" s="603"/>
+      <c r="B4" s="607"/>
+      <c r="C4" s="608"/>
+      <c r="D4" s="609"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7626,24 +7914,24 @@
       <c r="R4" s="210"/>
       <c r="S4" s="207"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="580" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="618"/>
-      <c r="D5" s="493" t="str">
+      <c r="C5" s="595"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="494"/>
-      <c r="F5" s="494"/>
-      <c r="G5" s="494"/>
-      <c r="H5" s="495"/>
-      <c r="I5" s="619"/>
-      <c r="J5" s="620"/>
-      <c r="K5" s="621"/>
-      <c r="L5" s="495"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="596"/>
+      <c r="J5" s="597"/>
+      <c r="K5" s="598"/>
+      <c r="L5" s="500"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -7652,24 +7940,24 @@
       <c r="R5" s="210"/>
       <c r="S5" s="207"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="580" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="618"/>
-      <c r="D6" s="487" t="str">
+      <c r="C6" s="595"/>
+      <c r="D6" s="492" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="590"/>
-      <c r="F6" s="590"/>
-      <c r="G6" s="590"/>
-      <c r="H6" s="591"/>
-      <c r="I6" s="619"/>
-      <c r="J6" s="620"/>
-      <c r="K6" s="621"/>
-      <c r="L6" s="495"/>
+      <c r="E6" s="585"/>
+      <c r="F6" s="585"/>
+      <c r="G6" s="585"/>
+      <c r="H6" s="586"/>
+      <c r="I6" s="596"/>
+      <c r="J6" s="597"/>
+      <c r="K6" s="598"/>
+      <c r="L6" s="500"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -7678,29 +7966,29 @@
       <c r="R6" s="210"/>
       <c r="S6" s="207"/>
     </row>
-    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="551" t="s">
+      <c r="B7" s="590" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="622"/>
-      <c r="D7" s="496">
+      <c r="C7" s="599"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="553"/>
-      <c r="F7" s="553"/>
-      <c r="G7" s="553"/>
-      <c r="H7" s="554"/>
-      <c r="I7" s="623" t="s">
+      <c r="E7" s="592"/>
+      <c r="F7" s="592"/>
+      <c r="G7" s="592"/>
+      <c r="H7" s="593"/>
+      <c r="I7" s="600" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="622"/>
-      <c r="K7" s="484">
+      <c r="J7" s="599"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="485"/>
+      <c r="L7" s="490"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -7709,7 +7997,7 @@
       <c r="R7" s="210"/>
       <c r="S7" s="207"/>
     </row>
-    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="212"/>
       <c r="B8" s="213"/>
       <c r="C8" s="214"/>
@@ -7730,7 +8018,7 @@
       <c r="R8" s="217"/>
       <c r="S8" s="218"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="219"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -7763,7 +8051,7 @@
       <c r="R9" s="221"/>
       <c r="S9" s="222"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="212"/>
       <c r="B10" s="223" t="s">
         <v>25</v>
@@ -7796,7 +8084,7 @@
       <c r="R10" s="227"/>
       <c r="S10" s="218"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="212"/>
       <c r="B11" s="228" t="s">
         <v>26</v>
@@ -7829,7 +8117,7 @@
       <c r="R11" s="232"/>
       <c r="S11" s="218"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="212"/>
       <c r="B12" s="228" t="s">
         <v>2</v>
@@ -7862,7 +8150,7 @@
       <c r="R12" s="232"/>
       <c r="S12" s="218"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="212"/>
       <c r="B13" s="228" t="s">
         <v>3</v>
@@ -7895,7 +8183,7 @@
       <c r="R13" s="232"/>
       <c r="S13" s="218"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="212"/>
       <c r="B14" s="228" t="s">
         <v>27</v>
@@ -7928,7 +8216,7 @@
       <c r="R14" s="232"/>
       <c r="S14" s="218"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="212"/>
       <c r="B15" s="228" t="s">
         <v>28</v>
@@ -7961,7 +8249,7 @@
       <c r="R15" s="232"/>
       <c r="S15" s="218"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="212"/>
       <c r="B16" s="228" t="s">
         <v>9</v>
@@ -7994,7 +8282,7 @@
       <c r="R16" s="232"/>
       <c r="S16" s="218"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="212"/>
       <c r="B17" s="228" t="s">
         <v>5</v>
@@ -8027,14 +8315,14 @@
       <c r="R17" s="232"/>
       <c r="S17" s="218"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="634" t="s">
+      <c r="B18" s="638" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="635"/>
-      <c r="D18" s="635"/>
-      <c r="E18" s="636"/>
+      <c r="C18" s="639"/>
+      <c r="D18" s="639"/>
+      <c r="E18" s="640"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8054,7 +8342,7 @@
       <c r="R18" s="236"/>
       <c r="S18" s="218"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="237"/>
       <c r="B19" s="238"/>
       <c r="C19" s="238"/>
@@ -8075,30 +8363,39 @@
       <c r="R19" s="238"/>
       <c r="S19" s="240"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L21" s="624" t="s">
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L21" s="627" t="s">
         <v>135</v>
       </c>
-      <c r="M21" s="624"/>
-      <c r="N21" s="624"/>
+      <c r="M21" s="627"/>
+      <c r="N21" s="627"/>
       <c r="O21" s="460"/>
       <c r="P21" s="460"/>
       <c r="Q21" s="476"/>
       <c r="R21" s="476"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O22" s="556" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O22" s="549" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="556"/>
-      <c r="Q22" s="557" t="s">
+      <c r="P22" s="549"/>
+      <c r="Q22" s="550" t="s">
         <v>140</v>
       </c>
-      <c r="R22" s="558"/>
+      <c r="R22" s="551"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="P2:Q2"/>
@@ -8112,15 +8409,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="L21:N21"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8149,7 +8437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -8159,20 +8447,20 @@
       <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -8193,49 +8481,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="595"/>
-      <c r="C2" s="596"/>
-      <c r="D2" s="597"/>
-      <c r="E2" s="604" t="s">
+      <c r="B2" s="601"/>
+      <c r="C2" s="602"/>
+      <c r="D2" s="603"/>
+      <c r="E2" s="610" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="605"/>
-      <c r="G2" s="605"/>
-      <c r="H2" s="606"/>
-      <c r="I2" s="610" t="s">
+      <c r="F2" s="611"/>
+      <c r="G2" s="611"/>
+      <c r="H2" s="612"/>
+      <c r="I2" s="616" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="611"/>
-      <c r="K2" s="614">
+      <c r="J2" s="617"/>
+      <c r="K2" s="620">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="L2" s="615"/>
+      <c r="L2" s="621"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="638"/>
-      <c r="Q2" s="638"/>
+      <c r="P2" s="641"/>
+      <c r="Q2" s="641"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="598"/>
-      <c r="C3" s="599"/>
-      <c r="D3" s="600"/>
-      <c r="E3" s="607" t="s">
+      <c r="B3" s="604"/>
+      <c r="C3" s="605"/>
+      <c r="D3" s="606"/>
+      <c r="E3" s="613" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="608"/>
-      <c r="G3" s="608"/>
-      <c r="H3" s="609"/>
-      <c r="I3" s="612"/>
-      <c r="J3" s="613"/>
-      <c r="K3" s="616"/>
-      <c r="L3" s="617"/>
+      <c r="F3" s="614"/>
+      <c r="G3" s="614"/>
+      <c r="H3" s="615"/>
+      <c r="I3" s="618"/>
+      <c r="J3" s="619"/>
+      <c r="K3" s="622"/>
+      <c r="L3" s="623"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8244,11 +8532,11 @@
       <c r="R3" s="138"/>
       <c r="S3" s="135"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="601"/>
-      <c r="C4" s="602"/>
-      <c r="D4" s="603"/>
+      <c r="B4" s="607"/>
+      <c r="C4" s="608"/>
+      <c r="D4" s="609"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8265,24 +8553,24 @@
       <c r="R4" s="138"/>
       <c r="S4" s="135"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="580" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="618"/>
-      <c r="D5" s="493" t="str">
+      <c r="C5" s="595"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="494"/>
-      <c r="F5" s="494"/>
-      <c r="G5" s="494"/>
-      <c r="H5" s="495"/>
-      <c r="I5" s="619"/>
-      <c r="J5" s="620"/>
-      <c r="K5" s="621"/>
-      <c r="L5" s="495"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="596"/>
+      <c r="J5" s="597"/>
+      <c r="K5" s="598"/>
+      <c r="L5" s="500"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8291,24 +8579,24 @@
       <c r="R5" s="138"/>
       <c r="S5" s="135"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="580" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="618"/>
-      <c r="D6" s="487" t="str">
+      <c r="C6" s="595"/>
+      <c r="D6" s="492" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="590"/>
-      <c r="F6" s="590"/>
-      <c r="G6" s="590"/>
-      <c r="H6" s="591"/>
-      <c r="I6" s="619"/>
-      <c r="J6" s="620"/>
-      <c r="K6" s="621"/>
-      <c r="L6" s="495"/>
+      <c r="E6" s="585"/>
+      <c r="F6" s="585"/>
+      <c r="G6" s="585"/>
+      <c r="H6" s="586"/>
+      <c r="I6" s="596"/>
+      <c r="J6" s="597"/>
+      <c r="K6" s="598"/>
+      <c r="L6" s="500"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8317,29 +8605,29 @@
       <c r="R6" s="138"/>
       <c r="S6" s="135"/>
     </row>
-    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="551" t="s">
+      <c r="B7" s="590" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="622"/>
-      <c r="D7" s="496">
+      <c r="C7" s="599"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="553"/>
-      <c r="F7" s="553"/>
-      <c r="G7" s="553"/>
-      <c r="H7" s="554"/>
-      <c r="I7" s="623" t="s">
+      <c r="E7" s="592"/>
+      <c r="F7" s="592"/>
+      <c r="G7" s="592"/>
+      <c r="H7" s="593"/>
+      <c r="I7" s="600" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="622"/>
-      <c r="K7" s="484">
+      <c r="J7" s="599"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="485"/>
+      <c r="L7" s="490"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8348,7 +8636,7 @@
       <c r="R7" s="138"/>
       <c r="S7" s="135"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="140"/>
       <c r="C8" s="141"/>
@@ -8369,7 +8657,7 @@
       <c r="R8" s="144"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="145"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -8402,7 +8690,7 @@
       <c r="R9" s="148"/>
       <c r="S9" s="149"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="150"/>
       <c r="B10" s="151" t="s">
         <v>25</v>
@@ -8435,7 +8723,7 @@
       <c r="R10" s="153"/>
       <c r="S10" s="154"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="150"/>
       <c r="B11" s="151" t="s">
         <v>26</v>
@@ -8468,7 +8756,7 @@
       <c r="R11" s="153"/>
       <c r="S11" s="154"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="150"/>
       <c r="B12" s="151" t="s">
         <v>2</v>
@@ -8501,7 +8789,7 @@
       <c r="R12" s="153"/>
       <c r="S12" s="154"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="150"/>
       <c r="B13" s="151" t="s">
         <v>3</v>
@@ -8534,7 +8822,7 @@
       <c r="R13" s="153"/>
       <c r="S13" s="154"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="150"/>
       <c r="B14" s="151" t="s">
         <v>27</v>
@@ -8567,7 +8855,7 @@
       <c r="R14" s="153"/>
       <c r="S14" s="154"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="150"/>
       <c r="B15" s="151" t="s">
         <v>28</v>
@@ -8600,7 +8888,7 @@
       <c r="R15" s="153"/>
       <c r="S15" s="154"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="150"/>
       <c r="B16" s="151" t="s">
         <v>4</v>
@@ -8633,7 +8921,7 @@
       <c r="R16" s="153"/>
       <c r="S16" s="154"/>
     </row>
-    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="108"/>
       <c r="B17" s="109"/>
       <c r="C17" s="109"/>
@@ -8654,30 +8942,35 @@
       <c r="R17" s="111"/>
       <c r="S17" s="112"/>
     </row>
-    <row r="18" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L19" s="624" t="s">
+    <row r="18" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L19" s="627" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="624"/>
-      <c r="N19" s="624"/>
+      <c r="M19" s="627"/>
+      <c r="N19" s="627"/>
       <c r="O19" s="460"/>
       <c r="P19" s="460"/>
       <c r="Q19" s="476"/>
       <c r="R19" s="476"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="556" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O20" s="549" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="556"/>
-      <c r="Q20" s="557" t="s">
+      <c r="P20" s="549"/>
+      <c r="Q20" s="550" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="558"/>
+      <c r="R20" s="551"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B2:D4"/>
@@ -8694,11 +8987,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
@@ -8709,7 +8997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -8719,20 +9007,20 @@
       <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="258" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="258" customWidth="1"/>
     <col min="2" max="2" width="5" style="258" customWidth="1"/>
     <col min="3" max="3" width="11" style="258" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="258" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="258" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="258" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="258" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="258" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="258" customWidth="1"/>
     <col min="8" max="18" width="9" style="258" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="258" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="258"/>
+    <col min="19" max="19" width="1.42578125" style="258" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="258"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="254"/>
       <c r="B1" s="255"/>
       <c r="C1" s="256"/>
@@ -8753,49 +9041,49 @@
       <c r="R1" s="256"/>
       <c r="S1" s="257"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="595"/>
-      <c r="C2" s="596"/>
-      <c r="D2" s="597"/>
-      <c r="E2" s="604" t="s">
+      <c r="B2" s="601"/>
+      <c r="C2" s="602"/>
+      <c r="D2" s="603"/>
+      <c r="E2" s="610" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="605"/>
-      <c r="G2" s="605"/>
-      <c r="H2" s="606"/>
-      <c r="I2" s="610" t="s">
+      <c r="F2" s="611"/>
+      <c r="G2" s="611"/>
+      <c r="H2" s="612"/>
+      <c r="I2" s="616" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="611"/>
-      <c r="K2" s="639">
+      <c r="J2" s="617"/>
+      <c r="K2" s="643">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="640"/>
+      <c r="L2" s="644"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="643"/>
-      <c r="Q2" s="643"/>
+      <c r="P2" s="642"/>
+      <c r="Q2" s="642"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="598"/>
-      <c r="C3" s="599"/>
-      <c r="D3" s="600"/>
-      <c r="E3" s="607" t="s">
+      <c r="B3" s="604"/>
+      <c r="C3" s="605"/>
+      <c r="D3" s="606"/>
+      <c r="E3" s="613" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="608"/>
-      <c r="G3" s="608"/>
-      <c r="H3" s="609"/>
-      <c r="I3" s="612"/>
-      <c r="J3" s="613"/>
-      <c r="K3" s="641"/>
-      <c r="L3" s="642"/>
+      <c r="F3" s="614"/>
+      <c r="G3" s="614"/>
+      <c r="H3" s="615"/>
+      <c r="I3" s="618"/>
+      <c r="J3" s="619"/>
+      <c r="K3" s="645"/>
+      <c r="L3" s="646"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -8804,11 +9092,11 @@
       <c r="R3" s="267"/>
       <c r="S3" s="264"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="601"/>
-      <c r="C4" s="602"/>
-      <c r="D4" s="603"/>
+      <c r="B4" s="607"/>
+      <c r="C4" s="608"/>
+      <c r="D4" s="609"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8825,24 +9113,24 @@
       <c r="R4" s="267"/>
       <c r="S4" s="264"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="580" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="618"/>
-      <c r="D5" s="493" t="str">
+      <c r="C5" s="595"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="494"/>
-      <c r="F5" s="494"/>
-      <c r="G5" s="494"/>
-      <c r="H5" s="495"/>
-      <c r="I5" s="619"/>
-      <c r="J5" s="620"/>
-      <c r="K5" s="621"/>
-      <c r="L5" s="495"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="596"/>
+      <c r="J5" s="597"/>
+      <c r="K5" s="598"/>
+      <c r="L5" s="500"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -8851,24 +9139,24 @@
       <c r="R5" s="267"/>
       <c r="S5" s="264"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="580" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="618"/>
-      <c r="D6" s="487" t="str">
+      <c r="C6" s="595"/>
+      <c r="D6" s="492" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="590"/>
-      <c r="F6" s="590"/>
-      <c r="G6" s="590"/>
-      <c r="H6" s="591"/>
-      <c r="I6" s="619"/>
-      <c r="J6" s="620"/>
-      <c r="K6" s="621"/>
-      <c r="L6" s="495"/>
+      <c r="E6" s="585"/>
+      <c r="F6" s="585"/>
+      <c r="G6" s="585"/>
+      <c r="H6" s="586"/>
+      <c r="I6" s="596"/>
+      <c r="J6" s="597"/>
+      <c r="K6" s="598"/>
+      <c r="L6" s="500"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -8877,29 +9165,29 @@
       <c r="R6" s="267"/>
       <c r="S6" s="264"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="551" t="s">
+      <c r="B7" s="590" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="622"/>
-      <c r="D7" s="496">
+      <c r="C7" s="599"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="553"/>
-      <c r="F7" s="553"/>
-      <c r="G7" s="553"/>
-      <c r="H7" s="554"/>
-      <c r="I7" s="623" t="s">
+      <c r="E7" s="592"/>
+      <c r="F7" s="592"/>
+      <c r="G7" s="592"/>
+      <c r="H7" s="593"/>
+      <c r="I7" s="600" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="622"/>
-      <c r="K7" s="484">
+      <c r="J7" s="599"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="485"/>
+      <c r="L7" s="490"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -8908,7 +9196,7 @@
       <c r="R7" s="267"/>
       <c r="S7" s="264"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="269"/>
       <c r="B8" s="270"/>
       <c r="C8" s="271"/>
@@ -8929,7 +9217,7 @@
       <c r="R8" s="274"/>
       <c r="S8" s="275"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="276"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -8962,7 +9250,7 @@
       <c r="R9" s="339"/>
       <c r="S9" s="278"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="269"/>
       <c r="B10" s="279" t="s">
         <v>25</v>
@@ -8995,7 +9283,7 @@
       <c r="R10" s="341"/>
       <c r="S10" s="275"/>
     </row>
-    <row r="11" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A11" s="269"/>
       <c r="B11" s="283" t="s">
         <v>26</v>
@@ -9028,7 +9316,7 @@
       <c r="R11" s="342"/>
       <c r="S11" s="275"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="269"/>
       <c r="B12" s="283" t="s">
         <v>2</v>
@@ -9061,7 +9349,7 @@
       <c r="R12" s="344"/>
       <c r="S12" s="275"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="269"/>
       <c r="B13" s="283" t="s">
         <v>28</v>
@@ -9094,7 +9382,7 @@
       <c r="R13" s="344"/>
       <c r="S13" s="275"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="269"/>
       <c r="B14" s="283" t="s">
         <v>4</v>
@@ -9127,7 +9415,7 @@
       <c r="R14" s="344"/>
       <c r="S14" s="275"/>
     </row>
-    <row r="15" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="288"/>
       <c r="B15" s="289"/>
       <c r="C15" s="289"/>
@@ -9148,30 +9436,35 @@
       <c r="R15" s="289"/>
       <c r="S15" s="291"/>
     </row>
-    <row r="16" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L17" s="624" t="s">
+    <row r="16" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L17" s="627" t="s">
         <v>135</v>
       </c>
-      <c r="M17" s="624"/>
-      <c r="N17" s="624"/>
+      <c r="M17" s="627"/>
+      <c r="N17" s="627"/>
       <c r="O17" s="460"/>
       <c r="P17" s="460"/>
       <c r="Q17" s="476"/>
       <c r="R17" s="476"/>
     </row>
-    <row r="18" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="O18" s="556" t="s">
+    <row r="18" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="O18" s="549" t="s">
         <v>139</v>
       </c>
-      <c r="P18" s="556"/>
-      <c r="Q18" s="557" t="s">
+      <c r="P18" s="549"/>
+      <c r="Q18" s="550" t="s">
         <v>140</v>
       </c>
-      <c r="R18" s="558"/>
+      <c r="R18" s="551"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="L17:N17"/>
     <mergeCell ref="I5:J5"/>
@@ -9188,11 +9481,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:H14 R10:R14">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
@@ -9212,30 +9500,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="374"/>
       <c r="B1" s="458" t="s">
         <v>108</v>
@@ -9254,7 +9542,7 @@
       <c r="K1" s="374"/>
       <c r="L1" s="374"/>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="374"/>
       <c r="B2" s="374" t="s">
         <v>150</v>
@@ -9270,23 +9558,23 @@
       <c r="K2" s="375"/>
       <c r="L2" s="375"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="503" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="509" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="503"/>
-      <c r="C3" s="503"/>
-      <c r="D3" s="503"/>
-      <c r="E3" s="503"/>
-      <c r="F3" s="503"/>
-      <c r="G3" s="503"/>
-      <c r="H3" s="503"/>
-      <c r="I3" s="503"/>
+      <c r="B3" s="509"/>
+      <c r="C3" s="509"/>
+      <c r="D3" s="509"/>
+      <c r="E3" s="509"/>
+      <c r="F3" s="509"/>
+      <c r="G3" s="509"/>
+      <c r="H3" s="509"/>
+      <c r="I3" s="509"/>
       <c r="K3" s="376"/>
       <c r="L3" s="376"/>
       <c r="M3" s="377"/>
     </row>
-    <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="377"/>
       <c r="B4" s="378"/>
       <c r="C4" s="378"/>
@@ -9298,7 +9586,7 @@
       <c r="K4" s="376"/>
       <c r="M4" s="358"/>
     </row>
-    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="381" t="s">
         <v>109</v>
       </c>
@@ -9328,7 +9616,7 @@
       <c r="K5" s="385"/>
       <c r="L5" s="385"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="386">
         <v>1</v>
       </c>
@@ -9359,7 +9647,7 @@
       <c r="K6" s="377"/>
       <c r="L6" s="391"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="392">
         <f>A6+1</f>
         <v>2</v>
@@ -9391,7 +9679,7 @@
       <c r="K7" s="377"/>
       <c r="L7" s="391"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="392">
         <f t="shared" ref="A8:A16" si="1">A7+1</f>
         <v>3</v>
@@ -9423,7 +9711,7 @@
       <c r="K8" s="377"/>
       <c r="L8" s="391"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="392">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -9455,7 +9743,7 @@
       <c r="K9" s="377"/>
       <c r="L9" s="391"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="392">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -9487,7 +9775,7 @@
       <c r="K10" s="397"/>
       <c r="L10" s="391"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="392">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -9519,7 +9807,7 @@
       <c r="K11" s="377"/>
       <c r="L11" s="391"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="392">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -9552,7 +9840,7 @@
       <c r="L12" s="391"/>
       <c r="M12" s="399"/>
     </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="392">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -9585,7 +9873,7 @@
       <c r="L13" s="391"/>
       <c r="M13" s="399"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="392">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -9619,7 +9907,7 @@
       <c r="K14" s="397"/>
       <c r="L14" s="391"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="392">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -9651,7 +9939,7 @@
       <c r="K15" s="397"/>
       <c r="L15" s="391"/>
     </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="392">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -9683,7 +9971,7 @@
       <c r="K16" s="397"/>
       <c r="L16" s="391"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="402"/>
       <c r="B17" s="403"/>
       <c r="C17" s="377"/>
@@ -9695,7 +9983,7 @@
       <c r="I17" s="377"/>
       <c r="J17" s="377"/>
     </row>
-    <row r="18" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="377"/>
       <c r="B18" s="405" t="s">
         <v>116</v>
@@ -9711,7 +9999,7 @@
       <c r="K18" s="406"/>
       <c r="L18" s="406"/>
     </row>
-    <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="381" t="s">
         <v>117</v>
       </c>
@@ -9745,7 +10033,7 @@
       <c r="K19" s="385"/>
       <c r="L19" s="385"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="410">
         <f>D6*700000</f>
         <v>16800000</v>
@@ -9777,13 +10065,13 @@
         <f>1-G20</f>
         <v>0.96026630952380954</v>
       </c>
-      <c r="J20" s="646">
+      <c r="J20" s="485">
         <v>372</v>
       </c>
       <c r="K20" s="397"/>
       <c r="L20" s="397"/>
     </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="418"/>
       <c r="B21" s="419"/>
       <c r="C21" s="419"/>
@@ -9806,7 +10094,7 @@
       <c r="K21" s="377"/>
       <c r="L21" s="377"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="423"/>
       <c r="B22" s="424"/>
       <c r="C22" s="424"/>
@@ -9820,7 +10108,7 @@
       <c r="K22" s="397"/>
       <c r="L22" s="397"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="423"/>
       <c r="B23" s="369"/>
       <c r="C23" s="369"/>
@@ -9834,7 +10122,7 @@
       <c r="K23" s="417"/>
       <c r="L23" s="377"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="423"/>
       <c r="B24" s="424"/>
       <c r="C24" s="424"/>
@@ -9848,7 +10136,7 @@
       <c r="K24" s="431"/>
       <c r="L24" s="377"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="423"/>
       <c r="B25" s="424"/>
       <c r="C25" s="424"/>
@@ -9862,7 +10150,7 @@
       <c r="K25" s="417"/>
       <c r="L25" s="377"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="423"/>
       <c r="B26" s="424"/>
       <c r="C26" s="424"/>
@@ -9876,7 +10164,7 @@
       <c r="K26" s="417"/>
       <c r="L26" s="377"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="423"/>
       <c r="B27" s="424"/>
       <c r="C27" s="424"/>
@@ -9890,7 +10178,7 @@
       <c r="K27" s="417"/>
       <c r="L27" s="377"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="423"/>
       <c r="B28" s="424"/>
       <c r="C28" s="424"/>
@@ -9904,7 +10192,7 @@
       <c r="K28" s="417"/>
       <c r="L28" s="377"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="423"/>
       <c r="B29" s="424"/>
       <c r="C29" s="424"/>
@@ -9918,7 +10206,7 @@
       <c r="K29" s="417"/>
       <c r="L29" s="377"/>
     </row>
-    <row r="30" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="434"/>
       <c r="B30" s="435"/>
       <c r="C30" s="435"/>
@@ -9932,18 +10220,18 @@
       <c r="K30" s="377"/>
       <c r="L30" s="377"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="441" t="s">
         <v>126</v>
       </c>
       <c r="B31" s="442"/>
       <c r="C31" s="442"/>
       <c r="D31" s="443"/>
-      <c r="E31" s="644">
+      <c r="E31" s="483">
         <f>SUM(E20:E30)</f>
         <v>618648</v>
       </c>
-      <c r="F31" s="645">
+      <c r="F31" s="484">
         <f>SUM(F20:F30)</f>
         <v>667526</v>
       </c>
@@ -9963,7 +10251,7 @@
       <c r="K31" s="447"/>
       <c r="L31" s="447"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="377"/>
       <c r="B34" s="377"/>
       <c r="C34" s="377"/>
@@ -9975,13 +10263,13 @@
       <c r="I34" s="377"/>
       <c r="J34" s="377"/>
     </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="504" t="s">
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="510" t="s">
         <v>127</v>
       </c>
-      <c r="B35" s="504"/>
-      <c r="C35" s="504"/>
-      <c r="D35" s="504"/>
+      <c r="B35" s="510"/>
+      <c r="C35" s="510"/>
+      <c r="D35" s="510"/>
       <c r="E35" s="377"/>
       <c r="F35" s="377"/>
       <c r="G35" s="377"/>
@@ -9989,11 +10277,11 @@
       <c r="I35" s="377"/>
       <c r="J35" s="377"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="505" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="511" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="505"/>
+      <c r="B36" s="511"/>
       <c r="C36" s="448" t="s">
         <v>129</v>
       </c>
@@ -10007,12 +10295,12 @@
       <c r="I36" s="377"/>
       <c r="J36" s="377"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="506">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="512">
         <f>A20-F31</f>
         <v>16132474</v>
       </c>
-      <c r="B37" s="507"/>
+      <c r="B37" s="513"/>
       <c r="C37" s="449">
         <f>1-G31</f>
         <v>0.96026630952380954</v>
@@ -10030,7 +10318,7 @@
       <c r="I37" s="451"/>
       <c r="J37" s="451"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="377"/>
       <c r="B38" s="377"/>
       <c r="C38" s="377"/>
@@ -10038,7 +10326,7 @@
       <c r="E38" s="377"/>
       <c r="F38" s="377"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="377"/>
       <c r="B39" s="377"/>
       <c r="C39" s="377"/>
@@ -10053,7 +10341,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="377"/>
       <c r="B40" s="452"/>
       <c r="C40" s="452"/>
@@ -10065,7 +10353,7 @@
       <c r="I40" s="377"/>
       <c r="J40" s="377"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="453"/>
       <c r="B41" s="453"/>
       <c r="C41" s="453"/>
@@ -10074,10 +10362,10 @@
       <c r="F41" s="453"/>
       <c r="G41" s="453"/>
       <c r="H41" s="453"/>
-      <c r="I41" s="508"/>
-      <c r="J41" s="509"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I41" s="504"/>
+      <c r="J41" s="505"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="454"/>
       <c r="B42" s="455"/>
       <c r="C42" s="455"/>
@@ -10087,7 +10375,7 @@
       <c r="G42" s="401"/>
       <c r="H42" s="455"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="454"/>
       <c r="B43" s="455"/>
       <c r="C43" s="455"/>
@@ -10097,7 +10385,7 @@
       <c r="G43" s="401"/>
       <c r="H43" s="455"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="454"/>
       <c r="B44" s="455"/>
       <c r="C44" s="455"/>
@@ -10107,7 +10395,7 @@
       <c r="G44" s="401"/>
       <c r="H44" s="455"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="454"/>
       <c r="B45" s="455"/>
       <c r="C45" s="455"/>
@@ -10117,7 +10405,7 @@
       <c r="G45" s="401"/>
       <c r="H45" s="455"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="454"/>
       <c r="B46" s="455"/>
       <c r="C46" s="455"/>
@@ -10127,7 +10415,7 @@
       <c r="G46" s="401"/>
       <c r="H46" s="455"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="454"/>
       <c r="B47" s="455"/>
       <c r="C47" s="397"/>
@@ -10137,7 +10425,7 @@
       <c r="G47" s="397"/>
       <c r="H47" s="397"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="454"/>
       <c r="B48" s="455"/>
       <c r="C48" s="455"/>
@@ -10147,7 +10435,7 @@
       <c r="G48" s="401"/>
       <c r="H48" s="455"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="454"/>
       <c r="B49" s="455"/>
       <c r="C49" s="455"/>
@@ -10157,7 +10445,7 @@
       <c r="G49" s="401"/>
       <c r="H49" s="455"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="454"/>
       <c r="B50" s="455"/>
       <c r="C50" s="455"/>
@@ -10167,11 +10455,11 @@
       <c r="G50" s="401"/>
       <c r="H50" s="455"/>
     </row>
-    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="377"/>
-      <c r="B51" s="501"/>
-      <c r="C51" s="501"/>
-      <c r="D51" s="502"/>
+      <c r="B51" s="507"/>
+      <c r="C51" s="507"/>
+      <c r="D51" s="508"/>
       <c r="E51" s="451"/>
       <c r="F51" s="377"/>
       <c r="G51" s="377"/>
@@ -10179,7 +10467,7 @@
       <c r="I51" s="377"/>
       <c r="J51" s="377"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="453"/>
       <c r="B52" s="453"/>
       <c r="C52" s="453"/>
@@ -10188,10 +10476,10 @@
       <c r="F52" s="453"/>
       <c r="G52" s="453"/>
       <c r="H52" s="453"/>
-      <c r="I52" s="508"/>
-      <c r="J52" s="509"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I52" s="504"/>
+      <c r="J52" s="505"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="454"/>
       <c r="B53" s="377"/>
       <c r="C53" s="377"/>
@@ -10200,10 +10488,10 @@
       <c r="F53" s="401"/>
       <c r="G53" s="401"/>
       <c r="H53" s="455"/>
-      <c r="I53" s="510"/>
-      <c r="J53" s="510"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I53" s="506"/>
+      <c r="J53" s="506"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="454"/>
       <c r="B54" s="377"/>
       <c r="C54" s="377"/>
@@ -10212,10 +10500,10 @@
       <c r="F54" s="397"/>
       <c r="G54" s="397"/>
       <c r="H54" s="397"/>
-      <c r="I54" s="510"/>
-      <c r="J54" s="510"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I54" s="506"/>
+      <c r="J54" s="506"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="377"/>
       <c r="B55" s="377"/>
       <c r="C55" s="377"/>
@@ -10225,27 +10513,27 @@
       <c r="G55" s="377"/>
       <c r="H55" s="377"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="508"/>
-      <c r="C60" s="509"/>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="508"/>
-      <c r="C67" s="509"/>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="504"/>
+      <c r="C60" s="505"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="504"/>
+      <c r="C67" s="505"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B67:C67"/>
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B67:C67"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10257,26 +10545,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="295"/>
+    <col min="1" max="3" width="9.140625" style="295"/>
     <col min="4" max="4" width="8" style="295" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="295"/>
-    <col min="6" max="6" width="10.33203125" style="295" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="295" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="295" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="295" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="295"/>
+    <col min="5" max="5" width="9.140625" style="295"/>
+    <col min="6" max="6" width="10.28515625" style="295" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="295" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="295" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="295" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="295"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="353" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="353" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G2" s="304" t="s">
         <v>58</v>
       </c>
@@ -10285,7 +10573,7 @@
       <c r="J2" s="305"/>
       <c r="K2" s="305"/>
     </row>
-    <row r="3" spans="1:11" s="353" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="353" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G3" s="304" t="s">
         <v>100</v>
       </c>
@@ -10294,7 +10582,7 @@
       <c r="J3" s="305"/>
       <c r="K3" s="305"/>
     </row>
-    <row r="4" spans="1:11" s="353" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="353" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G4" s="304" t="s">
         <v>103</v>
       </c>
@@ -10303,8 +10591,8 @@
       <c r="J4" s="305"/>
       <c r="K4" s="305"/>
     </row>
-    <row r="5" spans="1:11" s="353" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" s="353" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="353" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" s="353" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G6" s="354"/>
       <c r="H6" s="304" t="s">
         <v>101</v>
@@ -10312,12 +10600,12 @@
       <c r="I6" s="305"/>
       <c r="J6" s="305"/>
     </row>
-    <row r="7" spans="1:11" s="353" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" s="353" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="H7" s="305"/>
       <c r="I7" s="305"/>
       <c r="J7" s="305"/>
     </row>
-    <row r="8" spans="1:11" s="353" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" s="353" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G8" s="298" t="s">
         <v>59</v>
       </c>
@@ -10327,50 +10615,50 @@
       </c>
       <c r="J8" s="305"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="512" t="s">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="538" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="512"/>
-      <c r="C11" s="512"/>
-      <c r="D11" s="512"/>
-      <c r="E11" s="512"/>
-      <c r="F11" s="512"/>
-      <c r="G11" s="512"/>
-      <c r="H11" s="512"/>
-      <c r="I11" s="512"/>
-      <c r="J11" s="512"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="511" t="s">
+      <c r="B11" s="538"/>
+      <c r="C11" s="538"/>
+      <c r="D11" s="538"/>
+      <c r="E11" s="538"/>
+      <c r="F11" s="538"/>
+      <c r="G11" s="538"/>
+      <c r="H11" s="538"/>
+      <c r="I11" s="538"/>
+      <c r="J11" s="538"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="537" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="511"/>
-      <c r="C12" s="511"/>
-      <c r="D12" s="511"/>
-      <c r="E12" s="511"/>
-      <c r="F12" s="511"/>
-      <c r="G12" s="511"/>
-      <c r="H12" s="511"/>
-      <c r="I12" s="511"/>
-      <c r="J12" s="511"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="513" t="str">
+      <c r="B12" s="537"/>
+      <c r="C12" s="537"/>
+      <c r="D12" s="537"/>
+      <c r="E12" s="537"/>
+      <c r="F12" s="537"/>
+      <c r="G12" s="537"/>
+      <c r="H12" s="537"/>
+      <c r="I12" s="537"/>
+      <c r="J12" s="537"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="539" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="B13" s="512"/>
-      <c r="C13" s="512"/>
-      <c r="D13" s="512"/>
-      <c r="E13" s="512"/>
-      <c r="F13" s="512"/>
-      <c r="G13" s="512"/>
-      <c r="H13" s="512"/>
-      <c r="I13" s="512"/>
-      <c r="J13" s="512"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="538"/>
+      <c r="C13" s="538"/>
+      <c r="D13" s="538"/>
+      <c r="E13" s="538"/>
+      <c r="F13" s="538"/>
+      <c r="G13" s="538"/>
+      <c r="H13" s="538"/>
+      <c r="I13" s="538"/>
+      <c r="J13" s="538"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="299" t="s">
         <v>60</v>
       </c>
@@ -10387,7 +10675,7 @@
       <c r="I15" s="299"/>
       <c r="J15" s="300"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="299" t="s">
         <v>94</v>
       </c>
@@ -10401,7 +10689,7 @@
       <c r="I16" s="299"/>
       <c r="J16" s="300"/>
     </row>
-    <row r="17" spans="1:10" s="355" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="355" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="307" t="s">
         <v>61</v>
       </c>
@@ -10422,7 +10710,7 @@
       </c>
       <c r="J17" s="300"/>
     </row>
-    <row r="18" spans="1:10" s="355" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="355" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="307" t="s">
         <v>61</v>
       </c>
@@ -10443,7 +10731,7 @@
       </c>
       <c r="J18" s="300"/>
     </row>
-    <row r="19" spans="1:10" s="355" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="355" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="308"/>
       <c r="B19" s="308"/>
       <c r="C19" s="308"/>
@@ -10461,7 +10749,7 @@
       </c>
       <c r="J19" s="300"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="299" t="s">
         <v>74</v>
       </c>
@@ -10478,7 +10766,7 @@
       </c>
       <c r="J20" s="300"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="299" t="s">
         <v>75</v>
       </c>
@@ -10492,498 +10780,498 @@
       <c r="I21" s="299"/>
       <c r="J21" s="300"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="517" t="s">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="535" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="517" t="s">
+      <c r="B22" s="535" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="517"/>
-      <c r="D22" s="517"/>
-      <c r="E22" s="517" t="s">
+      <c r="C22" s="535"/>
+      <c r="D22" s="535"/>
+      <c r="E22" s="535" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="517"/>
-      <c r="G22" s="535" t="s">
+      <c r="F22" s="535"/>
+      <c r="G22" s="536" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="517" t="s">
+      <c r="H22" s="535" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="517"/>
-      <c r="J22" s="517"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="517"/>
-      <c r="B23" s="517"/>
-      <c r="C23" s="517"/>
-      <c r="D23" s="517"/>
-      <c r="E23" s="517"/>
-      <c r="F23" s="517"/>
-      <c r="G23" s="535"/>
-      <c r="H23" s="517"/>
-      <c r="I23" s="517"/>
-      <c r="J23" s="517"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="518">
+      <c r="I22" s="535"/>
+      <c r="J22" s="535"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="535"/>
+      <c r="B23" s="535"/>
+      <c r="C23" s="535"/>
+      <c r="D23" s="535"/>
+      <c r="E23" s="535"/>
+      <c r="F23" s="535"/>
+      <c r="G23" s="536"/>
+      <c r="H23" s="535"/>
+      <c r="I23" s="535"/>
+      <c r="J23" s="535"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="514">
         <v>1</v>
       </c>
-      <c r="B24" s="532" t="s">
+      <c r="B24" s="546" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="533"/>
-      <c r="D24" s="534"/>
-      <c r="E24" s="520" t="str">
+      <c r="C24" s="547"/>
+      <c r="D24" s="548"/>
+      <c r="E24" s="519" t="str">
         <f>Данные!C14</f>
         <v>Батькова</v>
       </c>
-      <c r="F24" s="521"/>
-      <c r="G24" s="524">
+      <c r="F24" s="520"/>
+      <c r="G24" s="523">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="526" t="s">
+      <c r="H24" s="540" t="s">
         <v>148</v>
       </c>
-      <c r="I24" s="527"/>
-      <c r="J24" s="528"/>
-    </row>
-    <row r="25" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="519"/>
-      <c r="B25" s="514" t="str">
+      <c r="I24" s="541"/>
+      <c r="J24" s="542"/>
+    </row>
+    <row r="25" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="515"/>
+      <c r="B25" s="531" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C25" s="515"/>
-      <c r="D25" s="516"/>
-      <c r="E25" s="522"/>
-      <c r="F25" s="523"/>
-      <c r="G25" s="525"/>
-      <c r="H25" s="529"/>
-      <c r="I25" s="530"/>
-      <c r="J25" s="531"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="518">
+      <c r="C25" s="532"/>
+      <c r="D25" s="533"/>
+      <c r="E25" s="534"/>
+      <c r="F25" s="522"/>
+      <c r="G25" s="524"/>
+      <c r="H25" s="543"/>
+      <c r="I25" s="544"/>
+      <c r="J25" s="545"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="514">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="542" t="s">
+      <c r="B26" s="516" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="543"/>
-      <c r="D26" s="544"/>
-      <c r="E26" s="520" t="str">
+      <c r="C26" s="517"/>
+      <c r="D26" s="518"/>
+      <c r="E26" s="519" t="str">
         <f>Данные!C15</f>
         <v>Батькова</v>
       </c>
-      <c r="F26" s="521"/>
-      <c r="G26" s="524">
+      <c r="F26" s="520"/>
+      <c r="G26" s="523">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="536"/>
-      <c r="I26" s="537"/>
-      <c r="J26" s="538"/>
-    </row>
-    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="519"/>
-      <c r="B27" s="514" t="str">
+      <c r="H26" s="525"/>
+      <c r="I26" s="526"/>
+      <c r="J26" s="527"/>
+    </row>
+    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="515"/>
+      <c r="B27" s="531" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C27" s="515"/>
-      <c r="D27" s="516"/>
-      <c r="E27" s="522"/>
-      <c r="F27" s="523"/>
-      <c r="G27" s="525"/>
-      <c r="H27" s="539"/>
-      <c r="I27" s="540"/>
-      <c r="J27" s="541"/>
-    </row>
-    <row r="28" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="518">
+      <c r="C27" s="532"/>
+      <c r="D27" s="533"/>
+      <c r="E27" s="534"/>
+      <c r="F27" s="522"/>
+      <c r="G27" s="524"/>
+      <c r="H27" s="528"/>
+      <c r="I27" s="529"/>
+      <c r="J27" s="530"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="514">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="542" t="s">
+      <c r="B28" s="516" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="543"/>
-      <c r="D28" s="544"/>
-      <c r="E28" s="520" t="str">
+      <c r="C28" s="517"/>
+      <c r="D28" s="518"/>
+      <c r="E28" s="519" t="str">
         <f>Данные!C16</f>
         <v>Батькова</v>
       </c>
-      <c r="F28" s="521"/>
-      <c r="G28" s="524">
+      <c r="F28" s="520"/>
+      <c r="G28" s="523">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="536"/>
-      <c r="I28" s="537"/>
-      <c r="J28" s="538"/>
-    </row>
-    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="519"/>
-      <c r="B29" s="514" t="str">
+      <c r="H28" s="525"/>
+      <c r="I28" s="526"/>
+      <c r="J28" s="527"/>
+    </row>
+    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="515"/>
+      <c r="B29" s="531" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C29" s="515"/>
-      <c r="D29" s="516"/>
-      <c r="E29" s="522"/>
-      <c r="F29" s="523"/>
-      <c r="G29" s="525"/>
-      <c r="H29" s="539"/>
-      <c r="I29" s="540"/>
-      <c r="J29" s="541"/>
-    </row>
-    <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="518">
+      <c r="C29" s="532"/>
+      <c r="D29" s="533"/>
+      <c r="E29" s="534"/>
+      <c r="F29" s="522"/>
+      <c r="G29" s="524"/>
+      <c r="H29" s="528"/>
+      <c r="I29" s="529"/>
+      <c r="J29" s="530"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="514">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="542" t="s">
+      <c r="B30" s="516" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="543"/>
-      <c r="D30" s="544"/>
-      <c r="E30" s="520" t="str">
+      <c r="C30" s="517"/>
+      <c r="D30" s="518"/>
+      <c r="E30" s="519" t="str">
         <f>Данные!C17</f>
         <v>Батькова</v>
       </c>
-      <c r="F30" s="521"/>
-      <c r="G30" s="524">
+      <c r="F30" s="520"/>
+      <c r="G30" s="523">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="536"/>
-      <c r="I30" s="537"/>
-      <c r="J30" s="538"/>
-    </row>
-    <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="519"/>
-      <c r="B31" s="514" t="str">
+      <c r="H30" s="525"/>
+      <c r="I30" s="526"/>
+      <c r="J30" s="527"/>
+    </row>
+    <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="515"/>
+      <c r="B31" s="531" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C31" s="515"/>
-      <c r="D31" s="516"/>
-      <c r="E31" s="545"/>
-      <c r="F31" s="523"/>
-      <c r="G31" s="525"/>
-      <c r="H31" s="539"/>
-      <c r="I31" s="540"/>
-      <c r="J31" s="541"/>
-    </row>
-    <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="518">
+      <c r="C31" s="532"/>
+      <c r="D31" s="533"/>
+      <c r="E31" s="521"/>
+      <c r="F31" s="522"/>
+      <c r="G31" s="524"/>
+      <c r="H31" s="528"/>
+      <c r="I31" s="529"/>
+      <c r="J31" s="530"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="514">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="542" t="s">
+      <c r="B32" s="516" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="543"/>
-      <c r="D32" s="544"/>
-      <c r="E32" s="520" t="str">
+      <c r="C32" s="517"/>
+      <c r="D32" s="518"/>
+      <c r="E32" s="519" t="str">
         <f>Данные!C18</f>
         <v>Батькова</v>
       </c>
-      <c r="F32" s="521"/>
-      <c r="G32" s="524">
+      <c r="F32" s="520"/>
+      <c r="G32" s="523">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H32" s="536"/>
-      <c r="I32" s="537"/>
-      <c r="J32" s="538"/>
-    </row>
-    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="519"/>
-      <c r="B33" s="514" t="str">
+      <c r="H32" s="525"/>
+      <c r="I32" s="526"/>
+      <c r="J32" s="527"/>
+    </row>
+    <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="515"/>
+      <c r="B33" s="531" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C33" s="515"/>
-      <c r="D33" s="516"/>
-      <c r="E33" s="545"/>
-      <c r="F33" s="523"/>
-      <c r="G33" s="525"/>
-      <c r="H33" s="539"/>
-      <c r="I33" s="540"/>
-      <c r="J33" s="541"/>
-    </row>
-    <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="518">
+      <c r="C33" s="532"/>
+      <c r="D33" s="533"/>
+      <c r="E33" s="521"/>
+      <c r="F33" s="522"/>
+      <c r="G33" s="524"/>
+      <c r="H33" s="528"/>
+      <c r="I33" s="529"/>
+      <c r="J33" s="530"/>
+    </row>
+    <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="514">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="542" t="s">
+      <c r="B34" s="516" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="543"/>
-      <c r="D34" s="544"/>
-      <c r="E34" s="520" t="str">
+      <c r="C34" s="517"/>
+      <c r="D34" s="518"/>
+      <c r="E34" s="519" t="str">
         <f>Данные!C19</f>
         <v>Батькова</v>
       </c>
-      <c r="F34" s="521"/>
-      <c r="G34" s="524">
+      <c r="F34" s="520"/>
+      <c r="G34" s="523">
         <f>Данные!B19</f>
         <v>70</v>
       </c>
-      <c r="H34" s="536"/>
-      <c r="I34" s="537"/>
-      <c r="J34" s="538"/>
-    </row>
-    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="519"/>
-      <c r="B35" s="514" t="str">
+      <c r="H34" s="525"/>
+      <c r="I34" s="526"/>
+      <c r="J34" s="527"/>
+    </row>
+    <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="515"/>
+      <c r="B35" s="531" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C35" s="515"/>
-      <c r="D35" s="516"/>
-      <c r="E35" s="545"/>
-      <c r="F35" s="523"/>
-      <c r="G35" s="525"/>
-      <c r="H35" s="539"/>
-      <c r="I35" s="540"/>
-      <c r="J35" s="541"/>
-    </row>
-    <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="518">
+      <c r="C35" s="532"/>
+      <c r="D35" s="533"/>
+      <c r="E35" s="521"/>
+      <c r="F35" s="522"/>
+      <c r="G35" s="524"/>
+      <c r="H35" s="528"/>
+      <c r="I35" s="529"/>
+      <c r="J35" s="530"/>
+    </row>
+    <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="514">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="542" t="s">
+      <c r="B36" s="516" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="543"/>
-      <c r="D36" s="544"/>
-      <c r="E36" s="520" t="str">
+      <c r="C36" s="517"/>
+      <c r="D36" s="518"/>
+      <c r="E36" s="519" t="str">
         <f>Данные!C20</f>
         <v>Батькова</v>
       </c>
-      <c r="F36" s="521"/>
-      <c r="G36" s="524">
+      <c r="F36" s="520"/>
+      <c r="G36" s="523">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="536"/>
-      <c r="I36" s="537"/>
-      <c r="J36" s="538"/>
-    </row>
-    <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="519"/>
-      <c r="B37" s="514" t="str">
+      <c r="H36" s="525"/>
+      <c r="I36" s="526"/>
+      <c r="J36" s="527"/>
+    </row>
+    <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="515"/>
+      <c r="B37" s="531" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C37" s="515"/>
-      <c r="D37" s="516"/>
-      <c r="E37" s="545"/>
-      <c r="F37" s="523"/>
-      <c r="G37" s="525"/>
-      <c r="H37" s="539"/>
-      <c r="I37" s="540"/>
-      <c r="J37" s="541"/>
-    </row>
-    <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="518">
+      <c r="C37" s="532"/>
+      <c r="D37" s="533"/>
+      <c r="E37" s="521"/>
+      <c r="F37" s="522"/>
+      <c r="G37" s="524"/>
+      <c r="H37" s="528"/>
+      <c r="I37" s="529"/>
+      <c r="J37" s="530"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="514">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="542" t="s">
+      <c r="B38" s="516" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="543"/>
-      <c r="D38" s="544"/>
-      <c r="E38" s="520">
+      <c r="C38" s="517"/>
+      <c r="D38" s="518"/>
+      <c r="E38" s="519">
         <f>Данные!C21</f>
         <v>0</v>
       </c>
-      <c r="F38" s="521"/>
-      <c r="G38" s="524">
+      <c r="F38" s="520"/>
+      <c r="G38" s="523">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="H38" s="536"/>
-      <c r="I38" s="537"/>
-      <c r="J38" s="538"/>
-    </row>
-    <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="519"/>
-      <c r="B39" s="514" t="str">
+      <c r="H38" s="525"/>
+      <c r="I38" s="526"/>
+      <c r="J38" s="527"/>
+    </row>
+    <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="515"/>
+      <c r="B39" s="531" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C39" s="515"/>
-      <c r="D39" s="516"/>
-      <c r="E39" s="545"/>
-      <c r="F39" s="523"/>
-      <c r="G39" s="525"/>
-      <c r="H39" s="539"/>
-      <c r="I39" s="540"/>
-      <c r="J39" s="541"/>
-    </row>
-    <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="518">
+      <c r="C39" s="532"/>
+      <c r="D39" s="533"/>
+      <c r="E39" s="521"/>
+      <c r="F39" s="522"/>
+      <c r="G39" s="524"/>
+      <c r="H39" s="528"/>
+      <c r="I39" s="529"/>
+      <c r="J39" s="530"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="514">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="542" t="s">
+      <c r="B40" s="516" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="543"/>
-      <c r="D40" s="544"/>
-      <c r="E40" s="520" t="str">
+      <c r="C40" s="517"/>
+      <c r="D40" s="518"/>
+      <c r="E40" s="519" t="str">
         <f>Данные!C23</f>
         <v>Батькова</v>
       </c>
-      <c r="F40" s="521"/>
-      <c r="G40" s="524">
+      <c r="F40" s="520"/>
+      <c r="G40" s="523">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="536"/>
-      <c r="I40" s="537"/>
-      <c r="J40" s="538"/>
-    </row>
-    <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="519"/>
-      <c r="B41" s="514" t="str">
+      <c r="H40" s="525"/>
+      <c r="I40" s="526"/>
+      <c r="J40" s="527"/>
+    </row>
+    <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="515"/>
+      <c r="B41" s="531" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C41" s="515"/>
-      <c r="D41" s="516"/>
-      <c r="E41" s="545"/>
-      <c r="F41" s="523"/>
-      <c r="G41" s="525"/>
-      <c r="H41" s="539"/>
-      <c r="I41" s="540"/>
-      <c r="J41" s="541"/>
-    </row>
-    <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="518">
+      <c r="C41" s="532"/>
+      <c r="D41" s="533"/>
+      <c r="E41" s="521"/>
+      <c r="F41" s="522"/>
+      <c r="G41" s="524"/>
+      <c r="H41" s="528"/>
+      <c r="I41" s="529"/>
+      <c r="J41" s="530"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="514">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="542" t="s">
+      <c r="B42" s="516" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="543"/>
-      <c r="D42" s="544"/>
-      <c r="E42" s="520" t="str">
+      <c r="C42" s="517"/>
+      <c r="D42" s="518"/>
+      <c r="E42" s="519" t="str">
         <f>Данные!C26</f>
         <v>Батькова</v>
       </c>
-      <c r="F42" s="521"/>
-      <c r="G42" s="524">
+      <c r="F42" s="520"/>
+      <c r="G42" s="523">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="H42" s="536"/>
-      <c r="I42" s="537"/>
-      <c r="J42" s="538"/>
-    </row>
-    <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="519"/>
-      <c r="B43" s="514" t="str">
+      <c r="H42" s="525"/>
+      <c r="I42" s="526"/>
+      <c r="J42" s="527"/>
+    </row>
+    <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="515"/>
+      <c r="B43" s="531" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C43" s="515"/>
-      <c r="D43" s="516"/>
-      <c r="E43" s="545"/>
-      <c r="F43" s="523"/>
-      <c r="G43" s="525"/>
-      <c r="H43" s="539"/>
-      <c r="I43" s="540"/>
-      <c r="J43" s="541"/>
-    </row>
-    <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="518">
+      <c r="C43" s="532"/>
+      <c r="D43" s="533"/>
+      <c r="E43" s="521"/>
+      <c r="F43" s="522"/>
+      <c r="G43" s="524"/>
+      <c r="H43" s="528"/>
+      <c r="I43" s="529"/>
+      <c r="J43" s="530"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="514">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="542" t="s">
+      <c r="B44" s="516" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="543"/>
-      <c r="D44" s="544"/>
-      <c r="E44" s="520">
+      <c r="C44" s="517"/>
+      <c r="D44" s="518"/>
+      <c r="E44" s="519">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="521"/>
-      <c r="G44" s="524">
+      <c r="F44" s="520"/>
+      <c r="G44" s="523">
         <f>Данные!B27</f>
         <v>20</v>
       </c>
-      <c r="H44" s="536"/>
-      <c r="I44" s="537"/>
-      <c r="J44" s="538"/>
-    </row>
-    <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="519"/>
-      <c r="B45" s="514" t="str">
+      <c r="H44" s="525"/>
+      <c r="I44" s="526"/>
+      <c r="J44" s="527"/>
+    </row>
+    <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="515"/>
+      <c r="B45" s="531" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C45" s="515"/>
-      <c r="D45" s="516"/>
-      <c r="E45" s="545"/>
-      <c r="F45" s="523"/>
-      <c r="G45" s="525"/>
-      <c r="H45" s="539"/>
-      <c r="I45" s="540"/>
-      <c r="J45" s="541"/>
-    </row>
-    <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="518">
+      <c r="C45" s="532"/>
+      <c r="D45" s="533"/>
+      <c r="E45" s="521"/>
+      <c r="F45" s="522"/>
+      <c r="G45" s="524"/>
+      <c r="H45" s="528"/>
+      <c r="I45" s="529"/>
+      <c r="J45" s="530"/>
+    </row>
+    <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="514">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="542" t="s">
+      <c r="B46" s="516" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="543"/>
-      <c r="D46" s="544"/>
-      <c r="E46" s="520" t="str">
+      <c r="C46" s="517"/>
+      <c r="D46" s="518"/>
+      <c r="E46" s="519" t="str">
         <f>Данные!C24</f>
         <v>Батькова</v>
       </c>
-      <c r="F46" s="521"/>
-      <c r="G46" s="524">
+      <c r="F46" s="520"/>
+      <c r="G46" s="523">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="536"/>
-      <c r="I46" s="537"/>
-      <c r="J46" s="538"/>
-    </row>
-    <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="519"/>
-      <c r="B47" s="514" t="str">
+      <c r="H46" s="525"/>
+      <c r="I46" s="526"/>
+      <c r="J46" s="527"/>
+    </row>
+    <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="515"/>
+      <c r="B47" s="531" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C47" s="515"/>
-      <c r="D47" s="516"/>
-      <c r="E47" s="545"/>
-      <c r="F47" s="523"/>
-      <c r="G47" s="525"/>
-      <c r="H47" s="539"/>
-      <c r="I47" s="540"/>
-      <c r="J47" s="541"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C47" s="532"/>
+      <c r="D47" s="533"/>
+      <c r="E47" s="521"/>
+      <c r="F47" s="522"/>
+      <c r="G47" s="524"/>
+      <c r="H47" s="528"/>
+      <c r="I47" s="529"/>
+      <c r="J47" s="530"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="299"/>
       <c r="B48" s="299"/>
       <c r="C48" s="299"/>
@@ -10995,7 +11283,7 @@
       <c r="I48" s="299"/>
       <c r="J48" s="300"/>
     </row>
-    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="299" t="s">
         <v>71</v>
       </c>
@@ -11009,7 +11297,7 @@
       <c r="I49" s="299"/>
       <c r="J49" s="300"/>
     </row>
-    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="299"/>
       <c r="B50" s="299"/>
       <c r="C50" s="299"/>
@@ -11021,7 +11309,7 @@
       <c r="I50" s="299"/>
       <c r="J50" s="300"/>
     </row>
-    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="299"/>
       <c r="B51" s="302" t="s">
         <v>72</v>
@@ -11037,7 +11325,7 @@
       <c r="I51" s="299"/>
       <c r="J51" s="300"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="299"/>
       <c r="B52" s="299"/>
       <c r="C52" s="299"/>
@@ -11049,7 +11337,7 @@
       <c r="I52" s="299"/>
       <c r="J52" s="300"/>
     </row>
-    <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="299"/>
       <c r="B53" s="299"/>
       <c r="C53" s="299"/>
@@ -11063,7 +11351,7 @@
       </c>
       <c r="J53" s="299"/>
     </row>
-    <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="299"/>
       <c r="B54" s="299"/>
       <c r="C54" s="299"/>
@@ -11074,7 +11362,7 @@
       <c r="I54" s="299"/>
       <c r="J54" s="299"/>
     </row>
-    <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="299"/>
       <c r="B55" s="299"/>
       <c r="C55" s="299"/>
@@ -11087,14 +11375,14 @@
         <v>Д.Е. Серков</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="296"/>
       <c r="B56" s="296"/>
       <c r="C56" s="296"/>
       <c r="D56" s="296"/>
       <c r="E56" s="296"/>
     </row>
-    <row r="57" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="296"/>
       <c r="B57" s="296"/>
       <c r="C57" s="296"/>
@@ -11110,70 +11398,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11190,15 +11414,79 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -11208,20 +11496,20 @@
       <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
     <col min="2" max="2" width="5" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.85546875" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -11242,49 +11530,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="560"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="562"/>
-      <c r="E2" s="569" t="s">
+      <c r="B2" s="553"/>
+      <c r="C2" s="554"/>
+      <c r="D2" s="555"/>
+      <c r="E2" s="562" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="570"/>
-      <c r="G2" s="570"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="576" t="s">
+      <c r="F2" s="563"/>
+      <c r="G2" s="563"/>
+      <c r="H2" s="564"/>
+      <c r="I2" s="569" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="577"/>
-      <c r="K2" s="580">
+      <c r="J2" s="570"/>
+      <c r="K2" s="573">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="581"/>
+      <c r="L2" s="574"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="572"/>
-      <c r="Q2" s="572"/>
+      <c r="P2" s="565"/>
+      <c r="Q2" s="565"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="563"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="573" t="s">
+      <c r="B3" s="556"/>
+      <c r="C3" s="557"/>
+      <c r="D3" s="558"/>
+      <c r="E3" s="566" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="574"/>
-      <c r="G3" s="574"/>
-      <c r="H3" s="575"/>
-      <c r="I3" s="578"/>
-      <c r="J3" s="579"/>
-      <c r="K3" s="582"/>
-      <c r="L3" s="583"/>
+      <c r="F3" s="567"/>
+      <c r="G3" s="567"/>
+      <c r="H3" s="568"/>
+      <c r="I3" s="571"/>
+      <c r="J3" s="572"/>
+      <c r="K3" s="575"/>
+      <c r="L3" s="576"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11293,11 +11581,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="566"/>
-      <c r="C4" s="567"/>
-      <c r="D4" s="568"/>
+      <c r="B4" s="559"/>
+      <c r="C4" s="560"/>
+      <c r="D4" s="561"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11314,24 +11602,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="580" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="588"/>
-      <c r="D5" s="493" t="str">
+      <c r="C5" s="581"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="494"/>
-      <c r="F5" s="494"/>
-      <c r="G5" s="494"/>
-      <c r="H5" s="495"/>
-      <c r="I5" s="549"/>
-      <c r="J5" s="550"/>
-      <c r="K5" s="494"/>
-      <c r="L5" s="495"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="582"/>
+      <c r="J5" s="583"/>
+      <c r="K5" s="499"/>
+      <c r="L5" s="500"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11340,24 +11628,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="580" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="589"/>
-      <c r="D6" s="487" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="492" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="590"/>
-      <c r="F6" s="590"/>
-      <c r="G6" s="590"/>
-      <c r="H6" s="591"/>
-      <c r="I6" s="549"/>
-      <c r="J6" s="550"/>
-      <c r="K6" s="494"/>
-      <c r="L6" s="495"/>
+      <c r="E6" s="585"/>
+      <c r="F6" s="585"/>
+      <c r="G6" s="585"/>
+      <c r="H6" s="586"/>
+      <c r="I6" s="582"/>
+      <c r="J6" s="583"/>
+      <c r="K6" s="499"/>
+      <c r="L6" s="500"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11366,29 +11654,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="551" t="s">
+      <c r="B7" s="590" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="552"/>
-      <c r="D7" s="496">
+      <c r="C7" s="591"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="553"/>
-      <c r="F7" s="553"/>
-      <c r="G7" s="553"/>
-      <c r="H7" s="554"/>
-      <c r="I7" s="551" t="s">
+      <c r="E7" s="592"/>
+      <c r="F7" s="592"/>
+      <c r="G7" s="592"/>
+      <c r="H7" s="593"/>
+      <c r="I7" s="590" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="555"/>
-      <c r="K7" s="484">
+      <c r="J7" s="594"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="485"/>
+      <c r="L7" s="490"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11397,7 +11685,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -11418,7 +11706,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -11451,7 +11739,7 @@
       <c r="R9" s="313"/>
       <c r="S9" s="190"/>
     </row>
-    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -11484,7 +11772,7 @@
       <c r="R10" s="315"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>26</v>
@@ -11517,7 +11805,7 @@
       <c r="R11" s="317"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>2</v>
@@ -11550,7 +11838,7 @@
       <c r="R12" s="317"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>3</v>
@@ -11583,7 +11871,7 @@
       <c r="R13" s="317"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>27</v>
@@ -11616,7 +11904,7 @@
       <c r="R14" s="317"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="96" t="s">
         <v>9</v>
@@ -11649,7 +11937,7 @@
       <c r="R15" s="317"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="96" t="s">
         <v>5</v>
@@ -11682,7 +11970,7 @@
       <c r="R16" s="317"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="96" t="s">
         <v>30</v>
@@ -11713,7 +12001,7 @@
       <c r="R17" s="317"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="103" t="s">
         <v>32</v>
@@ -11744,7 +12032,7 @@
       <c r="R18" s="319"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="103" t="s">
         <v>33</v>
@@ -11777,7 +12065,7 @@
       <c r="R19" s="319"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="103" t="s">
         <v>35</v>
@@ -11810,7 +12098,7 @@
       <c r="R20" s="319"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="78"/>
       <c r="B21" s="103" t="s">
         <v>40</v>
@@ -11843,7 +12131,7 @@
       <c r="R21" s="319"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="78"/>
       <c r="B22" s="103" t="s">
         <v>41</v>
@@ -11876,14 +12164,14 @@
       <c r="R22" s="319"/>
       <c r="S22" s="86"/>
     </row>
-    <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="546" t="s">
+      <c r="B23" s="587" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="547"/>
-      <c r="D23" s="547"/>
-      <c r="E23" s="548"/>
+      <c r="C23" s="588"/>
+      <c r="D23" s="588"/>
+      <c r="E23" s="589"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -11903,14 +12191,14 @@
       <c r="R23" s="319"/>
       <c r="S23" s="86"/>
     </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="584" t="s">
+      <c r="B24" s="577" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="585"/>
-      <c r="D24" s="585"/>
-      <c r="E24" s="586"/>
+      <c r="C24" s="578"/>
+      <c r="D24" s="578"/>
+      <c r="E24" s="579"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -11930,7 +12218,7 @@
       <c r="R24" s="321"/>
       <c r="S24" s="86"/>
     </row>
-    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="108"/>
       <c r="B25" s="109"/>
       <c r="C25" s="109"/>
@@ -11951,30 +12239,37 @@
       <c r="R25" s="111"/>
       <c r="S25" s="112"/>
     </row>
-    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K27" s="559" t="s">
+    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K27" s="552" t="s">
         <v>135</v>
       </c>
-      <c r="L27" s="559"/>
-      <c r="M27" s="559"/>
+      <c r="L27" s="552"/>
+      <c r="M27" s="552"/>
       <c r="N27" s="460"/>
       <c r="O27" s="460"/>
       <c r="P27" s="476"/>
       <c r="Q27" s="476"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N28" s="556" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="N28" s="549" t="s">
         <v>139</v>
       </c>
-      <c r="O28" s="556"/>
-      <c r="P28" s="557" t="s">
+      <c r="O28" s="549"/>
+      <c r="P28" s="550" t="s">
         <v>140</v>
       </c>
-      <c r="Q28" s="558"/>
+      <c r="Q28" s="551"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="K27:M27"/>
@@ -11991,13 +12286,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
@@ -12017,7 +12305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -12027,20 +12315,20 @@
       <selection pane="bottomRight" activeCell="B16" sqref="B16:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
     <col min="4" max="5" width="6" style="64" customWidth="1"/>
     <col min="6" max="6" width="7" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -12061,52 +12349,52 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="595">
+      <c r="B2" s="601">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="596"/>
-      <c r="D2" s="597"/>
-      <c r="E2" s="604" t="s">
+      <c r="C2" s="602"/>
+      <c r="D2" s="603"/>
+      <c r="E2" s="610" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="605"/>
-      <c r="G2" s="605"/>
-      <c r="H2" s="606"/>
-      <c r="I2" s="610" t="s">
+      <c r="F2" s="611"/>
+      <c r="G2" s="611"/>
+      <c r="H2" s="612"/>
+      <c r="I2" s="616" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="611"/>
-      <c r="K2" s="614">
+      <c r="J2" s="617"/>
+      <c r="K2" s="620">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="615"/>
+      <c r="L2" s="621"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="572"/>
-      <c r="Q2" s="572"/>
+      <c r="P2" s="565"/>
+      <c r="Q2" s="565"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="598"/>
-      <c r="C3" s="599"/>
-      <c r="D3" s="600"/>
-      <c r="E3" s="607" t="s">
+      <c r="B3" s="604"/>
+      <c r="C3" s="605"/>
+      <c r="D3" s="606"/>
+      <c r="E3" s="613" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="608"/>
-      <c r="G3" s="608"/>
-      <c r="H3" s="609"/>
-      <c r="I3" s="612"/>
-      <c r="J3" s="613"/>
-      <c r="K3" s="616"/>
-      <c r="L3" s="617"/>
+      <c r="F3" s="614"/>
+      <c r="G3" s="614"/>
+      <c r="H3" s="615"/>
+      <c r="I3" s="618"/>
+      <c r="J3" s="619"/>
+      <c r="K3" s="622"/>
+      <c r="L3" s="623"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12115,11 +12403,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="601"/>
-      <c r="C4" s="602"/>
-      <c r="D4" s="603"/>
+      <c r="B4" s="607"/>
+      <c r="C4" s="608"/>
+      <c r="D4" s="609"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12136,24 +12424,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="580" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="618"/>
-      <c r="D5" s="493" t="str">
+      <c r="C5" s="595"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="494"/>
-      <c r="F5" s="494"/>
-      <c r="G5" s="494"/>
-      <c r="H5" s="495"/>
-      <c r="I5" s="619"/>
-      <c r="J5" s="620"/>
-      <c r="K5" s="621"/>
-      <c r="L5" s="495"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="596"/>
+      <c r="J5" s="597"/>
+      <c r="K5" s="598"/>
+      <c r="L5" s="500"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12162,24 +12450,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="580" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="618"/>
-      <c r="D6" s="487" t="str">
+      <c r="C6" s="595"/>
+      <c r="D6" s="492" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="590"/>
-      <c r="F6" s="590"/>
-      <c r="G6" s="590"/>
-      <c r="H6" s="591"/>
-      <c r="I6" s="619"/>
-      <c r="J6" s="620"/>
-      <c r="K6" s="621"/>
-      <c r="L6" s="495"/>
+      <c r="E6" s="585"/>
+      <c r="F6" s="585"/>
+      <c r="G6" s="585"/>
+      <c r="H6" s="586"/>
+      <c r="I6" s="596"/>
+      <c r="J6" s="597"/>
+      <c r="K6" s="598"/>
+      <c r="L6" s="500"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12188,29 +12476,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="551" t="s">
+      <c r="B7" s="590" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="622"/>
-      <c r="D7" s="496">
+      <c r="C7" s="599"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="553"/>
-      <c r="F7" s="553"/>
-      <c r="G7" s="553"/>
-      <c r="H7" s="554"/>
-      <c r="I7" s="623" t="s">
+      <c r="E7" s="592"/>
+      <c r="F7" s="592"/>
+      <c r="G7" s="592"/>
+      <c r="H7" s="593"/>
+      <c r="I7" s="600" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="622"/>
-      <c r="K7" s="484">
+      <c r="J7" s="599"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="485"/>
+      <c r="L7" s="490"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12219,7 +12507,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -12240,7 +12528,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12273,7 +12561,7 @@
       <c r="R9" s="313"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -12306,7 +12594,7 @@
       <c r="R10" s="315"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>28</v>
@@ -12339,7 +12627,7 @@
       <c r="R11" s="317"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>4</v>
@@ -12372,7 +12660,7 @@
       <c r="R12" s="317"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>5</v>
@@ -12405,14 +12693,14 @@
       <c r="R13" s="317"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="593" t="s">
+      <c r="B14" s="625" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="594"/>
-      <c r="D14" s="594"/>
-      <c r="E14" s="594"/>
+      <c r="C14" s="626"/>
+      <c r="D14" s="626"/>
+      <c r="E14" s="626"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12432,15 +12720,15 @@
       <c r="R14" s="319"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="546" t="s">
+      <c r="B15" s="587" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="547"/>
-      <c r="D15" s="547"/>
-      <c r="E15" s="547"/>
-      <c r="F15" s="592"/>
+      <c r="C15" s="588"/>
+      <c r="D15" s="588"/>
+      <c r="E15" s="588"/>
+      <c r="F15" s="624"/>
       <c r="G15" s="56" t="s">
         <v>76</v>
       </c>
@@ -12457,14 +12745,14 @@
       <c r="R15" s="319"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="584" t="s">
+      <c r="B16" s="577" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="585"/>
-      <c r="D16" s="585"/>
-      <c r="E16" s="586"/>
+      <c r="C16" s="578"/>
+      <c r="D16" s="578"/>
+      <c r="E16" s="579"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12484,7 +12772,7 @@
       <c r="R16" s="321"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="108"/>
       <c r="B17" s="109"/>
       <c r="C17" s="109"/>
@@ -12505,34 +12793,45 @@
       <c r="R17" s="111"/>
       <c r="S17" s="112"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="121"/>
       <c r="P18" s="122"/>
     </row>
-    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="559" t="s">
+      <c r="L19" s="552" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="559"/>
-      <c r="N19" s="559"/>
+      <c r="M19" s="552"/>
+      <c r="N19" s="552"/>
       <c r="O19" s="460"/>
       <c r="P19" s="460"/>
       <c r="Q19" s="476"/>
       <c r="R19" s="476"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="556" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O20" s="549" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="556"/>
-      <c r="Q20" s="557" t="s">
+      <c r="P20" s="549"/>
+      <c r="Q20" s="550" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="558"/>
+      <c r="R20" s="551"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12546,17 +12845,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12584,7 +12872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -12594,20 +12882,20 @@
       <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.88671875" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.5546875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.5703125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -12628,49 +12916,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="560"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="562"/>
-      <c r="E2" s="569" t="s">
+      <c r="B2" s="553"/>
+      <c r="C2" s="554"/>
+      <c r="D2" s="555"/>
+      <c r="E2" s="562" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="570"/>
-      <c r="G2" s="570"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="576" t="s">
+      <c r="F2" s="563"/>
+      <c r="G2" s="563"/>
+      <c r="H2" s="564"/>
+      <c r="I2" s="569" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="577"/>
-      <c r="K2" s="580">
+      <c r="J2" s="570"/>
+      <c r="K2" s="573">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="581"/>
+      <c r="L2" s="574"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="572"/>
-      <c r="Q2" s="572"/>
+      <c r="P2" s="565"/>
+      <c r="Q2" s="565"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="563"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="573" t="s">
+      <c r="B3" s="556"/>
+      <c r="C3" s="557"/>
+      <c r="D3" s="558"/>
+      <c r="E3" s="566" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="574"/>
-      <c r="G3" s="574"/>
-      <c r="H3" s="575"/>
-      <c r="I3" s="578"/>
-      <c r="J3" s="579"/>
-      <c r="K3" s="582"/>
-      <c r="L3" s="583"/>
+      <c r="F3" s="567"/>
+      <c r="G3" s="567"/>
+      <c r="H3" s="568"/>
+      <c r="I3" s="571"/>
+      <c r="J3" s="572"/>
+      <c r="K3" s="575"/>
+      <c r="L3" s="576"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12679,11 +12967,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="566"/>
-      <c r="C4" s="567"/>
-      <c r="D4" s="568"/>
+      <c r="B4" s="559"/>
+      <c r="C4" s="560"/>
+      <c r="D4" s="561"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12700,24 +12988,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="580" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="588"/>
-      <c r="D5" s="493" t="str">
+      <c r="C5" s="581"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="494"/>
-      <c r="F5" s="494"/>
-      <c r="G5" s="494"/>
-      <c r="H5" s="495"/>
-      <c r="I5" s="549"/>
-      <c r="J5" s="550"/>
-      <c r="K5" s="494"/>
-      <c r="L5" s="495"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="582"/>
+      <c r="J5" s="583"/>
+      <c r="K5" s="499"/>
+      <c r="L5" s="500"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12726,24 +13014,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="580" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="589"/>
-      <c r="D6" s="487" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="492" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="590"/>
-      <c r="F6" s="590"/>
-      <c r="G6" s="590"/>
-      <c r="H6" s="591"/>
-      <c r="I6" s="549"/>
-      <c r="J6" s="550"/>
-      <c r="K6" s="494"/>
-      <c r="L6" s="495"/>
+      <c r="E6" s="585"/>
+      <c r="F6" s="585"/>
+      <c r="G6" s="585"/>
+      <c r="H6" s="586"/>
+      <c r="I6" s="582"/>
+      <c r="J6" s="583"/>
+      <c r="K6" s="499"/>
+      <c r="L6" s="500"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12752,29 +13040,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="551" t="s">
+      <c r="B7" s="590" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="552"/>
-      <c r="D7" s="496">
+      <c r="C7" s="591"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="553"/>
-      <c r="F7" s="553"/>
-      <c r="G7" s="553"/>
-      <c r="H7" s="554"/>
-      <c r="I7" s="551" t="s">
+      <c r="E7" s="592"/>
+      <c r="F7" s="592"/>
+      <c r="G7" s="592"/>
+      <c r="H7" s="593"/>
+      <c r="I7" s="590" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="555"/>
-      <c r="K7" s="484">
+      <c r="J7" s="594"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="485"/>
+      <c r="L7" s="490"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12783,7 +13071,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -12804,7 +13092,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12840,7 +13128,7 @@
       <c r="W9" s="91"/>
       <c r="X9" s="91"/>
     </row>
-    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -12876,7 +13164,7 @@
       <c r="W10" s="91"/>
       <c r="X10" s="91"/>
     </row>
-    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>3</v>
@@ -12912,7 +13200,7 @@
       <c r="W11" s="100"/>
       <c r="X11" s="91"/>
     </row>
-    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>27</v>
@@ -12948,7 +13236,7 @@
       <c r="W12" s="101"/>
       <c r="X12" s="91"/>
     </row>
-    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>4</v>
@@ -12984,7 +13272,7 @@
       <c r="W13" s="101"/>
       <c r="X13" s="91"/>
     </row>
-    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>5</v>
@@ -13020,7 +13308,7 @@
       <c r="W14" s="101"/>
       <c r="X14" s="91"/>
     </row>
-    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="96" t="s">
         <v>30</v>
@@ -13056,7 +13344,7 @@
       <c r="W15" s="100"/>
       <c r="X15" s="91"/>
     </row>
-    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="96" t="s">
         <v>31</v>
@@ -13092,7 +13380,7 @@
       <c r="W16" s="101"/>
       <c r="X16" s="91"/>
     </row>
-    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="103" t="s">
         <v>32</v>
@@ -13128,7 +13416,7 @@
       <c r="W17" s="100"/>
       <c r="X17" s="91"/>
     </row>
-    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="103" t="s">
         <v>33</v>
@@ -13164,7 +13452,7 @@
       <c r="W18" s="100"/>
       <c r="X18" s="91"/>
     </row>
-    <row r="19" spans="1:24" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="103" t="s">
         <v>34</v>
@@ -13198,7 +13486,7 @@
       <c r="W19" s="100"/>
       <c r="X19" s="91"/>
     </row>
-    <row r="20" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
       <c r="B20" s="103" t="s">
         <v>35</v>
@@ -13231,7 +13519,7 @@
       <c r="R20" s="321"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="108"/>
       <c r="B21" s="109"/>
       <c r="C21" s="109"/>
@@ -13252,37 +13540,30 @@
       <c r="R21" s="111"/>
       <c r="S21" s="112"/>
     </row>
-    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="L23" s="624" t="s">
+    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="L23" s="627" t="s">
         <v>135</v>
       </c>
-      <c r="M23" s="624"/>
-      <c r="N23" s="624"/>
+      <c r="M23" s="627"/>
+      <c r="N23" s="627"/>
       <c r="O23" s="460"/>
       <c r="P23" s="460"/>
       <c r="Q23" s="476"/>
       <c r="R23" s="476"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O24" s="556" t="s">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O24" s="549" t="s">
         <v>139</v>
       </c>
-      <c r="P24" s="556"/>
-      <c r="Q24" s="557" t="s">
+      <c r="P24" s="549"/>
+      <c r="Q24" s="550" t="s">
         <v>140</v>
       </c>
-      <c r="R24" s="558"/>
+      <c r="R24" s="551"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B6:C6"/>
@@ -13297,6 +13578,13 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
@@ -13318,7 +13606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -13328,20 +13616,20 @@
       <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="5" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="5" customWidth="1"/>
     <col min="8" max="18" width="9" style="5" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="5"/>
+    <col min="19" max="19" width="0.85546875" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -13362,49 +13650,49 @@
       <c r="R1" s="3"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="560"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="562"/>
-      <c r="E2" s="569" t="s">
+      <c r="B2" s="553"/>
+      <c r="C2" s="554"/>
+      <c r="D2" s="555"/>
+      <c r="E2" s="562" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="570"/>
-      <c r="G2" s="570"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="576" t="s">
+      <c r="F2" s="563"/>
+      <c r="G2" s="563"/>
+      <c r="H2" s="564"/>
+      <c r="I2" s="569" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="577"/>
-      <c r="K2" s="580">
+      <c r="J2" s="570"/>
+      <c r="K2" s="573">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="581"/>
+      <c r="L2" s="574"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="625"/>
-      <c r="Q2" s="625"/>
+      <c r="P2" s="628"/>
+      <c r="Q2" s="628"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="563"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="573" t="s">
+      <c r="B3" s="556"/>
+      <c r="C3" s="557"/>
+      <c r="D3" s="558"/>
+      <c r="E3" s="566" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="574"/>
-      <c r="G3" s="574"/>
-      <c r="H3" s="575"/>
-      <c r="I3" s="578"/>
-      <c r="J3" s="579"/>
-      <c r="K3" s="582"/>
-      <c r="L3" s="583"/>
+      <c r="F3" s="567"/>
+      <c r="G3" s="567"/>
+      <c r="H3" s="568"/>
+      <c r="I3" s="571"/>
+      <c r="J3" s="572"/>
+      <c r="K3" s="575"/>
+      <c r="L3" s="576"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13413,11 +13701,11 @@
       <c r="R3" s="15"/>
       <c r="S3" s="11"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="566"/>
-      <c r="C4" s="567"/>
-      <c r="D4" s="568"/>
+      <c r="B4" s="559"/>
+      <c r="C4" s="560"/>
+      <c r="D4" s="561"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13434,24 +13722,24 @@
       <c r="R4" s="15"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="580" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="588"/>
-      <c r="D5" s="493" t="str">
+      <c r="C5" s="581"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="494"/>
-      <c r="F5" s="494"/>
-      <c r="G5" s="494"/>
-      <c r="H5" s="495"/>
-      <c r="I5" s="549"/>
-      <c r="J5" s="550"/>
-      <c r="K5" s="494"/>
-      <c r="L5" s="495"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="582"/>
+      <c r="J5" s="583"/>
+      <c r="K5" s="499"/>
+      <c r="L5" s="500"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13460,24 +13748,24 @@
       <c r="R5" s="15"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="580" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="589"/>
-      <c r="D6" s="487" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="492" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="590"/>
-      <c r="F6" s="590"/>
-      <c r="G6" s="590"/>
-      <c r="H6" s="591"/>
-      <c r="I6" s="549"/>
-      <c r="J6" s="550"/>
-      <c r="K6" s="494"/>
-      <c r="L6" s="495"/>
+      <c r="E6" s="585"/>
+      <c r="F6" s="585"/>
+      <c r="G6" s="585"/>
+      <c r="H6" s="586"/>
+      <c r="I6" s="582"/>
+      <c r="J6" s="583"/>
+      <c r="K6" s="499"/>
+      <c r="L6" s="500"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13486,29 +13774,29 @@
       <c r="R6" s="15"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="551" t="s">
+      <c r="B7" s="590" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="552"/>
-      <c r="D7" s="496">
+      <c r="C7" s="591"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="553"/>
-      <c r="F7" s="553"/>
-      <c r="G7" s="553"/>
-      <c r="H7" s="554"/>
-      <c r="I7" s="551" t="s">
+      <c r="E7" s="592"/>
+      <c r="F7" s="592"/>
+      <c r="G7" s="592"/>
+      <c r="H7" s="593"/>
+      <c r="I7" s="590" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="555"/>
-      <c r="K7" s="484">
+      <c r="J7" s="594"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="485"/>
+      <c r="L7" s="490"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13517,7 +13805,7 @@
       <c r="R7" s="23"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26"/>
@@ -13538,7 +13826,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="32"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -13571,7 +13859,7 @@
       <c r="R9" s="323"/>
       <c r="S9" s="38"/>
     </row>
-    <row r="10" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="50" t="s">
         <v>6</v>
@@ -13604,7 +13892,7 @@
       <c r="R10" s="325"/>
       <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="50" t="s">
         <v>2</v>
@@ -13637,7 +13925,7 @@
       <c r="R11" s="325"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="50" t="s">
         <v>3</v>
@@ -13670,7 +13958,7 @@
       <c r="R12" s="325"/>
       <c r="S12" s="32"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="50" t="s">
         <v>7</v>
@@ -13703,7 +13991,7 @@
       <c r="R13" s="325"/>
       <c r="S13" s="32"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
       <c r="B14" s="50" t="s">
         <v>8</v>
@@ -13736,7 +14024,7 @@
       <c r="R14" s="325"/>
       <c r="S14" s="32"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="57" t="s">
         <v>4</v>
@@ -13769,7 +14057,7 @@
       <c r="R15" s="327"/>
       <c r="S15" s="32"/>
     </row>
-    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -13790,36 +14078,30 @@
       <c r="R16" s="46"/>
       <c r="S16" s="43"/>
     </row>
-    <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="624" t="s">
+    <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L18" s="627" t="s">
         <v>135</v>
       </c>
-      <c r="M18" s="624"/>
-      <c r="N18" s="624"/>
+      <c r="M18" s="627"/>
+      <c r="N18" s="627"/>
       <c r="O18" s="460"/>
       <c r="P18" s="460"/>
       <c r="Q18" s="476"/>
       <c r="R18" s="476"/>
     </row>
-    <row r="19" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="O19" s="556" t="s">
+    <row r="19" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="O19" s="549" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="556"/>
-      <c r="Q19" s="557" t="s">
+      <c r="P19" s="549"/>
+      <c r="Q19" s="550" t="s">
         <v>140</v>
       </c>
-      <c r="R19" s="558"/>
+      <c r="R19" s="551"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="L18:N18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B7:C7"/>
@@ -13835,6 +14117,12 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E2:H2"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L18:N18"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13857,7 +14145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13870,20 +14158,20 @@
       <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
-    <col min="8" max="18" width="8.88671875" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
+    <col min="8" max="18" width="8.85546875" style="64" customWidth="1"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -13904,62 +14192,62 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="595"/>
-      <c r="C2" s="596"/>
-      <c r="D2" s="597"/>
-      <c r="E2" s="604" t="s">
+      <c r="B2" s="601"/>
+      <c r="C2" s="602"/>
+      <c r="D2" s="603"/>
+      <c r="E2" s="610" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="605"/>
-      <c r="G2" s="605"/>
-      <c r="H2" s="606"/>
-      <c r="I2" s="610" t="s">
+      <c r="F2" s="611"/>
+      <c r="G2" s="611"/>
+      <c r="H2" s="612"/>
+      <c r="I2" s="616" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="611"/>
-      <c r="K2" s="614">
+      <c r="J2" s="617"/>
+      <c r="K2" s="620">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="615"/>
-      <c r="M2" s="626"/>
-      <c r="N2" s="627"/>
-      <c r="O2" s="627"/>
-      <c r="P2" s="627"/>
-      <c r="Q2" s="627"/>
-      <c r="R2" s="628"/>
+      <c r="L2" s="621"/>
+      <c r="M2" s="629"/>
+      <c r="N2" s="630"/>
+      <c r="O2" s="630"/>
+      <c r="P2" s="630"/>
+      <c r="Q2" s="630"/>
+      <c r="R2" s="631"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="598"/>
-      <c r="C3" s="599"/>
-      <c r="D3" s="600"/>
-      <c r="E3" s="607" t="s">
+      <c r="B3" s="604"/>
+      <c r="C3" s="605"/>
+      <c r="D3" s="606"/>
+      <c r="E3" s="613" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="608"/>
-      <c r="G3" s="608"/>
-      <c r="H3" s="609"/>
-      <c r="I3" s="612"/>
-      <c r="J3" s="613"/>
-      <c r="K3" s="616"/>
-      <c r="L3" s="617"/>
-      <c r="M3" s="629"/>
-      <c r="N3" s="630"/>
-      <c r="O3" s="630"/>
-      <c r="P3" s="630"/>
-      <c r="Q3" s="630"/>
-      <c r="R3" s="631"/>
+      <c r="F3" s="614"/>
+      <c r="G3" s="614"/>
+      <c r="H3" s="615"/>
+      <c r="I3" s="618"/>
+      <c r="J3" s="619"/>
+      <c r="K3" s="622"/>
+      <c r="L3" s="623"/>
+      <c r="M3" s="632"/>
+      <c r="N3" s="633"/>
+      <c r="O3" s="633"/>
+      <c r="P3" s="633"/>
+      <c r="Q3" s="633"/>
+      <c r="R3" s="634"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="601"/>
-      <c r="C4" s="602"/>
-      <c r="D4" s="603"/>
+      <c r="B4" s="607"/>
+      <c r="C4" s="608"/>
+      <c r="D4" s="609"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -13968,98 +14256,98 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="629"/>
-      <c r="N4" s="630"/>
-      <c r="O4" s="630"/>
-      <c r="P4" s="630"/>
-      <c r="Q4" s="630"/>
-      <c r="R4" s="631"/>
+      <c r="M4" s="632"/>
+      <c r="N4" s="633"/>
+      <c r="O4" s="633"/>
+      <c r="P4" s="633"/>
+      <c r="Q4" s="633"/>
+      <c r="R4" s="634"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="580" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="618"/>
-      <c r="D5" s="493" t="str">
+      <c r="C5" s="595"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="494"/>
-      <c r="F5" s="494"/>
-      <c r="G5" s="494"/>
-      <c r="H5" s="495"/>
-      <c r="I5" s="619"/>
-      <c r="J5" s="620"/>
-      <c r="K5" s="621"/>
-      <c r="L5" s="495"/>
-      <c r="M5" s="629"/>
-      <c r="N5" s="630"/>
-      <c r="O5" s="630"/>
-      <c r="P5" s="630"/>
-      <c r="Q5" s="630"/>
-      <c r="R5" s="631"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="596"/>
+      <c r="J5" s="597"/>
+      <c r="K5" s="598"/>
+      <c r="L5" s="500"/>
+      <c r="M5" s="632"/>
+      <c r="N5" s="633"/>
+      <c r="O5" s="633"/>
+      <c r="P5" s="633"/>
+      <c r="Q5" s="633"/>
+      <c r="R5" s="634"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="580" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="618"/>
-      <c r="D6" s="487" t="str">
+      <c r="C6" s="595"/>
+      <c r="D6" s="492" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="590"/>
-      <c r="F6" s="590"/>
-      <c r="G6" s="590"/>
-      <c r="H6" s="591"/>
-      <c r="I6" s="619"/>
-      <c r="J6" s="620"/>
-      <c r="K6" s="621"/>
-      <c r="L6" s="495"/>
-      <c r="M6" s="629"/>
-      <c r="N6" s="630"/>
-      <c r="O6" s="630"/>
-      <c r="P6" s="630"/>
-      <c r="Q6" s="630"/>
-      <c r="R6" s="631"/>
+      <c r="E6" s="585"/>
+      <c r="F6" s="585"/>
+      <c r="G6" s="585"/>
+      <c r="H6" s="586"/>
+      <c r="I6" s="596"/>
+      <c r="J6" s="597"/>
+      <c r="K6" s="598"/>
+      <c r="L6" s="500"/>
+      <c r="M6" s="632"/>
+      <c r="N6" s="633"/>
+      <c r="O6" s="633"/>
+      <c r="P6" s="633"/>
+      <c r="Q6" s="633"/>
+      <c r="R6" s="634"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="551" t="s">
+      <c r="B7" s="590" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="622"/>
-      <c r="D7" s="496">
+      <c r="C7" s="599"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="553"/>
-      <c r="F7" s="553"/>
-      <c r="G7" s="553"/>
-      <c r="H7" s="554"/>
-      <c r="I7" s="623" t="s">
+      <c r="E7" s="592"/>
+      <c r="F7" s="592"/>
+      <c r="G7" s="592"/>
+      <c r="H7" s="593"/>
+      <c r="I7" s="600" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="622"/>
-      <c r="K7" s="484">
+      <c r="J7" s="599"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="485"/>
-      <c r="M7" s="629"/>
-      <c r="N7" s="630"/>
-      <c r="O7" s="630"/>
-      <c r="P7" s="630"/>
-      <c r="Q7" s="630"/>
-      <c r="R7" s="631"/>
+      <c r="L7" s="490"/>
+      <c r="M7" s="632"/>
+      <c r="N7" s="633"/>
+      <c r="O7" s="633"/>
+      <c r="P7" s="633"/>
+      <c r="Q7" s="633"/>
+      <c r="R7" s="634"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -14080,7 +14368,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -14113,7 +14401,7 @@
       <c r="R9" s="313"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -14146,7 +14434,7 @@
       <c r="R10" s="315"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="193" t="s">
         <v>26</v>
@@ -14179,7 +14467,7 @@
       <c r="R11" s="317"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="193" t="s">
         <v>2</v>
@@ -14212,7 +14500,7 @@
       <c r="R12" s="317"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" s="471" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" s="471" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="461"/>
       <c r="B13" s="462" t="s">
         <v>3</v>
@@ -14245,7 +14533,7 @@
       <c r="R13" s="469"/>
       <c r="S13" s="470"/>
     </row>
-    <row r="14" spans="1:19" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>27</v>
@@ -14278,7 +14566,7 @@
       <c r="R14" s="317"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="96" t="s">
         <v>28</v>
@@ -14311,7 +14599,7 @@
       <c r="R15" s="317"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="96" t="s">
         <v>9</v>
@@ -14344,7 +14632,7 @@
       <c r="R16" s="317"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="96" t="s">
         <v>29</v>
@@ -14377,7 +14665,7 @@
       <c r="R17" s="317"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="96" t="s">
         <v>30</v>
@@ -14410,7 +14698,7 @@
       <c r="R18" s="317"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="96" t="s">
         <v>35</v>
@@ -14443,14 +14731,14 @@
       <c r="R19" s="317"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
-      <c r="B20" s="584" t="s">
+      <c r="B20" s="577" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="585"/>
-      <c r="D20" s="585"/>
-      <c r="E20" s="586"/>
+      <c r="C20" s="578"/>
+      <c r="D20" s="578"/>
+      <c r="E20" s="579"/>
       <c r="F20" s="114" t="s">
         <v>16</v>
       </c>
@@ -14470,7 +14758,7 @@
       <c r="R20" s="321"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="108"/>
       <c r="B21" s="109"/>
       <c r="C21" s="109"/>
@@ -14491,32 +14779,38 @@
       <c r="R21" s="111"/>
       <c r="S21" s="112"/>
     </row>
-    <row r="22" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B22" s="121"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L23" s="624" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L23" s="627" t="s">
         <v>135</v>
       </c>
-      <c r="M23" s="624"/>
-      <c r="N23" s="624"/>
+      <c r="M23" s="627"/>
+      <c r="N23" s="627"/>
       <c r="O23" s="460"/>
       <c r="P23" s="460"/>
       <c r="Q23" s="476"/>
       <c r="R23" s="476"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O24" s="556" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O24" s="549" t="s">
         <v>139</v>
       </c>
-      <c r="P24" s="556"/>
-      <c r="Q24" s="557" t="s">
+      <c r="P24" s="549"/>
+      <c r="Q24" s="550" t="s">
         <v>140</v>
       </c>
-      <c r="R24" s="558"/>
+      <c r="R24" s="551"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="B2:D4"/>
@@ -14533,12 +14827,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="equal">
@@ -14558,7 +14846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -14568,19 +14856,19 @@
       <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.109375" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.140625" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -14601,49 +14889,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="595"/>
-      <c r="C2" s="596"/>
-      <c r="D2" s="597"/>
-      <c r="E2" s="604" t="s">
+      <c r="B2" s="601"/>
+      <c r="C2" s="602"/>
+      <c r="D2" s="603"/>
+      <c r="E2" s="610" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="605"/>
-      <c r="G2" s="605"/>
-      <c r="H2" s="606"/>
-      <c r="I2" s="610" t="s">
+      <c r="F2" s="611"/>
+      <c r="G2" s="611"/>
+      <c r="H2" s="612"/>
+      <c r="I2" s="616" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="611"/>
-      <c r="K2" s="614">
+      <c r="J2" s="617"/>
+      <c r="K2" s="620">
         <f>Данные!B19</f>
         <v>70</v>
       </c>
-      <c r="L2" s="615"/>
+      <c r="L2" s="621"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="632"/>
-      <c r="Q2" s="632"/>
+      <c r="P2" s="635"/>
+      <c r="Q2" s="635"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="598"/>
-      <c r="C3" s="599"/>
-      <c r="D3" s="600"/>
-      <c r="E3" s="607" t="s">
+      <c r="B3" s="604"/>
+      <c r="C3" s="605"/>
+      <c r="D3" s="606"/>
+      <c r="E3" s="613" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="608"/>
-      <c r="G3" s="608"/>
-      <c r="H3" s="609"/>
-      <c r="I3" s="612"/>
-      <c r="J3" s="613"/>
-      <c r="K3" s="616"/>
-      <c r="L3" s="617"/>
+      <c r="F3" s="614"/>
+      <c r="G3" s="614"/>
+      <c r="H3" s="615"/>
+      <c r="I3" s="618"/>
+      <c r="J3" s="619"/>
+      <c r="K3" s="622"/>
+      <c r="L3" s="623"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14652,11 +14940,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="601"/>
-      <c r="C4" s="602"/>
-      <c r="D4" s="603"/>
+      <c r="B4" s="607"/>
+      <c r="C4" s="608"/>
+      <c r="D4" s="609"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14673,24 +14961,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="580" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="618"/>
-      <c r="D5" s="493" t="str">
+      <c r="C5" s="595"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="494"/>
-      <c r="F5" s="494"/>
-      <c r="G5" s="494"/>
-      <c r="H5" s="495"/>
-      <c r="I5" s="619"/>
-      <c r="J5" s="620"/>
-      <c r="K5" s="621"/>
-      <c r="L5" s="495"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="596"/>
+      <c r="J5" s="597"/>
+      <c r="K5" s="598"/>
+      <c r="L5" s="500"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14699,24 +14987,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="580" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="618"/>
-      <c r="D6" s="487" t="str">
+      <c r="C6" s="595"/>
+      <c r="D6" s="492" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="590"/>
-      <c r="F6" s="590"/>
-      <c r="G6" s="590"/>
-      <c r="H6" s="591"/>
-      <c r="I6" s="619"/>
-      <c r="J6" s="620"/>
-      <c r="K6" s="621"/>
-      <c r="L6" s="495"/>
+      <c r="E6" s="585"/>
+      <c r="F6" s="585"/>
+      <c r="G6" s="585"/>
+      <c r="H6" s="586"/>
+      <c r="I6" s="596"/>
+      <c r="J6" s="597"/>
+      <c r="K6" s="598"/>
+      <c r="L6" s="500"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14725,29 +15013,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="551" t="s">
+      <c r="B7" s="590" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="622"/>
-      <c r="D7" s="496">
+      <c r="C7" s="599"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="553"/>
-      <c r="F7" s="553"/>
-      <c r="G7" s="553"/>
-      <c r="H7" s="554"/>
-      <c r="I7" s="623" t="s">
+      <c r="E7" s="592"/>
+      <c r="F7" s="592"/>
+      <c r="G7" s="592"/>
+      <c r="H7" s="593"/>
+      <c r="I7" s="600" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="622"/>
-      <c r="K7" s="484">
+      <c r="J7" s="599"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="485"/>
+      <c r="L7" s="490"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14756,7 +15044,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -14777,7 +15065,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -14810,7 +15098,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="127" t="s">
         <v>26</v>
@@ -14843,7 +15131,7 @@
       <c r="R10" s="99"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="127" t="s">
         <v>2</v>
@@ -14876,7 +15164,7 @@
       <c r="R11" s="99"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" s="471" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="471" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="461"/>
       <c r="B12" s="472" t="s">
         <v>3</v>
@@ -14909,7 +15197,7 @@
       <c r="R12" s="475"/>
       <c r="S12" s="470"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="127" t="s">
         <v>27</v>
@@ -14942,7 +15230,7 @@
       <c r="R13" s="99"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="127" t="s">
         <v>9</v>
@@ -14975,7 +15263,7 @@
       <c r="R14" s="99"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="127" t="s">
         <v>5</v>
@@ -15008,14 +15296,14 @@
       <c r="R15" s="99"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="584" t="s">
+      <c r="B16" s="577" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="585"/>
-      <c r="D16" s="585"/>
-      <c r="E16" s="586"/>
+      <c r="C16" s="578"/>
+      <c r="D16" s="578"/>
+      <c r="E16" s="579"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15035,7 +15323,7 @@
       <c r="R16" s="120"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="108"/>
       <c r="B17" s="126"/>
       <c r="C17" s="125"/>
@@ -15056,32 +15344,42 @@
       <c r="R17" s="111"/>
       <c r="S17" s="112"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="121"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L19" s="624" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L19" s="627" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="624"/>
-      <c r="N19" s="624"/>
+      <c r="M19" s="627"/>
+      <c r="N19" s="627"/>
       <c r="O19" s="460"/>
       <c r="P19" s="460"/>
       <c r="Q19" s="476"/>
       <c r="R19" s="476"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="556" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O20" s="549" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="556"/>
-      <c r="Q20" s="557" t="s">
+      <c r="P20" s="549"/>
+      <c r="Q20" s="550" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="558"/>
+      <c r="R20" s="551"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
@@ -15094,16 +15392,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-30-4б-500-14 Батькова/XXI-В-30-4б-500-14 Батькова от 07.02.2020.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-30-4б-500-14 Батькова/XXI-В-30-4б-500-14 Батькова от 07.02.2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-В-30-4б-500-14 Батькова\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2FBC22-6B74-4713-82B2-7DB5F06E7C30}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FEB6AD-BA54-4960-84DC-81C95AC92C39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -2186,7 +2186,7 @@
     <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="647">
+  <cellXfs count="648">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3432,41 +3432,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
@@ -3559,15 +3533,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="97" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3578,6 +3543,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4046,6 +4017,54 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6748,25 +6767,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="491" t="s">
+      <c r="A1" s="476" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="495"/>
-      <c r="C1" s="495"/>
-      <c r="D1" s="495"/>
-      <c r="E1" s="495"/>
+      <c r="B1" s="480"/>
+      <c r="C1" s="480"/>
+      <c r="D1" s="480"/>
+      <c r="E1" s="480"/>
       <c r="G1" s="357" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="492" t="s">
+      <c r="A2" s="477" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="493"/>
-      <c r="C2" s="493"/>
-      <c r="D2" s="493"/>
-      <c r="E2" s="494"/>
+      <c r="B2" s="478"/>
+      <c r="C2" s="478"/>
+      <c r="D2" s="478"/>
+      <c r="E2" s="479"/>
       <c r="G2" s="356" t="s">
         <v>78</v>
       </c>
@@ -6777,45 +6796,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="496" t="s">
+      <c r="A4" s="481" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="497"/>
-      <c r="C4" s="497"/>
-      <c r="D4" s="497"/>
-      <c r="E4" s="497"/>
+      <c r="B4" s="482"/>
+      <c r="C4" s="482"/>
+      <c r="D4" s="482"/>
+      <c r="E4" s="482"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="498" t="s">
+      <c r="A5" s="483" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="499"/>
-      <c r="C5" s="499"/>
-      <c r="D5" s="499"/>
-      <c r="E5" s="500"/>
+      <c r="B5" s="484"/>
+      <c r="C5" s="484"/>
+      <c r="D5" s="484"/>
+      <c r="E5" s="485"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="491" t="s">
+      <c r="A7" s="476" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="495"/>
-      <c r="C7" s="495"/>
-      <c r="D7" s="495"/>
-      <c r="E7" s="495"/>
+      <c r="B7" s="480"/>
+      <c r="C7" s="480"/>
+      <c r="D7" s="480"/>
+      <c r="E7" s="480"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="501"/>
-      <c r="B8" s="502"/>
-      <c r="C8" s="502"/>
-      <c r="D8" s="502"/>
-      <c r="E8" s="503"/>
+      <c r="A8" s="486"/>
+      <c r="B8" s="487"/>
+      <c r="C8" s="487"/>
+      <c r="D8" s="487"/>
+      <c r="E8" s="488"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="491" t="s">
+      <c r="A10" s="476" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="491"/>
+      <c r="B10" s="476"/>
       <c r="C10" s="358"/>
       <c r="D10" s="364" t="s">
         <v>92</v>
@@ -6826,33 +6845,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="489"/>
-      <c r="B11" s="490"/>
+      <c r="A11" s="474"/>
+      <c r="B11" s="475"/>
       <c r="D11" s="363">
         <v>43868</v>
       </c>
-      <c r="F11" s="486" t="s">
+      <c r="F11" s="471" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="486"/>
-      <c r="H11" s="486"/>
-      <c r="I11" s="486"/>
-      <c r="J11" s="487" t="s">
+      <c r="G11" s="471"/>
+      <c r="H11" s="471"/>
+      <c r="I11" s="471"/>
+      <c r="J11" s="472" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="487"/>
+      <c r="K11" s="472"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="486" t="s">
+      <c r="F12" s="471" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="486"/>
-      <c r="H12" s="486"/>
-      <c r="I12" s="486"/>
-      <c r="J12" s="487" t="s">
+      <c r="G12" s="471"/>
+      <c r="H12" s="471"/>
+      <c r="I12" s="471"/>
+      <c r="J12" s="472" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="487"/>
+      <c r="K12" s="472"/>
     </row>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="368" t="s">
@@ -6867,19 +6886,19 @@
       <c r="D13" s="368" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="459" t="s">
+      <c r="E13" s="447" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="486" t="s">
+      <c r="F13" s="471" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="486"/>
-      <c r="H13" s="486"/>
-      <c r="I13" s="486"/>
-      <c r="J13" s="487" t="s">
+      <c r="G13" s="471"/>
+      <c r="H13" s="471"/>
+      <c r="I13" s="471"/>
+      <c r="J13" s="472" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="487"/>
+      <c r="K13" s="472"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="359" t="s">
@@ -7126,11 +7145,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="488" t="s">
+      <c r="A29" s="473" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="488"/>
-      <c r="C29" s="488"/>
+      <c r="B29" s="473"/>
+      <c r="C29" s="473"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="357" t="s">
@@ -7207,47 +7226,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="601"/>
-      <c r="C2" s="602"/>
-      <c r="D2" s="603"/>
-      <c r="E2" s="610" t="s">
+      <c r="B2" s="586"/>
+      <c r="C2" s="587"/>
+      <c r="D2" s="588"/>
+      <c r="E2" s="595" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="611"/>
-      <c r="G2" s="611"/>
-      <c r="H2" s="612"/>
-      <c r="I2" s="616" t="s">
+      <c r="F2" s="596"/>
+      <c r="G2" s="596"/>
+      <c r="H2" s="597"/>
+      <c r="I2" s="601" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="617"/>
-      <c r="K2" s="620">
+      <c r="J2" s="602"/>
+      <c r="K2" s="605">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="621"/>
+      <c r="L2" s="606"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="636"/>
-      <c r="Q2" s="636"/>
+      <c r="P2" s="621"/>
+      <c r="Q2" s="621"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="604"/>
-      <c r="C3" s="605"/>
-      <c r="D3" s="606"/>
-      <c r="E3" s="613" t="s">
+      <c r="B3" s="589"/>
+      <c r="C3" s="590"/>
+      <c r="D3" s="591"/>
+      <c r="E3" s="598" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="614"/>
-      <c r="G3" s="614"/>
-      <c r="H3" s="615"/>
-      <c r="I3" s="618"/>
-      <c r="J3" s="619"/>
-      <c r="K3" s="622"/>
-      <c r="L3" s="623"/>
+      <c r="F3" s="599"/>
+      <c r="G3" s="599"/>
+      <c r="H3" s="600"/>
+      <c r="I3" s="603"/>
+      <c r="J3" s="604"/>
+      <c r="K3" s="607"/>
+      <c r="L3" s="608"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7258,9 +7277,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="607"/>
-      <c r="C4" s="608"/>
-      <c r="D4" s="609"/>
+      <c r="B4" s="592"/>
+      <c r="C4" s="593"/>
+      <c r="D4" s="594"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7279,22 +7298,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="580" t="s">
+      <c r="B5" s="565" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="595"/>
-      <c r="D5" s="498" t="str">
+      <c r="C5" s="580"/>
+      <c r="D5" s="483" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="499"/>
-      <c r="F5" s="499"/>
-      <c r="G5" s="499"/>
-      <c r="H5" s="500"/>
-      <c r="I5" s="596"/>
-      <c r="J5" s="597"/>
-      <c r="K5" s="598"/>
-      <c r="L5" s="500"/>
+      <c r="E5" s="484"/>
+      <c r="F5" s="484"/>
+      <c r="G5" s="484"/>
+      <c r="H5" s="485"/>
+      <c r="I5" s="581"/>
+      <c r="J5" s="582"/>
+      <c r="K5" s="583"/>
+      <c r="L5" s="485"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7305,22 +7324,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="580" t="s">
+      <c r="B6" s="565" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="595"/>
-      <c r="D6" s="492" t="str">
+      <c r="C6" s="580"/>
+      <c r="D6" s="477" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="585"/>
-      <c r="F6" s="585"/>
-      <c r="G6" s="585"/>
-      <c r="H6" s="586"/>
-      <c r="I6" s="596"/>
-      <c r="J6" s="597"/>
-      <c r="K6" s="598"/>
-      <c r="L6" s="500"/>
+      <c r="E6" s="570"/>
+      <c r="F6" s="570"/>
+      <c r="G6" s="570"/>
+      <c r="H6" s="571"/>
+      <c r="I6" s="581"/>
+      <c r="J6" s="582"/>
+      <c r="K6" s="583"/>
+      <c r="L6" s="485"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7331,27 +7350,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="590" t="s">
+      <c r="B7" s="575" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="599"/>
-      <c r="D7" s="501">
+      <c r="C7" s="584"/>
+      <c r="D7" s="486">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="592"/>
-      <c r="F7" s="592"/>
-      <c r="G7" s="592"/>
-      <c r="H7" s="593"/>
-      <c r="I7" s="600" t="s">
+      <c r="E7" s="577"/>
+      <c r="F7" s="577"/>
+      <c r="G7" s="577"/>
+      <c r="H7" s="578"/>
+      <c r="I7" s="585" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="599"/>
-      <c r="K7" s="489">
+      <c r="J7" s="584"/>
+      <c r="K7" s="474">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="490"/>
+      <c r="L7" s="475"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7736,25 +7755,25 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="627" t="s">
+      <c r="L21" s="612" t="s">
         <v>135</v>
       </c>
-      <c r="M21" s="627"/>
-      <c r="N21" s="627"/>
-      <c r="O21" s="460"/>
-      <c r="P21" s="460"/>
-      <c r="Q21" s="476"/>
-      <c r="R21" s="476"/>
+      <c r="M21" s="612"/>
+      <c r="N21" s="612"/>
+      <c r="O21" s="448"/>
+      <c r="P21" s="448"/>
+      <c r="Q21" s="464"/>
+      <c r="R21" s="464"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="549" t="s">
+      <c r="O22" s="534" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="549"/>
-      <c r="Q22" s="550" t="s">
+      <c r="P22" s="534"/>
+      <c r="Q22" s="535" t="s">
         <v>140</v>
       </c>
-      <c r="R22" s="551"/>
+      <c r="R22" s="536"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -7844,47 +7863,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="601"/>
-      <c r="C2" s="602"/>
-      <c r="D2" s="603"/>
-      <c r="E2" s="610" t="s">
+      <c r="B2" s="586"/>
+      <c r="C2" s="587"/>
+      <c r="D2" s="588"/>
+      <c r="E2" s="595" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="611"/>
-      <c r="G2" s="611"/>
-      <c r="H2" s="612"/>
-      <c r="I2" s="616" t="s">
+      <c r="F2" s="596"/>
+      <c r="G2" s="596"/>
+      <c r="H2" s="597"/>
+      <c r="I2" s="601" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="617"/>
-      <c r="K2" s="620">
+      <c r="J2" s="602"/>
+      <c r="K2" s="605">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="L2" s="621"/>
+      <c r="L2" s="606"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="637"/>
-      <c r="Q2" s="637"/>
+      <c r="P2" s="622"/>
+      <c r="Q2" s="622"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="604"/>
-      <c r="C3" s="605"/>
-      <c r="D3" s="606"/>
-      <c r="E3" s="613" t="s">
+      <c r="B3" s="589"/>
+      <c r="C3" s="590"/>
+      <c r="D3" s="591"/>
+      <c r="E3" s="598" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="614"/>
-      <c r="G3" s="614"/>
-      <c r="H3" s="615"/>
-      <c r="I3" s="618"/>
-      <c r="J3" s="619"/>
-      <c r="K3" s="622"/>
-      <c r="L3" s="623"/>
+      <c r="F3" s="599"/>
+      <c r="G3" s="599"/>
+      <c r="H3" s="600"/>
+      <c r="I3" s="603"/>
+      <c r="J3" s="604"/>
+      <c r="K3" s="607"/>
+      <c r="L3" s="608"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7895,9 +7914,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="607"/>
-      <c r="C4" s="608"/>
-      <c r="D4" s="609"/>
+      <c r="B4" s="592"/>
+      <c r="C4" s="593"/>
+      <c r="D4" s="594"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7916,22 +7935,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="580" t="s">
+      <c r="B5" s="565" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="595"/>
-      <c r="D5" s="498" t="str">
+      <c r="C5" s="580"/>
+      <c r="D5" s="483" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="499"/>
-      <c r="F5" s="499"/>
-      <c r="G5" s="499"/>
-      <c r="H5" s="500"/>
-      <c r="I5" s="596"/>
-      <c r="J5" s="597"/>
-      <c r="K5" s="598"/>
-      <c r="L5" s="500"/>
+      <c r="E5" s="484"/>
+      <c r="F5" s="484"/>
+      <c r="G5" s="484"/>
+      <c r="H5" s="485"/>
+      <c r="I5" s="581"/>
+      <c r="J5" s="582"/>
+      <c r="K5" s="583"/>
+      <c r="L5" s="485"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -7942,22 +7961,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="580" t="s">
+      <c r="B6" s="565" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="595"/>
-      <c r="D6" s="492" t="str">
+      <c r="C6" s="580"/>
+      <c r="D6" s="477" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="585"/>
-      <c r="F6" s="585"/>
-      <c r="G6" s="585"/>
-      <c r="H6" s="586"/>
-      <c r="I6" s="596"/>
-      <c r="J6" s="597"/>
-      <c r="K6" s="598"/>
-      <c r="L6" s="500"/>
+      <c r="E6" s="570"/>
+      <c r="F6" s="570"/>
+      <c r="G6" s="570"/>
+      <c r="H6" s="571"/>
+      <c r="I6" s="581"/>
+      <c r="J6" s="582"/>
+      <c r="K6" s="583"/>
+      <c r="L6" s="485"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -7968,27 +7987,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="590" t="s">
+      <c r="B7" s="575" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="599"/>
-      <c r="D7" s="501">
+      <c r="C7" s="584"/>
+      <c r="D7" s="486">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="592"/>
-      <c r="F7" s="592"/>
-      <c r="G7" s="592"/>
-      <c r="H7" s="593"/>
-      <c r="I7" s="600" t="s">
+      <c r="E7" s="577"/>
+      <c r="F7" s="577"/>
+      <c r="G7" s="577"/>
+      <c r="H7" s="578"/>
+      <c r="I7" s="585" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="599"/>
-      <c r="K7" s="489">
+      <c r="J7" s="584"/>
+      <c r="K7" s="474">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="490"/>
+      <c r="L7" s="475"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8317,12 +8336,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="638" t="s">
+      <c r="B18" s="623" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="639"/>
-      <c r="D18" s="639"/>
-      <c r="E18" s="640"/>
+      <c r="C18" s="624"/>
+      <c r="D18" s="624"/>
+      <c r="E18" s="625"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8365,25 +8384,25 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="627" t="s">
+      <c r="L21" s="612" t="s">
         <v>135</v>
       </c>
-      <c r="M21" s="627"/>
-      <c r="N21" s="627"/>
-      <c r="O21" s="460"/>
-      <c r="P21" s="460"/>
-      <c r="Q21" s="476"/>
-      <c r="R21" s="476"/>
+      <c r="M21" s="612"/>
+      <c r="N21" s="612"/>
+      <c r="O21" s="448"/>
+      <c r="P21" s="448"/>
+      <c r="Q21" s="464"/>
+      <c r="R21" s="464"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="549" t="s">
+      <c r="O22" s="534" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="549"/>
-      <c r="Q22" s="550" t="s">
+      <c r="P22" s="534"/>
+      <c r="Q22" s="535" t="s">
         <v>140</v>
       </c>
-      <c r="R22" s="551"/>
+      <c r="R22" s="536"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -8483,47 +8502,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="601"/>
-      <c r="C2" s="602"/>
-      <c r="D2" s="603"/>
-      <c r="E2" s="610" t="s">
+      <c r="B2" s="586"/>
+      <c r="C2" s="587"/>
+      <c r="D2" s="588"/>
+      <c r="E2" s="595" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="611"/>
-      <c r="G2" s="611"/>
-      <c r="H2" s="612"/>
-      <c r="I2" s="616" t="s">
+      <c r="F2" s="596"/>
+      <c r="G2" s="596"/>
+      <c r="H2" s="597"/>
+      <c r="I2" s="601" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="617"/>
-      <c r="K2" s="620">
+      <c r="J2" s="602"/>
+      <c r="K2" s="605">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="L2" s="621"/>
+      <c r="L2" s="606"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="641"/>
-      <c r="Q2" s="641"/>
+      <c r="P2" s="626"/>
+      <c r="Q2" s="626"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="604"/>
-      <c r="C3" s="605"/>
-      <c r="D3" s="606"/>
-      <c r="E3" s="613" t="s">
+      <c r="B3" s="589"/>
+      <c r="C3" s="590"/>
+      <c r="D3" s="591"/>
+      <c r="E3" s="598" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="614"/>
-      <c r="G3" s="614"/>
-      <c r="H3" s="615"/>
-      <c r="I3" s="618"/>
-      <c r="J3" s="619"/>
-      <c r="K3" s="622"/>
-      <c r="L3" s="623"/>
+      <c r="F3" s="599"/>
+      <c r="G3" s="599"/>
+      <c r="H3" s="600"/>
+      <c r="I3" s="603"/>
+      <c r="J3" s="604"/>
+      <c r="K3" s="607"/>
+      <c r="L3" s="608"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8534,9 +8553,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="607"/>
-      <c r="C4" s="608"/>
-      <c r="D4" s="609"/>
+      <c r="B4" s="592"/>
+      <c r="C4" s="593"/>
+      <c r="D4" s="594"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8555,22 +8574,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="580" t="s">
+      <c r="B5" s="565" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="595"/>
-      <c r="D5" s="498" t="str">
+      <c r="C5" s="580"/>
+      <c r="D5" s="483" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="499"/>
-      <c r="F5" s="499"/>
-      <c r="G5" s="499"/>
-      <c r="H5" s="500"/>
-      <c r="I5" s="596"/>
-      <c r="J5" s="597"/>
-      <c r="K5" s="598"/>
-      <c r="L5" s="500"/>
+      <c r="E5" s="484"/>
+      <c r="F5" s="484"/>
+      <c r="G5" s="484"/>
+      <c r="H5" s="485"/>
+      <c r="I5" s="581"/>
+      <c r="J5" s="582"/>
+      <c r="K5" s="583"/>
+      <c r="L5" s="485"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8581,22 +8600,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="580" t="s">
+      <c r="B6" s="565" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="595"/>
-      <c r="D6" s="492" t="str">
+      <c r="C6" s="580"/>
+      <c r="D6" s="477" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="585"/>
-      <c r="F6" s="585"/>
-      <c r="G6" s="585"/>
-      <c r="H6" s="586"/>
-      <c r="I6" s="596"/>
-      <c r="J6" s="597"/>
-      <c r="K6" s="598"/>
-      <c r="L6" s="500"/>
+      <c r="E6" s="570"/>
+      <c r="F6" s="570"/>
+      <c r="G6" s="570"/>
+      <c r="H6" s="571"/>
+      <c r="I6" s="581"/>
+      <c r="J6" s="582"/>
+      <c r="K6" s="583"/>
+      <c r="L6" s="485"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8607,27 +8626,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="590" t="s">
+      <c r="B7" s="575" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="599"/>
-      <c r="D7" s="501">
+      <c r="C7" s="584"/>
+      <c r="D7" s="486">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="592"/>
-      <c r="F7" s="592"/>
-      <c r="G7" s="592"/>
-      <c r="H7" s="593"/>
-      <c r="I7" s="600" t="s">
+      <c r="E7" s="577"/>
+      <c r="F7" s="577"/>
+      <c r="G7" s="577"/>
+      <c r="H7" s="578"/>
+      <c r="I7" s="585" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="599"/>
-      <c r="K7" s="489">
+      <c r="J7" s="584"/>
+      <c r="K7" s="474">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="490"/>
+      <c r="L7" s="475"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8944,25 +8963,25 @@
     </row>
     <row r="18" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="627" t="s">
+      <c r="L19" s="612" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="627"/>
-      <c r="N19" s="627"/>
-      <c r="O19" s="460"/>
-      <c r="P19" s="460"/>
-      <c r="Q19" s="476"/>
-      <c r="R19" s="476"/>
+      <c r="M19" s="612"/>
+      <c r="N19" s="612"/>
+      <c r="O19" s="448"/>
+      <c r="P19" s="448"/>
+      <c r="Q19" s="464"/>
+      <c r="R19" s="464"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="549" t="s">
+      <c r="O20" s="534" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="549"/>
-      <c r="Q20" s="550" t="s">
+      <c r="P20" s="534"/>
+      <c r="Q20" s="535" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="551"/>
+      <c r="R20" s="536"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -9043,47 +9062,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="601"/>
-      <c r="C2" s="602"/>
-      <c r="D2" s="603"/>
-      <c r="E2" s="610" t="s">
+      <c r="B2" s="586"/>
+      <c r="C2" s="587"/>
+      <c r="D2" s="588"/>
+      <c r="E2" s="595" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="611"/>
-      <c r="G2" s="611"/>
-      <c r="H2" s="612"/>
-      <c r="I2" s="616" t="s">
+      <c r="F2" s="596"/>
+      <c r="G2" s="596"/>
+      <c r="H2" s="597"/>
+      <c r="I2" s="601" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="617"/>
-      <c r="K2" s="643">
+      <c r="J2" s="602"/>
+      <c r="K2" s="628">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="644"/>
+      <c r="L2" s="629"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="642"/>
-      <c r="Q2" s="642"/>
+      <c r="P2" s="627"/>
+      <c r="Q2" s="627"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="604"/>
-      <c r="C3" s="605"/>
-      <c r="D3" s="606"/>
-      <c r="E3" s="613" t="s">
+      <c r="B3" s="589"/>
+      <c r="C3" s="590"/>
+      <c r="D3" s="591"/>
+      <c r="E3" s="598" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="614"/>
-      <c r="G3" s="614"/>
-      <c r="H3" s="615"/>
-      <c r="I3" s="618"/>
-      <c r="J3" s="619"/>
-      <c r="K3" s="645"/>
-      <c r="L3" s="646"/>
+      <c r="F3" s="599"/>
+      <c r="G3" s="599"/>
+      <c r="H3" s="600"/>
+      <c r="I3" s="603"/>
+      <c r="J3" s="604"/>
+      <c r="K3" s="630"/>
+      <c r="L3" s="631"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -9094,9 +9113,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="607"/>
-      <c r="C4" s="608"/>
-      <c r="D4" s="609"/>
+      <c r="B4" s="592"/>
+      <c r="C4" s="593"/>
+      <c r="D4" s="594"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9115,22 +9134,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="580" t="s">
+      <c r="B5" s="565" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="595"/>
-      <c r="D5" s="498" t="str">
+      <c r="C5" s="580"/>
+      <c r="D5" s="483" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="499"/>
-      <c r="F5" s="499"/>
-      <c r="G5" s="499"/>
-      <c r="H5" s="500"/>
-      <c r="I5" s="596"/>
-      <c r="J5" s="597"/>
-      <c r="K5" s="598"/>
-      <c r="L5" s="500"/>
+      <c r="E5" s="484"/>
+      <c r="F5" s="484"/>
+      <c r="G5" s="484"/>
+      <c r="H5" s="485"/>
+      <c r="I5" s="581"/>
+      <c r="J5" s="582"/>
+      <c r="K5" s="583"/>
+      <c r="L5" s="485"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -9141,22 +9160,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="580" t="s">
+      <c r="B6" s="565" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="595"/>
-      <c r="D6" s="492" t="str">
+      <c r="C6" s="580"/>
+      <c r="D6" s="477" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="585"/>
-      <c r="F6" s="585"/>
-      <c r="G6" s="585"/>
-      <c r="H6" s="586"/>
-      <c r="I6" s="596"/>
-      <c r="J6" s="597"/>
-      <c r="K6" s="598"/>
-      <c r="L6" s="500"/>
+      <c r="E6" s="570"/>
+      <c r="F6" s="570"/>
+      <c r="G6" s="570"/>
+      <c r="H6" s="571"/>
+      <c r="I6" s="581"/>
+      <c r="J6" s="582"/>
+      <c r="K6" s="583"/>
+      <c r="L6" s="485"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -9167,27 +9186,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="590" t="s">
+      <c r="B7" s="575" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="599"/>
-      <c r="D7" s="501">
+      <c r="C7" s="584"/>
+      <c r="D7" s="486">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="592"/>
-      <c r="F7" s="592"/>
-      <c r="G7" s="592"/>
-      <c r="H7" s="593"/>
-      <c r="I7" s="600" t="s">
+      <c r="E7" s="577"/>
+      <c r="F7" s="577"/>
+      <c r="G7" s="577"/>
+      <c r="H7" s="578"/>
+      <c r="I7" s="585" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="599"/>
-      <c r="K7" s="489">
+      <c r="J7" s="584"/>
+      <c r="K7" s="474">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="490"/>
+      <c r="L7" s="475"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9438,25 +9457,25 @@
     </row>
     <row r="16" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L17" s="627" t="s">
+      <c r="L17" s="612" t="s">
         <v>135</v>
       </c>
-      <c r="M17" s="627"/>
-      <c r="N17" s="627"/>
-      <c r="O17" s="460"/>
-      <c r="P17" s="460"/>
-      <c r="Q17" s="476"/>
-      <c r="R17" s="476"/>
+      <c r="M17" s="612"/>
+      <c r="N17" s="612"/>
+      <c r="O17" s="448"/>
+      <c r="P17" s="448"/>
+      <c r="Q17" s="464"/>
+      <c r="R17" s="464"/>
     </row>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O18" s="549" t="s">
+      <c r="O18" s="534" t="s">
         <v>139</v>
       </c>
-      <c r="P18" s="549"/>
-      <c r="Q18" s="550" t="s">
+      <c r="P18" s="534"/>
+      <c r="Q18" s="535" t="s">
         <v>140</v>
       </c>
-      <c r="R18" s="551"/>
+      <c r="R18" s="536"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -9503,8 +9522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9525,11 +9544,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="374"/>
-      <c r="B1" s="458" t="s">
+      <c r="B1" s="446" t="s">
         <v>108</v>
       </c>
       <c r="C1" s="374"/>
-      <c r="D1" s="457" t="str">
+      <c r="D1" s="445" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
@@ -9559,17 +9578,17 @@
       <c r="L2" s="375"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="509" t="s">
+      <c r="A3" s="494" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="509"/>
-      <c r="C3" s="509"/>
-      <c r="D3" s="509"/>
-      <c r="E3" s="509"/>
-      <c r="F3" s="509"/>
-      <c r="G3" s="509"/>
-      <c r="H3" s="509"/>
-      <c r="I3" s="509"/>
+      <c r="B3" s="494"/>
+      <c r="C3" s="494"/>
+      <c r="D3" s="494"/>
+      <c r="E3" s="494"/>
+      <c r="F3" s="494"/>
+      <c r="G3" s="494"/>
+      <c r="H3" s="494"/>
+      <c r="I3" s="494"/>
       <c r="K3" s="376"/>
       <c r="L3" s="376"/>
       <c r="M3" s="377"/>
@@ -10065,7 +10084,7 @@
         <f>1-G20</f>
         <v>0.96026630952380954</v>
       </c>
-      <c r="J20" s="485">
+      <c r="J20" s="468">
         <v>372</v>
       </c>
       <c r="K20" s="397"/>
@@ -10073,183 +10092,237 @@
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="418"/>
-      <c r="B21" s="419"/>
-      <c r="C21" s="419"/>
-      <c r="D21" s="419"/>
-      <c r="E21" s="420"/>
-      <c r="F21" s="420"/>
+      <c r="B21" s="419">
+        <v>44051</v>
+      </c>
+      <c r="C21" s="419">
+        <v>44053</v>
+      </c>
+      <c r="D21" s="419">
+        <v>44070</v>
+      </c>
+      <c r="E21" s="420">
+        <v>461304</v>
+      </c>
+      <c r="F21" s="420">
+        <v>446708</v>
+      </c>
       <c r="G21" s="414">
         <f>F21/A$20</f>
-        <v>0</v>
+        <v>2.6589761904761904E-2</v>
       </c>
       <c r="H21" s="421">
         <f>H20-F21</f>
-        <v>16132474</v>
+        <v>15685766</v>
       </c>
       <c r="I21" s="422">
         <f>I20-G21</f>
-        <v>0.96026630952380954</v>
-      </c>
-      <c r="J21" s="477"/>
+        <v>0.93367654761904761</v>
+      </c>
+      <c r="J21" s="469">
+        <v>371</v>
+      </c>
       <c r="K21" s="377"/>
       <c r="L21" s="377"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="423"/>
-      <c r="B22" s="424"/>
-      <c r="C22" s="424"/>
-      <c r="D22" s="424"/>
-      <c r="E22" s="425"/>
-      <c r="F22" s="425"/>
-      <c r="G22" s="426"/>
-      <c r="H22" s="427"/>
-      <c r="I22" s="428"/>
-      <c r="J22" s="478"/>
+      <c r="B22" s="424">
+        <v>44211</v>
+      </c>
+      <c r="C22" s="424">
+        <v>44214</v>
+      </c>
+      <c r="D22" s="424">
+        <v>44228</v>
+      </c>
+      <c r="E22" s="425">
+        <v>640104</v>
+      </c>
+      <c r="F22" s="425">
+        <v>673574</v>
+      </c>
+      <c r="G22" s="414">
+        <f>F22/A$20</f>
+        <v>4.0093690476190477E-2</v>
+      </c>
+      <c r="H22" s="421">
+        <f>H21-F22</f>
+        <v>15012192</v>
+      </c>
+      <c r="I22" s="422">
+        <f>I21-G22</f>
+        <v>0.89358285714285712</v>
+      </c>
+      <c r="J22" s="470">
+        <v>371</v>
+      </c>
       <c r="K22" s="397"/>
       <c r="L22" s="397"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="423"/>
-      <c r="B23" s="369"/>
-      <c r="C23" s="369"/>
-      <c r="D23" s="369"/>
-      <c r="E23" s="369"/>
-      <c r="F23" s="369"/>
-      <c r="G23" s="369"/>
-      <c r="H23" s="369"/>
-      <c r="I23" s="429"/>
-      <c r="J23" s="479"/>
+      <c r="B23" s="363">
+        <v>44333</v>
+      </c>
+      <c r="C23" s="363">
+        <v>44336</v>
+      </c>
+      <c r="D23" s="363">
+        <v>44349</v>
+      </c>
+      <c r="E23" s="644">
+        <v>659772</v>
+      </c>
+      <c r="F23" s="644">
+        <v>685438</v>
+      </c>
+      <c r="G23" s="414">
+        <f>F23/A$20</f>
+        <v>4.0799880952380956E-2</v>
+      </c>
+      <c r="H23" s="421">
+        <f>H22-F23</f>
+        <v>14326754</v>
+      </c>
+      <c r="I23" s="422">
+        <f>I22-G23</f>
+        <v>0.85278297619047616</v>
+      </c>
+      <c r="J23" s="632">
+        <v>372</v>
+      </c>
       <c r="K23" s="417"/>
       <c r="L23" s="377"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="423"/>
-      <c r="B24" s="424"/>
-      <c r="C24" s="424"/>
-      <c r="D24" s="424"/>
-      <c r="E24" s="425"/>
-      <c r="F24" s="425"/>
-      <c r="G24" s="430"/>
-      <c r="H24" s="427"/>
-      <c r="I24" s="428"/>
-      <c r="J24" s="478"/>
-      <c r="K24" s="431"/>
+      <c r="B24" s="363"/>
+      <c r="C24" s="363"/>
+      <c r="D24" s="363"/>
+      <c r="E24" s="645"/>
+      <c r="F24" s="645"/>
+      <c r="G24" s="634"/>
+      <c r="H24" s="633"/>
+      <c r="I24" s="426"/>
+      <c r="J24" s="470"/>
+      <c r="K24" s="427"/>
       <c r="L24" s="377"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="423"/>
-      <c r="B25" s="424"/>
-      <c r="C25" s="424"/>
-      <c r="D25" s="424"/>
-      <c r="E25" s="425"/>
-      <c r="F25" s="425"/>
-      <c r="G25" s="430"/>
-      <c r="H25" s="427"/>
-      <c r="I25" s="428"/>
-      <c r="J25" s="478"/>
+      <c r="B25" s="363"/>
+      <c r="C25" s="363"/>
+      <c r="D25" s="363"/>
+      <c r="E25" s="645"/>
+      <c r="F25" s="645"/>
+      <c r="G25" s="634"/>
+      <c r="H25" s="633"/>
+      <c r="I25" s="426"/>
+      <c r="J25" s="470"/>
       <c r="K25" s="417"/>
       <c r="L25" s="377"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="423"/>
-      <c r="B26" s="424"/>
-      <c r="C26" s="424"/>
-      <c r="D26" s="424"/>
-      <c r="E26" s="427"/>
-      <c r="F26" s="425"/>
-      <c r="G26" s="430"/>
-      <c r="H26" s="427"/>
-      <c r="I26" s="428"/>
-      <c r="J26" s="478"/>
+      <c r="B26" s="363"/>
+      <c r="C26" s="363"/>
+      <c r="D26" s="363"/>
+      <c r="E26" s="645"/>
+      <c r="F26" s="645"/>
+      <c r="G26" s="634"/>
+      <c r="H26" s="633"/>
+      <c r="I26" s="426"/>
+      <c r="J26" s="470"/>
       <c r="K26" s="417"/>
       <c r="L26" s="377"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="423"/>
-      <c r="B27" s="424"/>
-      <c r="C27" s="424"/>
-      <c r="D27" s="424"/>
-      <c r="E27" s="427"/>
-      <c r="F27" s="425"/>
-      <c r="G27" s="430"/>
-      <c r="H27" s="427"/>
-      <c r="I27" s="428"/>
-      <c r="J27" s="478"/>
+      <c r="B27" s="363"/>
+      <c r="C27" s="363"/>
+      <c r="D27" s="363"/>
+      <c r="E27" s="645"/>
+      <c r="F27" s="645"/>
+      <c r="G27" s="634"/>
+      <c r="H27" s="633"/>
+      <c r="I27" s="426"/>
+      <c r="J27" s="470"/>
       <c r="K27" s="417"/>
       <c r="L27" s="377"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="423"/>
-      <c r="B28" s="424"/>
-      <c r="C28" s="424"/>
-      <c r="D28" s="369"/>
-      <c r="E28" s="369"/>
-      <c r="F28" s="425"/>
-      <c r="G28" s="432"/>
-      <c r="H28" s="427"/>
-      <c r="I28" s="433"/>
-      <c r="J28" s="480"/>
+      <c r="B28" s="363"/>
+      <c r="C28" s="363"/>
+      <c r="D28" s="360"/>
+      <c r="E28" s="644"/>
+      <c r="F28" s="645"/>
+      <c r="G28" s="635"/>
+      <c r="H28" s="633"/>
+      <c r="I28" s="636"/>
+      <c r="J28" s="637"/>
       <c r="K28" s="417"/>
       <c r="L28" s="377"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="423"/>
-      <c r="B29" s="424"/>
-      <c r="C29" s="424"/>
-      <c r="D29" s="369"/>
-      <c r="E29" s="369"/>
-      <c r="F29" s="425"/>
-      <c r="G29" s="430"/>
-      <c r="H29" s="427"/>
-      <c r="I29" s="433"/>
-      <c r="J29" s="480"/>
+      <c r="B29" s="363"/>
+      <c r="C29" s="363"/>
+      <c r="D29" s="360"/>
+      <c r="E29" s="644"/>
+      <c r="F29" s="645"/>
+      <c r="G29" s="634"/>
+      <c r="H29" s="633"/>
+      <c r="I29" s="636"/>
+      <c r="J29" s="637"/>
       <c r="K29" s="417"/>
       <c r="L29" s="377"/>
     </row>
     <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="434"/>
-      <c r="B30" s="435"/>
-      <c r="C30" s="435"/>
-      <c r="D30" s="436"/>
-      <c r="E30" s="436"/>
-      <c r="F30" s="437"/>
-      <c r="G30" s="438"/>
-      <c r="H30" s="439"/>
-      <c r="I30" s="440"/>
-      <c r="J30" s="481"/>
+      <c r="A30" s="428"/>
+      <c r="B30" s="638"/>
+      <c r="C30" s="638"/>
+      <c r="D30" s="639"/>
+      <c r="E30" s="646"/>
+      <c r="F30" s="647"/>
+      <c r="G30" s="640"/>
+      <c r="H30" s="641"/>
+      <c r="I30" s="642"/>
+      <c r="J30" s="643"/>
       <c r="K30" s="377"/>
       <c r="L30" s="377"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="441" t="s">
+      <c r="A31" s="429" t="s">
         <v>126</v>
       </c>
-      <c r="B31" s="442"/>
-      <c r="C31" s="442"/>
-      <c r="D31" s="443"/>
-      <c r="E31" s="483">
+      <c r="B31" s="430"/>
+      <c r="C31" s="430"/>
+      <c r="D31" s="431"/>
+      <c r="E31" s="466">
         <f>SUM(E20:E30)</f>
-        <v>618648</v>
-      </c>
-      <c r="F31" s="484">
+        <v>2379828</v>
+      </c>
+      <c r="F31" s="467">
         <f>SUM(F20:F30)</f>
-        <v>667526</v>
-      </c>
-      <c r="G31" s="444">
+        <v>2473246</v>
+      </c>
+      <c r="G31" s="432">
         <f>SUM(G20:G30)</f>
-        <v>3.9733690476190478E-2</v>
-      </c>
-      <c r="H31" s="445">
+        <v>0.14721702380952381</v>
+      </c>
+      <c r="H31" s="433">
         <f>A20-F31</f>
-        <v>16132474</v>
-      </c>
-      <c r="I31" s="446">
+        <v>14326754</v>
+      </c>
+      <c r="I31" s="434">
         <f>1-G31</f>
-        <v>0.96026630952380954</v>
-      </c>
-      <c r="J31" s="482"/>
-      <c r="K31" s="447"/>
-      <c r="L31" s="447"/>
+        <v>0.85278297619047616</v>
+      </c>
+      <c r="J31" s="465"/>
+      <c r="K31" s="435"/>
+      <c r="L31" s="435"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="377"/>
@@ -10264,12 +10337,12 @@
       <c r="J34" s="377"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="510" t="s">
+      <c r="A35" s="495" t="s">
         <v>127</v>
       </c>
-      <c r="B35" s="510"/>
-      <c r="C35" s="510"/>
-      <c r="D35" s="510"/>
+      <c r="B35" s="495"/>
+      <c r="C35" s="495"/>
+      <c r="D35" s="495"/>
       <c r="E35" s="377"/>
       <c r="F35" s="377"/>
       <c r="G35" s="377"/>
@@ -10278,14 +10351,14 @@
       <c r="J35" s="377"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="511" t="s">
+      <c r="A36" s="496" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="511"/>
-      <c r="C36" s="448" t="s">
+      <c r="B36" s="496"/>
+      <c r="C36" s="436" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="448" t="s">
+      <c r="D36" s="436" t="s">
         <v>130</v>
       </c>
       <c r="E36" s="377"/>
@@ -10296,27 +10369,27 @@
       <c r="J36" s="377"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="512">
+      <c r="A37" s="497">
         <f>A20-F31</f>
-        <v>16132474</v>
-      </c>
-      <c r="B37" s="513"/>
-      <c r="C37" s="449">
+        <v>14326754</v>
+      </c>
+      <c r="B37" s="498"/>
+      <c r="C37" s="437">
         <f>1-G31</f>
-        <v>0.96026630952380954</v>
-      </c>
-      <c r="D37" s="450">
+        <v>0.85278297619047616</v>
+      </c>
+      <c r="D37" s="438">
         <f>(C37/0.8)*100</f>
-        <v>120.03328869047618</v>
-      </c>
-      <c r="E37" s="451" t="s">
+        <v>106.5978720238095</v>
+      </c>
+      <c r="E37" s="439" t="s">
         <v>131</v>
       </c>
-      <c r="F37" s="451"/>
-      <c r="G37" s="451"/>
-      <c r="H37" s="451"/>
-      <c r="I37" s="451"/>
-      <c r="J37" s="451"/>
+      <c r="F37" s="439"/>
+      <c r="G37" s="439"/>
+      <c r="H37" s="439"/>
+      <c r="I37" s="439"/>
+      <c r="J37" s="439"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="377"/>
@@ -10343,8 +10416,8 @@
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="377"/>
-      <c r="B40" s="452"/>
-      <c r="C40" s="452"/>
+      <c r="B40" s="440"/>
+      <c r="C40" s="440"/>
       <c r="D40" s="377"/>
       <c r="E40" s="377"/>
       <c r="F40" s="377"/>
@@ -10354,113 +10427,113 @@
       <c r="J40" s="377"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="453"/>
-      <c r="B41" s="453"/>
-      <c r="C41" s="453"/>
-      <c r="D41" s="453"/>
-      <c r="E41" s="453"/>
-      <c r="F41" s="453"/>
-      <c r="G41" s="453"/>
-      <c r="H41" s="453"/>
-      <c r="I41" s="504"/>
-      <c r="J41" s="505"/>
+      <c r="A41" s="441"/>
+      <c r="B41" s="441"/>
+      <c r="C41" s="441"/>
+      <c r="D41" s="441"/>
+      <c r="E41" s="441"/>
+      <c r="F41" s="441"/>
+      <c r="G41" s="441"/>
+      <c r="H41" s="441"/>
+      <c r="I41" s="489"/>
+      <c r="J41" s="490"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="454"/>
-      <c r="B42" s="455"/>
-      <c r="C42" s="455"/>
+      <c r="A42" s="442"/>
+      <c r="B42" s="443"/>
+      <c r="C42" s="443"/>
       <c r="D42" s="377"/>
       <c r="E42" s="377"/>
-      <c r="F42" s="455"/>
+      <c r="F42" s="443"/>
       <c r="G42" s="401"/>
-      <c r="H42" s="455"/>
+      <c r="H42" s="443"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="454"/>
-      <c r="B43" s="455"/>
-      <c r="C43" s="455"/>
-      <c r="D43" s="455"/>
-      <c r="E43" s="455"/>
-      <c r="F43" s="455"/>
+      <c r="A43" s="442"/>
+      <c r="B43" s="443"/>
+      <c r="C43" s="443"/>
+      <c r="D43" s="443"/>
+      <c r="E43" s="443"/>
+      <c r="F43" s="443"/>
       <c r="G43" s="401"/>
-      <c r="H43" s="455"/>
+      <c r="H43" s="443"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="454"/>
-      <c r="B44" s="455"/>
-      <c r="C44" s="455"/>
+      <c r="A44" s="442"/>
+      <c r="B44" s="443"/>
+      <c r="C44" s="443"/>
       <c r="D44" s="377"/>
       <c r="E44" s="377"/>
-      <c r="F44" s="455"/>
+      <c r="F44" s="443"/>
       <c r="G44" s="401"/>
-      <c r="H44" s="455"/>
+      <c r="H44" s="443"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="454"/>
-      <c r="B45" s="455"/>
-      <c r="C45" s="455"/>
-      <c r="D45" s="455"/>
-      <c r="E45" s="455"/>
-      <c r="F45" s="455"/>
+      <c r="A45" s="442"/>
+      <c r="B45" s="443"/>
+      <c r="C45" s="443"/>
+      <c r="D45" s="443"/>
+      <c r="E45" s="443"/>
+      <c r="F45" s="443"/>
       <c r="G45" s="401"/>
-      <c r="H45" s="455"/>
+      <c r="H45" s="443"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="454"/>
-      <c r="B46" s="455"/>
-      <c r="C46" s="455"/>
+      <c r="A46" s="442"/>
+      <c r="B46" s="443"/>
+      <c r="C46" s="443"/>
       <c r="D46" s="377"/>
       <c r="E46" s="377"/>
-      <c r="F46" s="455"/>
+      <c r="F46" s="443"/>
       <c r="G46" s="401"/>
-      <c r="H46" s="455"/>
+      <c r="H46" s="443"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="454"/>
-      <c r="B47" s="455"/>
+      <c r="A47" s="442"/>
+      <c r="B47" s="443"/>
       <c r="C47" s="397"/>
-      <c r="D47" s="456"/>
-      <c r="E47" s="456"/>
+      <c r="D47" s="444"/>
+      <c r="E47" s="444"/>
       <c r="F47" s="397"/>
       <c r="G47" s="397"/>
       <c r="H47" s="397"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="454"/>
-      <c r="B48" s="455"/>
-      <c r="C48" s="455"/>
-      <c r="D48" s="455"/>
-      <c r="E48" s="455"/>
-      <c r="F48" s="455"/>
+      <c r="A48" s="442"/>
+      <c r="B48" s="443"/>
+      <c r="C48" s="443"/>
+      <c r="D48" s="443"/>
+      <c r="E48" s="443"/>
+      <c r="F48" s="443"/>
       <c r="G48" s="401"/>
-      <c r="H48" s="455"/>
+      <c r="H48" s="443"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="454"/>
-      <c r="B49" s="455"/>
-      <c r="C49" s="455"/>
-      <c r="D49" s="455"/>
-      <c r="E49" s="455"/>
-      <c r="F49" s="455"/>
+      <c r="A49" s="442"/>
+      <c r="B49" s="443"/>
+      <c r="C49" s="443"/>
+      <c r="D49" s="443"/>
+      <c r="E49" s="443"/>
+      <c r="F49" s="443"/>
       <c r="G49" s="401"/>
-      <c r="H49" s="455"/>
+      <c r="H49" s="443"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="454"/>
-      <c r="B50" s="455"/>
-      <c r="C50" s="455"/>
+      <c r="A50" s="442"/>
+      <c r="B50" s="443"/>
+      <c r="C50" s="443"/>
       <c r="D50" s="377"/>
       <c r="E50" s="377"/>
-      <c r="F50" s="455"/>
+      <c r="F50" s="443"/>
       <c r="G50" s="401"/>
-      <c r="H50" s="455"/>
+      <c r="H50" s="443"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="377"/>
-      <c r="B51" s="507"/>
-      <c r="C51" s="507"/>
-      <c r="D51" s="508"/>
-      <c r="E51" s="451"/>
+      <c r="B51" s="492"/>
+      <c r="C51" s="492"/>
+      <c r="D51" s="493"/>
+      <c r="E51" s="439"/>
       <c r="F51" s="377"/>
       <c r="G51" s="377"/>
       <c r="H51" s="377"/>
@@ -10468,31 +10541,31 @@
       <c r="J51" s="377"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="453"/>
-      <c r="B52" s="453"/>
-      <c r="C52" s="453"/>
-      <c r="D52" s="453"/>
-      <c r="E52" s="453"/>
-      <c r="F52" s="453"/>
-      <c r="G52" s="453"/>
-      <c r="H52" s="453"/>
-      <c r="I52" s="504"/>
-      <c r="J52" s="505"/>
+      <c r="A52" s="441"/>
+      <c r="B52" s="441"/>
+      <c r="C52" s="441"/>
+      <c r="D52" s="441"/>
+      <c r="E52" s="441"/>
+      <c r="F52" s="441"/>
+      <c r="G52" s="441"/>
+      <c r="H52" s="441"/>
+      <c r="I52" s="489"/>
+      <c r="J52" s="490"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="454"/>
+      <c r="A53" s="442"/>
       <c r="B53" s="377"/>
       <c r="C53" s="377"/>
       <c r="D53" s="377"/>
       <c r="E53" s="377"/>
       <c r="F53" s="401"/>
       <c r="G53" s="401"/>
-      <c r="H53" s="455"/>
-      <c r="I53" s="506"/>
-      <c r="J53" s="506"/>
+      <c r="H53" s="443"/>
+      <c r="I53" s="491"/>
+      <c r="J53" s="491"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="454"/>
+      <c r="A54" s="442"/>
       <c r="B54" s="377"/>
       <c r="C54" s="377"/>
       <c r="D54" s="397"/>
@@ -10500,8 +10573,8 @@
       <c r="F54" s="397"/>
       <c r="G54" s="397"/>
       <c r="H54" s="397"/>
-      <c r="I54" s="506"/>
-      <c r="J54" s="506"/>
+      <c r="I54" s="491"/>
+      <c r="J54" s="491"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="377"/>
@@ -10514,12 +10587,12 @@
       <c r="H55" s="377"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="504"/>
-      <c r="C60" s="505"/>
+      <c r="B60" s="489"/>
+      <c r="C60" s="490"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B67" s="504"/>
-      <c r="C67" s="505"/>
+      <c r="B67" s="489"/>
+      <c r="C67" s="490"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10548,7 +10621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
@@ -10616,47 +10689,47 @@
       <c r="J8" s="305"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="538" t="s">
+      <c r="A11" s="523" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="538"/>
-      <c r="C11" s="538"/>
-      <c r="D11" s="538"/>
-      <c r="E11" s="538"/>
-      <c r="F11" s="538"/>
-      <c r="G11" s="538"/>
-      <c r="H11" s="538"/>
-      <c r="I11" s="538"/>
-      <c r="J11" s="538"/>
+      <c r="B11" s="523"/>
+      <c r="C11" s="523"/>
+      <c r="D11" s="523"/>
+      <c r="E11" s="523"/>
+      <c r="F11" s="523"/>
+      <c r="G11" s="523"/>
+      <c r="H11" s="523"/>
+      <c r="I11" s="523"/>
+      <c r="J11" s="523"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="537" t="s">
+      <c r="A12" s="522" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="537"/>
-      <c r="C12" s="537"/>
-      <c r="D12" s="537"/>
-      <c r="E12" s="537"/>
-      <c r="F12" s="537"/>
-      <c r="G12" s="537"/>
-      <c r="H12" s="537"/>
-      <c r="I12" s="537"/>
-      <c r="J12" s="537"/>
+      <c r="B12" s="522"/>
+      <c r="C12" s="522"/>
+      <c r="D12" s="522"/>
+      <c r="E12" s="522"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="522"/>
+      <c r="H12" s="522"/>
+      <c r="I12" s="522"/>
+      <c r="J12" s="522"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="539" t="str">
+      <c r="A13" s="524" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="B13" s="538"/>
-      <c r="C13" s="538"/>
-      <c r="D13" s="538"/>
-      <c r="E13" s="538"/>
-      <c r="F13" s="538"/>
-      <c r="G13" s="538"/>
-      <c r="H13" s="538"/>
-      <c r="I13" s="538"/>
-      <c r="J13" s="538"/>
+      <c r="B13" s="523"/>
+      <c r="C13" s="523"/>
+      <c r="D13" s="523"/>
+      <c r="E13" s="523"/>
+      <c r="F13" s="523"/>
+      <c r="G13" s="523"/>
+      <c r="H13" s="523"/>
+      <c r="I13" s="523"/>
+      <c r="J13" s="523"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="299" t="s">
@@ -10781,495 +10854,495 @@
       <c r="J21" s="300"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="535" t="s">
+      <c r="A22" s="520" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="535" t="s">
+      <c r="B22" s="520" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="535"/>
-      <c r="D22" s="535"/>
-      <c r="E22" s="535" t="s">
+      <c r="C22" s="520"/>
+      <c r="D22" s="520"/>
+      <c r="E22" s="520" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="535"/>
-      <c r="G22" s="536" t="s">
+      <c r="F22" s="520"/>
+      <c r="G22" s="521" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="535" t="s">
+      <c r="H22" s="520" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="535"/>
-      <c r="J22" s="535"/>
+      <c r="I22" s="520"/>
+      <c r="J22" s="520"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="535"/>
-      <c r="B23" s="535"/>
-      <c r="C23" s="535"/>
-      <c r="D23" s="535"/>
-      <c r="E23" s="535"/>
-      <c r="F23" s="535"/>
-      <c r="G23" s="536"/>
-      <c r="H23" s="535"/>
-      <c r="I23" s="535"/>
-      <c r="J23" s="535"/>
+      <c r="A23" s="520"/>
+      <c r="B23" s="520"/>
+      <c r="C23" s="520"/>
+      <c r="D23" s="520"/>
+      <c r="E23" s="520"/>
+      <c r="F23" s="520"/>
+      <c r="G23" s="521"/>
+      <c r="H23" s="520"/>
+      <c r="I23" s="520"/>
+      <c r="J23" s="520"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="514">
+      <c r="A24" s="499">
         <v>1</v>
       </c>
-      <c r="B24" s="546" t="s">
+      <c r="B24" s="531" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="547"/>
-      <c r="D24" s="548"/>
-      <c r="E24" s="519" t="str">
+      <c r="C24" s="532"/>
+      <c r="D24" s="533"/>
+      <c r="E24" s="504" t="str">
         <f>Данные!C14</f>
         <v>Батькова</v>
       </c>
-      <c r="F24" s="520"/>
-      <c r="G24" s="523">
+      <c r="F24" s="505"/>
+      <c r="G24" s="508">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="540" t="s">
+      <c r="H24" s="525" t="s">
         <v>148</v>
       </c>
-      <c r="I24" s="541"/>
-      <c r="J24" s="542"/>
+      <c r="I24" s="526"/>
+      <c r="J24" s="527"/>
     </row>
     <row r="25" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="515"/>
-      <c r="B25" s="531" t="str">
+      <c r="A25" s="500"/>
+      <c r="B25" s="516" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C25" s="532"/>
-      <c r="D25" s="533"/>
-      <c r="E25" s="534"/>
-      <c r="F25" s="522"/>
-      <c r="G25" s="524"/>
-      <c r="H25" s="543"/>
-      <c r="I25" s="544"/>
-      <c r="J25" s="545"/>
+      <c r="C25" s="517"/>
+      <c r="D25" s="518"/>
+      <c r="E25" s="519"/>
+      <c r="F25" s="507"/>
+      <c r="G25" s="509"/>
+      <c r="H25" s="528"/>
+      <c r="I25" s="529"/>
+      <c r="J25" s="530"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="514">
+      <c r="A26" s="499">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="516" t="s">
+      <c r="B26" s="501" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="517"/>
-      <c r="D26" s="518"/>
-      <c r="E26" s="519" t="str">
+      <c r="C26" s="502"/>
+      <c r="D26" s="503"/>
+      <c r="E26" s="504" t="str">
         <f>Данные!C15</f>
         <v>Батькова</v>
       </c>
-      <c r="F26" s="520"/>
-      <c r="G26" s="523">
+      <c r="F26" s="505"/>
+      <c r="G26" s="508">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="525"/>
-      <c r="I26" s="526"/>
-      <c r="J26" s="527"/>
+      <c r="H26" s="510"/>
+      <c r="I26" s="511"/>
+      <c r="J26" s="512"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="515"/>
-      <c r="B27" s="531" t="str">
+      <c r="A27" s="500"/>
+      <c r="B27" s="516" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C27" s="532"/>
-      <c r="D27" s="533"/>
-      <c r="E27" s="534"/>
-      <c r="F27" s="522"/>
-      <c r="G27" s="524"/>
-      <c r="H27" s="528"/>
-      <c r="I27" s="529"/>
-      <c r="J27" s="530"/>
+      <c r="C27" s="517"/>
+      <c r="D27" s="518"/>
+      <c r="E27" s="519"/>
+      <c r="F27" s="507"/>
+      <c r="G27" s="509"/>
+      <c r="H27" s="513"/>
+      <c r="I27" s="514"/>
+      <c r="J27" s="515"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="514">
+      <c r="A28" s="499">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="516" t="s">
+      <c r="B28" s="501" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="517"/>
-      <c r="D28" s="518"/>
-      <c r="E28" s="519" t="str">
+      <c r="C28" s="502"/>
+      <c r="D28" s="503"/>
+      <c r="E28" s="504" t="str">
         <f>Данные!C16</f>
         <v>Батькова</v>
       </c>
-      <c r="F28" s="520"/>
-      <c r="G28" s="523">
+      <c r="F28" s="505"/>
+      <c r="G28" s="508">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="525"/>
-      <c r="I28" s="526"/>
-      <c r="J28" s="527"/>
+      <c r="H28" s="510"/>
+      <c r="I28" s="511"/>
+      <c r="J28" s="512"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="515"/>
-      <c r="B29" s="531" t="str">
+      <c r="A29" s="500"/>
+      <c r="B29" s="516" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C29" s="532"/>
-      <c r="D29" s="533"/>
-      <c r="E29" s="534"/>
-      <c r="F29" s="522"/>
-      <c r="G29" s="524"/>
-      <c r="H29" s="528"/>
-      <c r="I29" s="529"/>
-      <c r="J29" s="530"/>
+      <c r="C29" s="517"/>
+      <c r="D29" s="518"/>
+      <c r="E29" s="519"/>
+      <c r="F29" s="507"/>
+      <c r="G29" s="509"/>
+      <c r="H29" s="513"/>
+      <c r="I29" s="514"/>
+      <c r="J29" s="515"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="514">
+      <c r="A30" s="499">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="516" t="s">
+      <c r="B30" s="501" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="517"/>
-      <c r="D30" s="518"/>
-      <c r="E30" s="519" t="str">
+      <c r="C30" s="502"/>
+      <c r="D30" s="503"/>
+      <c r="E30" s="504" t="str">
         <f>Данные!C17</f>
         <v>Батькова</v>
       </c>
-      <c r="F30" s="520"/>
-      <c r="G30" s="523">
+      <c r="F30" s="505"/>
+      <c r="G30" s="508">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="525"/>
-      <c r="I30" s="526"/>
-      <c r="J30" s="527"/>
+      <c r="H30" s="510"/>
+      <c r="I30" s="511"/>
+      <c r="J30" s="512"/>
     </row>
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="515"/>
-      <c r="B31" s="531" t="str">
+      <c r="A31" s="500"/>
+      <c r="B31" s="516" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C31" s="532"/>
-      <c r="D31" s="533"/>
-      <c r="E31" s="521"/>
-      <c r="F31" s="522"/>
-      <c r="G31" s="524"/>
-      <c r="H31" s="528"/>
-      <c r="I31" s="529"/>
-      <c r="J31" s="530"/>
+      <c r="C31" s="517"/>
+      <c r="D31" s="518"/>
+      <c r="E31" s="506"/>
+      <c r="F31" s="507"/>
+      <c r="G31" s="509"/>
+      <c r="H31" s="513"/>
+      <c r="I31" s="514"/>
+      <c r="J31" s="515"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="514">
+      <c r="A32" s="499">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="516" t="s">
+      <c r="B32" s="501" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="517"/>
-      <c r="D32" s="518"/>
-      <c r="E32" s="519" t="str">
+      <c r="C32" s="502"/>
+      <c r="D32" s="503"/>
+      <c r="E32" s="504" t="str">
         <f>Данные!C18</f>
         <v>Батькова</v>
       </c>
-      <c r="F32" s="520"/>
-      <c r="G32" s="523">
+      <c r="F32" s="505"/>
+      <c r="G32" s="508">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H32" s="525"/>
-      <c r="I32" s="526"/>
-      <c r="J32" s="527"/>
+      <c r="H32" s="510"/>
+      <c r="I32" s="511"/>
+      <c r="J32" s="512"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="515"/>
-      <c r="B33" s="531" t="str">
+      <c r="A33" s="500"/>
+      <c r="B33" s="516" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C33" s="532"/>
-      <c r="D33" s="533"/>
-      <c r="E33" s="521"/>
-      <c r="F33" s="522"/>
-      <c r="G33" s="524"/>
-      <c r="H33" s="528"/>
-      <c r="I33" s="529"/>
-      <c r="J33" s="530"/>
+      <c r="C33" s="517"/>
+      <c r="D33" s="518"/>
+      <c r="E33" s="506"/>
+      <c r="F33" s="507"/>
+      <c r="G33" s="509"/>
+      <c r="H33" s="513"/>
+      <c r="I33" s="514"/>
+      <c r="J33" s="515"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="514">
+      <c r="A34" s="499">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="516" t="s">
+      <c r="B34" s="501" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="517"/>
-      <c r="D34" s="518"/>
-      <c r="E34" s="519" t="str">
+      <c r="C34" s="502"/>
+      <c r="D34" s="503"/>
+      <c r="E34" s="504" t="str">
         <f>Данные!C19</f>
         <v>Батькова</v>
       </c>
-      <c r="F34" s="520"/>
-      <c r="G34" s="523">
+      <c r="F34" s="505"/>
+      <c r="G34" s="508">
         <f>Данные!B19</f>
         <v>70</v>
       </c>
-      <c r="H34" s="525"/>
-      <c r="I34" s="526"/>
-      <c r="J34" s="527"/>
+      <c r="H34" s="510"/>
+      <c r="I34" s="511"/>
+      <c r="J34" s="512"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="515"/>
-      <c r="B35" s="531" t="str">
+      <c r="A35" s="500"/>
+      <c r="B35" s="516" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C35" s="532"/>
-      <c r="D35" s="533"/>
-      <c r="E35" s="521"/>
-      <c r="F35" s="522"/>
-      <c r="G35" s="524"/>
-      <c r="H35" s="528"/>
-      <c r="I35" s="529"/>
-      <c r="J35" s="530"/>
+      <c r="C35" s="517"/>
+      <c r="D35" s="518"/>
+      <c r="E35" s="506"/>
+      <c r="F35" s="507"/>
+      <c r="G35" s="509"/>
+      <c r="H35" s="513"/>
+      <c r="I35" s="514"/>
+      <c r="J35" s="515"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="514">
+      <c r="A36" s="499">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="516" t="s">
+      <c r="B36" s="501" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="517"/>
-      <c r="D36" s="518"/>
-      <c r="E36" s="519" t="str">
+      <c r="C36" s="502"/>
+      <c r="D36" s="503"/>
+      <c r="E36" s="504" t="str">
         <f>Данные!C20</f>
         <v>Батькова</v>
       </c>
-      <c r="F36" s="520"/>
-      <c r="G36" s="523">
+      <c r="F36" s="505"/>
+      <c r="G36" s="508">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="525"/>
-      <c r="I36" s="526"/>
-      <c r="J36" s="527"/>
+      <c r="H36" s="510"/>
+      <c r="I36" s="511"/>
+      <c r="J36" s="512"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="515"/>
-      <c r="B37" s="531" t="str">
+      <c r="A37" s="500"/>
+      <c r="B37" s="516" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C37" s="532"/>
-      <c r="D37" s="533"/>
-      <c r="E37" s="521"/>
-      <c r="F37" s="522"/>
-      <c r="G37" s="524"/>
-      <c r="H37" s="528"/>
-      <c r="I37" s="529"/>
-      <c r="J37" s="530"/>
+      <c r="C37" s="517"/>
+      <c r="D37" s="518"/>
+      <c r="E37" s="506"/>
+      <c r="F37" s="507"/>
+      <c r="G37" s="509"/>
+      <c r="H37" s="513"/>
+      <c r="I37" s="514"/>
+      <c r="J37" s="515"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="514">
+      <c r="A38" s="499">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="516" t="s">
+      <c r="B38" s="501" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="517"/>
-      <c r="D38" s="518"/>
-      <c r="E38" s="519">
+      <c r="C38" s="502"/>
+      <c r="D38" s="503"/>
+      <c r="E38" s="504">
         <f>Данные!C21</f>
         <v>0</v>
       </c>
-      <c r="F38" s="520"/>
-      <c r="G38" s="523">
+      <c r="F38" s="505"/>
+      <c r="G38" s="508">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="H38" s="525"/>
-      <c r="I38" s="526"/>
-      <c r="J38" s="527"/>
+      <c r="H38" s="510"/>
+      <c r="I38" s="511"/>
+      <c r="J38" s="512"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="515"/>
-      <c r="B39" s="531" t="str">
+      <c r="A39" s="500"/>
+      <c r="B39" s="516" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C39" s="532"/>
-      <c r="D39" s="533"/>
-      <c r="E39" s="521"/>
-      <c r="F39" s="522"/>
-      <c r="G39" s="524"/>
-      <c r="H39" s="528"/>
-      <c r="I39" s="529"/>
-      <c r="J39" s="530"/>
+      <c r="C39" s="517"/>
+      <c r="D39" s="518"/>
+      <c r="E39" s="506"/>
+      <c r="F39" s="507"/>
+      <c r="G39" s="509"/>
+      <c r="H39" s="513"/>
+      <c r="I39" s="514"/>
+      <c r="J39" s="515"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="514">
+      <c r="A40" s="499">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="516" t="s">
+      <c r="B40" s="501" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="517"/>
-      <c r="D40" s="518"/>
-      <c r="E40" s="519" t="str">
+      <c r="C40" s="502"/>
+      <c r="D40" s="503"/>
+      <c r="E40" s="504" t="str">
         <f>Данные!C23</f>
         <v>Батькова</v>
       </c>
-      <c r="F40" s="520"/>
-      <c r="G40" s="523">
+      <c r="F40" s="505"/>
+      <c r="G40" s="508">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="525"/>
-      <c r="I40" s="526"/>
-      <c r="J40" s="527"/>
+      <c r="H40" s="510"/>
+      <c r="I40" s="511"/>
+      <c r="J40" s="512"/>
     </row>
     <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="515"/>
-      <c r="B41" s="531" t="str">
+      <c r="A41" s="500"/>
+      <c r="B41" s="516" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C41" s="532"/>
-      <c r="D41" s="533"/>
-      <c r="E41" s="521"/>
-      <c r="F41" s="522"/>
-      <c r="G41" s="524"/>
-      <c r="H41" s="528"/>
-      <c r="I41" s="529"/>
-      <c r="J41" s="530"/>
+      <c r="C41" s="517"/>
+      <c r="D41" s="518"/>
+      <c r="E41" s="506"/>
+      <c r="F41" s="507"/>
+      <c r="G41" s="509"/>
+      <c r="H41" s="513"/>
+      <c r="I41" s="514"/>
+      <c r="J41" s="515"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="514">
+      <c r="A42" s="499">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="516" t="s">
+      <c r="B42" s="501" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="517"/>
-      <c r="D42" s="518"/>
-      <c r="E42" s="519" t="str">
+      <c r="C42" s="502"/>
+      <c r="D42" s="503"/>
+      <c r="E42" s="504" t="str">
         <f>Данные!C26</f>
         <v>Батькова</v>
       </c>
-      <c r="F42" s="520"/>
-      <c r="G42" s="523">
+      <c r="F42" s="505"/>
+      <c r="G42" s="508">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="H42" s="525"/>
-      <c r="I42" s="526"/>
-      <c r="J42" s="527"/>
+      <c r="H42" s="510"/>
+      <c r="I42" s="511"/>
+      <c r="J42" s="512"/>
     </row>
     <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="515"/>
-      <c r="B43" s="531" t="str">
+      <c r="A43" s="500"/>
+      <c r="B43" s="516" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C43" s="532"/>
-      <c r="D43" s="533"/>
-      <c r="E43" s="521"/>
-      <c r="F43" s="522"/>
-      <c r="G43" s="524"/>
-      <c r="H43" s="528"/>
-      <c r="I43" s="529"/>
-      <c r="J43" s="530"/>
+      <c r="C43" s="517"/>
+      <c r="D43" s="518"/>
+      <c r="E43" s="506"/>
+      <c r="F43" s="507"/>
+      <c r="G43" s="509"/>
+      <c r="H43" s="513"/>
+      <c r="I43" s="514"/>
+      <c r="J43" s="515"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="514">
+      <c r="A44" s="499">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="516" t="s">
+      <c r="B44" s="501" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="517"/>
-      <c r="D44" s="518"/>
-      <c r="E44" s="519">
+      <c r="C44" s="502"/>
+      <c r="D44" s="503"/>
+      <c r="E44" s="504">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="520"/>
-      <c r="G44" s="523">
+      <c r="F44" s="505"/>
+      <c r="G44" s="508">
         <f>Данные!B27</f>
         <v>20</v>
       </c>
-      <c r="H44" s="525"/>
-      <c r="I44" s="526"/>
-      <c r="J44" s="527"/>
+      <c r="H44" s="510"/>
+      <c r="I44" s="511"/>
+      <c r="J44" s="512"/>
     </row>
     <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="515"/>
-      <c r="B45" s="531" t="str">
+      <c r="A45" s="500"/>
+      <c r="B45" s="516" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C45" s="532"/>
-      <c r="D45" s="533"/>
-      <c r="E45" s="521"/>
-      <c r="F45" s="522"/>
-      <c r="G45" s="524"/>
-      <c r="H45" s="528"/>
-      <c r="I45" s="529"/>
-      <c r="J45" s="530"/>
+      <c r="C45" s="517"/>
+      <c r="D45" s="518"/>
+      <c r="E45" s="506"/>
+      <c r="F45" s="507"/>
+      <c r="G45" s="509"/>
+      <c r="H45" s="513"/>
+      <c r="I45" s="514"/>
+      <c r="J45" s="515"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="514">
+      <c r="A46" s="499">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="516" t="s">
+      <c r="B46" s="501" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="517"/>
-      <c r="D46" s="518"/>
-      <c r="E46" s="519" t="str">
+      <c r="C46" s="502"/>
+      <c r="D46" s="503"/>
+      <c r="E46" s="504" t="str">
         <f>Данные!C24</f>
         <v>Батькова</v>
       </c>
-      <c r="F46" s="520"/>
-      <c r="G46" s="523">
+      <c r="F46" s="505"/>
+      <c r="G46" s="508">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="525"/>
-      <c r="I46" s="526"/>
-      <c r="J46" s="527"/>
+      <c r="H46" s="510"/>
+      <c r="I46" s="511"/>
+      <c r="J46" s="512"/>
     </row>
     <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="515"/>
-      <c r="B47" s="531" t="str">
+      <c r="A47" s="500"/>
+      <c r="B47" s="516" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-В-30-4б-500-14 Батькова)</v>
       </c>
-      <c r="C47" s="532"/>
-      <c r="D47" s="533"/>
-      <c r="E47" s="521"/>
-      <c r="F47" s="522"/>
-      <c r="G47" s="524"/>
-      <c r="H47" s="528"/>
-      <c r="I47" s="529"/>
-      <c r="J47" s="530"/>
+      <c r="C47" s="517"/>
+      <c r="D47" s="518"/>
+      <c r="E47" s="506"/>
+      <c r="F47" s="507"/>
+      <c r="G47" s="509"/>
+      <c r="H47" s="513"/>
+      <c r="I47" s="514"/>
+      <c r="J47" s="515"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="299"/>
@@ -11532,47 +11605,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="553"/>
-      <c r="C2" s="554"/>
-      <c r="D2" s="555"/>
-      <c r="E2" s="562" t="s">
+      <c r="B2" s="538"/>
+      <c r="C2" s="539"/>
+      <c r="D2" s="540"/>
+      <c r="E2" s="547" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="563"/>
-      <c r="G2" s="563"/>
-      <c r="H2" s="564"/>
-      <c r="I2" s="569" t="s">
+      <c r="F2" s="548"/>
+      <c r="G2" s="548"/>
+      <c r="H2" s="549"/>
+      <c r="I2" s="554" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="570"/>
-      <c r="K2" s="573">
+      <c r="J2" s="555"/>
+      <c r="K2" s="558">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="574"/>
+      <c r="L2" s="559"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="565"/>
-      <c r="Q2" s="565"/>
+      <c r="P2" s="550"/>
+      <c r="Q2" s="550"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="556"/>
-      <c r="C3" s="557"/>
-      <c r="D3" s="558"/>
-      <c r="E3" s="566" t="s">
+      <c r="B3" s="541"/>
+      <c r="C3" s="542"/>
+      <c r="D3" s="543"/>
+      <c r="E3" s="551" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="567"/>
-      <c r="G3" s="567"/>
-      <c r="H3" s="568"/>
-      <c r="I3" s="571"/>
-      <c r="J3" s="572"/>
-      <c r="K3" s="575"/>
-      <c r="L3" s="576"/>
+      <c r="F3" s="552"/>
+      <c r="G3" s="552"/>
+      <c r="H3" s="553"/>
+      <c r="I3" s="556"/>
+      <c r="J3" s="557"/>
+      <c r="K3" s="560"/>
+      <c r="L3" s="561"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11583,9 +11656,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="559"/>
-      <c r="C4" s="560"/>
-      <c r="D4" s="561"/>
+      <c r="B4" s="544"/>
+      <c r="C4" s="545"/>
+      <c r="D4" s="546"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11604,22 +11677,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="580" t="s">
+      <c r="B5" s="565" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="581"/>
-      <c r="D5" s="498" t="str">
+      <c r="C5" s="566"/>
+      <c r="D5" s="483" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="499"/>
-      <c r="F5" s="499"/>
-      <c r="G5" s="499"/>
-      <c r="H5" s="500"/>
-      <c r="I5" s="582"/>
-      <c r="J5" s="583"/>
-      <c r="K5" s="499"/>
-      <c r="L5" s="500"/>
+      <c r="E5" s="484"/>
+      <c r="F5" s="484"/>
+      <c r="G5" s="484"/>
+      <c r="H5" s="485"/>
+      <c r="I5" s="567"/>
+      <c r="J5" s="568"/>
+      <c r="K5" s="484"/>
+      <c r="L5" s="485"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11630,22 +11703,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="580" t="s">
+      <c r="B6" s="565" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="492" t="str">
+      <c r="C6" s="569"/>
+      <c r="D6" s="477" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="585"/>
-      <c r="F6" s="585"/>
-      <c r="G6" s="585"/>
-      <c r="H6" s="586"/>
-      <c r="I6" s="582"/>
-      <c r="J6" s="583"/>
-      <c r="K6" s="499"/>
-      <c r="L6" s="500"/>
+      <c r="E6" s="570"/>
+      <c r="F6" s="570"/>
+      <c r="G6" s="570"/>
+      <c r="H6" s="571"/>
+      <c r="I6" s="567"/>
+      <c r="J6" s="568"/>
+      <c r="K6" s="484"/>
+      <c r="L6" s="485"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11656,27 +11729,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="590" t="s">
+      <c r="B7" s="575" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="591"/>
-      <c r="D7" s="501">
+      <c r="C7" s="576"/>
+      <c r="D7" s="486">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="592"/>
-      <c r="F7" s="592"/>
-      <c r="G7" s="592"/>
-      <c r="H7" s="593"/>
-      <c r="I7" s="590" t="s">
+      <c r="E7" s="577"/>
+      <c r="F7" s="577"/>
+      <c r="G7" s="577"/>
+      <c r="H7" s="578"/>
+      <c r="I7" s="575" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="594"/>
-      <c r="K7" s="489">
+      <c r="J7" s="579"/>
+      <c r="K7" s="474">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="490"/>
+      <c r="L7" s="475"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12166,12 +12239,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="587" t="s">
+      <c r="B23" s="572" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="588"/>
-      <c r="D23" s="588"/>
-      <c r="E23" s="589"/>
+      <c r="C23" s="573"/>
+      <c r="D23" s="573"/>
+      <c r="E23" s="574"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12193,12 +12266,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="577" t="s">
+      <c r="B24" s="562" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="578"/>
-      <c r="D24" s="578"/>
-      <c r="E24" s="579"/>
+      <c r="C24" s="563"/>
+      <c r="D24" s="563"/>
+      <c r="E24" s="564"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12241,25 +12314,25 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="552" t="s">
+      <c r="K27" s="537" t="s">
         <v>135</v>
       </c>
-      <c r="L27" s="552"/>
-      <c r="M27" s="552"/>
-      <c r="N27" s="460"/>
-      <c r="O27" s="460"/>
-      <c r="P27" s="476"/>
-      <c r="Q27" s="476"/>
+      <c r="L27" s="537"/>
+      <c r="M27" s="537"/>
+      <c r="N27" s="448"/>
+      <c r="O27" s="448"/>
+      <c r="P27" s="464"/>
+      <c r="Q27" s="464"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="549" t="s">
+      <c r="N28" s="534" t="s">
         <v>139</v>
       </c>
-      <c r="O28" s="549"/>
-      <c r="P28" s="550" t="s">
+      <c r="O28" s="534"/>
+      <c r="P28" s="535" t="s">
         <v>140</v>
       </c>
-      <c r="Q28" s="551"/>
+      <c r="Q28" s="536"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -12351,50 +12424,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="601">
+      <c r="B2" s="586">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="602"/>
-      <c r="D2" s="603"/>
-      <c r="E2" s="610" t="s">
+      <c r="C2" s="587"/>
+      <c r="D2" s="588"/>
+      <c r="E2" s="595" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="611"/>
-      <c r="G2" s="611"/>
-      <c r="H2" s="612"/>
-      <c r="I2" s="616" t="s">
+      <c r="F2" s="596"/>
+      <c r="G2" s="596"/>
+      <c r="H2" s="597"/>
+      <c r="I2" s="601" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="617"/>
-      <c r="K2" s="620">
+      <c r="J2" s="602"/>
+      <c r="K2" s="605">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="621"/>
+      <c r="L2" s="606"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="565"/>
-      <c r="Q2" s="565"/>
+      <c r="P2" s="550"/>
+      <c r="Q2" s="550"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="604"/>
-      <c r="C3" s="605"/>
-      <c r="D3" s="606"/>
-      <c r="E3" s="613" t="s">
+      <c r="B3" s="589"/>
+      <c r="C3" s="590"/>
+      <c r="D3" s="591"/>
+      <c r="E3" s="598" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="614"/>
-      <c r="G3" s="614"/>
-      <c r="H3" s="615"/>
-      <c r="I3" s="618"/>
-      <c r="J3" s="619"/>
-      <c r="K3" s="622"/>
-      <c r="L3" s="623"/>
+      <c r="F3" s="599"/>
+      <c r="G3" s="599"/>
+      <c r="H3" s="600"/>
+      <c r="I3" s="603"/>
+      <c r="J3" s="604"/>
+      <c r="K3" s="607"/>
+      <c r="L3" s="608"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12405,9 +12478,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="607"/>
-      <c r="C4" s="608"/>
-      <c r="D4" s="609"/>
+      <c r="B4" s="592"/>
+      <c r="C4" s="593"/>
+      <c r="D4" s="594"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12426,22 +12499,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="580" t="s">
+      <c r="B5" s="565" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="595"/>
-      <c r="D5" s="498" t="str">
+      <c r="C5" s="580"/>
+      <c r="D5" s="483" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="499"/>
-      <c r="F5" s="499"/>
-      <c r="G5" s="499"/>
-      <c r="H5" s="500"/>
-      <c r="I5" s="596"/>
-      <c r="J5" s="597"/>
-      <c r="K5" s="598"/>
-      <c r="L5" s="500"/>
+      <c r="E5" s="484"/>
+      <c r="F5" s="484"/>
+      <c r="G5" s="484"/>
+      <c r="H5" s="485"/>
+      <c r="I5" s="581"/>
+      <c r="J5" s="582"/>
+      <c r="K5" s="583"/>
+      <c r="L5" s="485"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12452,22 +12525,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="580" t="s">
+      <c r="B6" s="565" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="595"/>
-      <c r="D6" s="492" t="str">
+      <c r="C6" s="580"/>
+      <c r="D6" s="477" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="585"/>
-      <c r="F6" s="585"/>
-      <c r="G6" s="585"/>
-      <c r="H6" s="586"/>
-      <c r="I6" s="596"/>
-      <c r="J6" s="597"/>
-      <c r="K6" s="598"/>
-      <c r="L6" s="500"/>
+      <c r="E6" s="570"/>
+      <c r="F6" s="570"/>
+      <c r="G6" s="570"/>
+      <c r="H6" s="571"/>
+      <c r="I6" s="581"/>
+      <c r="J6" s="582"/>
+      <c r="K6" s="583"/>
+      <c r="L6" s="485"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12478,27 +12551,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="590" t="s">
+      <c r="B7" s="575" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="599"/>
-      <c r="D7" s="501">
+      <c r="C7" s="584"/>
+      <c r="D7" s="486">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="592"/>
-      <c r="F7" s="592"/>
-      <c r="G7" s="592"/>
-      <c r="H7" s="593"/>
-      <c r="I7" s="600" t="s">
+      <c r="E7" s="577"/>
+      <c r="F7" s="577"/>
+      <c r="G7" s="577"/>
+      <c r="H7" s="578"/>
+      <c r="I7" s="585" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="599"/>
-      <c r="K7" s="489">
+      <c r="J7" s="584"/>
+      <c r="K7" s="474">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="490"/>
+      <c r="L7" s="475"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12695,12 +12768,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="625" t="s">
+      <c r="B14" s="610" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="626"/>
-      <c r="D14" s="626"/>
-      <c r="E14" s="626"/>
+      <c r="C14" s="611"/>
+      <c r="D14" s="611"/>
+      <c r="E14" s="611"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12722,13 +12795,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="587" t="s">
+      <c r="B15" s="572" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="588"/>
-      <c r="D15" s="588"/>
-      <c r="E15" s="588"/>
-      <c r="F15" s="624"/>
+      <c r="C15" s="573"/>
+      <c r="D15" s="573"/>
+      <c r="E15" s="573"/>
+      <c r="F15" s="609"/>
       <c r="G15" s="56" t="s">
         <v>76</v>
       </c>
@@ -12747,12 +12820,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="577" t="s">
+      <c r="B16" s="562" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="578"/>
-      <c r="D16" s="578"/>
-      <c r="E16" s="579"/>
+      <c r="C16" s="563"/>
+      <c r="D16" s="563"/>
+      <c r="E16" s="564"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12799,25 +12872,25 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="552" t="s">
+      <c r="L19" s="537" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="552"/>
-      <c r="N19" s="552"/>
-      <c r="O19" s="460"/>
-      <c r="P19" s="460"/>
-      <c r="Q19" s="476"/>
-      <c r="R19" s="476"/>
+      <c r="M19" s="537"/>
+      <c r="N19" s="537"/>
+      <c r="O19" s="448"/>
+      <c r="P19" s="448"/>
+      <c r="Q19" s="464"/>
+      <c r="R19" s="464"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="549" t="s">
+      <c r="O20" s="534" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="549"/>
-      <c r="Q20" s="550" t="s">
+      <c r="P20" s="534"/>
+      <c r="Q20" s="535" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="551"/>
+      <c r="R20" s="536"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -12918,47 +12991,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="553"/>
-      <c r="C2" s="554"/>
-      <c r="D2" s="555"/>
-      <c r="E2" s="562" t="s">
+      <c r="B2" s="538"/>
+      <c r="C2" s="539"/>
+      <c r="D2" s="540"/>
+      <c r="E2" s="547" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="563"/>
-      <c r="G2" s="563"/>
-      <c r="H2" s="564"/>
-      <c r="I2" s="569" t="s">
+      <c r="F2" s="548"/>
+      <c r="G2" s="548"/>
+      <c r="H2" s="549"/>
+      <c r="I2" s="554" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="570"/>
-      <c r="K2" s="573">
+      <c r="J2" s="555"/>
+      <c r="K2" s="558">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="574"/>
+      <c r="L2" s="559"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="565"/>
-      <c r="Q2" s="565"/>
+      <c r="P2" s="550"/>
+      <c r="Q2" s="550"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="556"/>
-      <c r="C3" s="557"/>
-      <c r="D3" s="558"/>
-      <c r="E3" s="566" t="s">
+      <c r="B3" s="541"/>
+      <c r="C3" s="542"/>
+      <c r="D3" s="543"/>
+      <c r="E3" s="551" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="567"/>
-      <c r="G3" s="567"/>
-      <c r="H3" s="568"/>
-      <c r="I3" s="571"/>
-      <c r="J3" s="572"/>
-      <c r="K3" s="575"/>
-      <c r="L3" s="576"/>
+      <c r="F3" s="552"/>
+      <c r="G3" s="552"/>
+      <c r="H3" s="553"/>
+      <c r="I3" s="556"/>
+      <c r="J3" s="557"/>
+      <c r="K3" s="560"/>
+      <c r="L3" s="561"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12969,9 +13042,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="559"/>
-      <c r="C4" s="560"/>
-      <c r="D4" s="561"/>
+      <c r="B4" s="544"/>
+      <c r="C4" s="545"/>
+      <c r="D4" s="546"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12990,22 +13063,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="580" t="s">
+      <c r="B5" s="565" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="581"/>
-      <c r="D5" s="498" t="str">
+      <c r="C5" s="566"/>
+      <c r="D5" s="483" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="499"/>
-      <c r="F5" s="499"/>
-      <c r="G5" s="499"/>
-      <c r="H5" s="500"/>
-      <c r="I5" s="582"/>
-      <c r="J5" s="583"/>
-      <c r="K5" s="499"/>
-      <c r="L5" s="500"/>
+      <c r="E5" s="484"/>
+      <c r="F5" s="484"/>
+      <c r="G5" s="484"/>
+      <c r="H5" s="485"/>
+      <c r="I5" s="567"/>
+      <c r="J5" s="568"/>
+      <c r="K5" s="484"/>
+      <c r="L5" s="485"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13016,22 +13089,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="580" t="s">
+      <c r="B6" s="565" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="492" t="str">
+      <c r="C6" s="569"/>
+      <c r="D6" s="477" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="585"/>
-      <c r="F6" s="585"/>
-      <c r="G6" s="585"/>
-      <c r="H6" s="586"/>
-      <c r="I6" s="582"/>
-      <c r="J6" s="583"/>
-      <c r="K6" s="499"/>
-      <c r="L6" s="500"/>
+      <c r="E6" s="570"/>
+      <c r="F6" s="570"/>
+      <c r="G6" s="570"/>
+      <c r="H6" s="571"/>
+      <c r="I6" s="567"/>
+      <c r="J6" s="568"/>
+      <c r="K6" s="484"/>
+      <c r="L6" s="485"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13042,27 +13115,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="590" t="s">
+      <c r="B7" s="575" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="591"/>
-      <c r="D7" s="501">
+      <c r="C7" s="576"/>
+      <c r="D7" s="486">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="592"/>
-      <c r="F7" s="592"/>
-      <c r="G7" s="592"/>
-      <c r="H7" s="593"/>
-      <c r="I7" s="590" t="s">
+      <c r="E7" s="577"/>
+      <c r="F7" s="577"/>
+      <c r="G7" s="577"/>
+      <c r="H7" s="578"/>
+      <c r="I7" s="575" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="594"/>
-      <c r="K7" s="489">
+      <c r="J7" s="579"/>
+      <c r="K7" s="474">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="490"/>
+      <c r="L7" s="475"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13542,25 +13615,25 @@
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L23" s="627" t="s">
+      <c r="L23" s="612" t="s">
         <v>135</v>
       </c>
-      <c r="M23" s="627"/>
-      <c r="N23" s="627"/>
-      <c r="O23" s="460"/>
-      <c r="P23" s="460"/>
-      <c r="Q23" s="476"/>
-      <c r="R23" s="476"/>
+      <c r="M23" s="612"/>
+      <c r="N23" s="612"/>
+      <c r="O23" s="448"/>
+      <c r="P23" s="448"/>
+      <c r="Q23" s="464"/>
+      <c r="R23" s="464"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O24" s="549" t="s">
+      <c r="O24" s="534" t="s">
         <v>139</v>
       </c>
-      <c r="P24" s="549"/>
-      <c r="Q24" s="550" t="s">
+      <c r="P24" s="534"/>
+      <c r="Q24" s="535" t="s">
         <v>140</v>
       </c>
-      <c r="R24" s="551"/>
+      <c r="R24" s="536"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -13652,47 +13725,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="553"/>
-      <c r="C2" s="554"/>
-      <c r="D2" s="555"/>
-      <c r="E2" s="562" t="s">
+      <c r="B2" s="538"/>
+      <c r="C2" s="539"/>
+      <c r="D2" s="540"/>
+      <c r="E2" s="547" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="563"/>
-      <c r="G2" s="563"/>
-      <c r="H2" s="564"/>
-      <c r="I2" s="569" t="s">
+      <c r="F2" s="548"/>
+      <c r="G2" s="548"/>
+      <c r="H2" s="549"/>
+      <c r="I2" s="554" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="570"/>
-      <c r="K2" s="573">
+      <c r="J2" s="555"/>
+      <c r="K2" s="558">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="574"/>
+      <c r="L2" s="559"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="628"/>
-      <c r="Q2" s="628"/>
+      <c r="P2" s="613"/>
+      <c r="Q2" s="613"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="556"/>
-      <c r="C3" s="557"/>
-      <c r="D3" s="558"/>
-      <c r="E3" s="566" t="s">
+      <c r="B3" s="541"/>
+      <c r="C3" s="542"/>
+      <c r="D3" s="543"/>
+      <c r="E3" s="551" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="567"/>
-      <c r="G3" s="567"/>
-      <c r="H3" s="568"/>
-      <c r="I3" s="571"/>
-      <c r="J3" s="572"/>
-      <c r="K3" s="575"/>
-      <c r="L3" s="576"/>
+      <c r="F3" s="552"/>
+      <c r="G3" s="552"/>
+      <c r="H3" s="553"/>
+      <c r="I3" s="556"/>
+      <c r="J3" s="557"/>
+      <c r="K3" s="560"/>
+      <c r="L3" s="561"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13703,9 +13776,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="559"/>
-      <c r="C4" s="560"/>
-      <c r="D4" s="561"/>
+      <c r="B4" s="544"/>
+      <c r="C4" s="545"/>
+      <c r="D4" s="546"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13724,22 +13797,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="580" t="s">
+      <c r="B5" s="565" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="581"/>
-      <c r="D5" s="498" t="str">
+      <c r="C5" s="566"/>
+      <c r="D5" s="483" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="499"/>
-      <c r="F5" s="499"/>
-      <c r="G5" s="499"/>
-      <c r="H5" s="500"/>
-      <c r="I5" s="582"/>
-      <c r="J5" s="583"/>
-      <c r="K5" s="499"/>
-      <c r="L5" s="500"/>
+      <c r="E5" s="484"/>
+      <c r="F5" s="484"/>
+      <c r="G5" s="484"/>
+      <c r="H5" s="485"/>
+      <c r="I5" s="567"/>
+      <c r="J5" s="568"/>
+      <c r="K5" s="484"/>
+      <c r="L5" s="485"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13750,22 +13823,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="580" t="s">
+      <c r="B6" s="565" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="492" t="str">
+      <c r="C6" s="569"/>
+      <c r="D6" s="477" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="585"/>
-      <c r="F6" s="585"/>
-      <c r="G6" s="585"/>
-      <c r="H6" s="586"/>
-      <c r="I6" s="582"/>
-      <c r="J6" s="583"/>
-      <c r="K6" s="499"/>
-      <c r="L6" s="500"/>
+      <c r="E6" s="570"/>
+      <c r="F6" s="570"/>
+      <c r="G6" s="570"/>
+      <c r="H6" s="571"/>
+      <c r="I6" s="567"/>
+      <c r="J6" s="568"/>
+      <c r="K6" s="484"/>
+      <c r="L6" s="485"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13776,27 +13849,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="590" t="s">
+      <c r="B7" s="575" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="591"/>
-      <c r="D7" s="501">
+      <c r="C7" s="576"/>
+      <c r="D7" s="486">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="592"/>
-      <c r="F7" s="592"/>
-      <c r="G7" s="592"/>
-      <c r="H7" s="593"/>
-      <c r="I7" s="590" t="s">
+      <c r="E7" s="577"/>
+      <c r="F7" s="577"/>
+      <c r="G7" s="577"/>
+      <c r="H7" s="578"/>
+      <c r="I7" s="575" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="594"/>
-      <c r="K7" s="489">
+      <c r="J7" s="579"/>
+      <c r="K7" s="474">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="490"/>
+      <c r="L7" s="475"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -14080,25 +14153,25 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="627" t="s">
+      <c r="L18" s="612" t="s">
         <v>135</v>
       </c>
-      <c r="M18" s="627"/>
-      <c r="N18" s="627"/>
-      <c r="O18" s="460"/>
-      <c r="P18" s="460"/>
-      <c r="Q18" s="476"/>
-      <c r="R18" s="476"/>
+      <c r="M18" s="612"/>
+      <c r="N18" s="612"/>
+      <c r="O18" s="448"/>
+      <c r="P18" s="448"/>
+      <c r="Q18" s="464"/>
+      <c r="R18" s="464"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="549" t="s">
+      <c r="O19" s="534" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="549"/>
-      <c r="Q19" s="550" t="s">
+      <c r="P19" s="534"/>
+      <c r="Q19" s="535" t="s">
         <v>140</v>
       </c>
-      <c r="R19" s="551"/>
+      <c r="R19" s="536"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -14194,60 +14267,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="601"/>
-      <c r="C2" s="602"/>
-      <c r="D2" s="603"/>
-      <c r="E2" s="610" t="s">
+      <c r="B2" s="586"/>
+      <c r="C2" s="587"/>
+      <c r="D2" s="588"/>
+      <c r="E2" s="595" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="611"/>
-      <c r="G2" s="611"/>
-      <c r="H2" s="612"/>
-      <c r="I2" s="616" t="s">
+      <c r="F2" s="596"/>
+      <c r="G2" s="596"/>
+      <c r="H2" s="597"/>
+      <c r="I2" s="601" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="617"/>
-      <c r="K2" s="620">
+      <c r="J2" s="602"/>
+      <c r="K2" s="605">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="621"/>
-      <c r="M2" s="629"/>
-      <c r="N2" s="630"/>
-      <c r="O2" s="630"/>
-      <c r="P2" s="630"/>
-      <c r="Q2" s="630"/>
-      <c r="R2" s="631"/>
+      <c r="L2" s="606"/>
+      <c r="M2" s="614"/>
+      <c r="N2" s="615"/>
+      <c r="O2" s="615"/>
+      <c r="P2" s="615"/>
+      <c r="Q2" s="615"/>
+      <c r="R2" s="616"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="604"/>
-      <c r="C3" s="605"/>
-      <c r="D3" s="606"/>
-      <c r="E3" s="613" t="s">
+      <c r="B3" s="589"/>
+      <c r="C3" s="590"/>
+      <c r="D3" s="591"/>
+      <c r="E3" s="598" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="614"/>
-      <c r="G3" s="614"/>
-      <c r="H3" s="615"/>
-      <c r="I3" s="618"/>
-      <c r="J3" s="619"/>
-      <c r="K3" s="622"/>
-      <c r="L3" s="623"/>
-      <c r="M3" s="632"/>
-      <c r="N3" s="633"/>
-      <c r="O3" s="633"/>
-      <c r="P3" s="633"/>
-      <c r="Q3" s="633"/>
-      <c r="R3" s="634"/>
+      <c r="F3" s="599"/>
+      <c r="G3" s="599"/>
+      <c r="H3" s="600"/>
+      <c r="I3" s="603"/>
+      <c r="J3" s="604"/>
+      <c r="K3" s="607"/>
+      <c r="L3" s="608"/>
+      <c r="M3" s="617"/>
+      <c r="N3" s="618"/>
+      <c r="O3" s="618"/>
+      <c r="P3" s="618"/>
+      <c r="Q3" s="618"/>
+      <c r="R3" s="619"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="607"/>
-      <c r="C4" s="608"/>
-      <c r="D4" s="609"/>
+      <c r="B4" s="592"/>
+      <c r="C4" s="593"/>
+      <c r="D4" s="594"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14256,95 +14329,95 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="632"/>
-      <c r="N4" s="633"/>
-      <c r="O4" s="633"/>
-      <c r="P4" s="633"/>
-      <c r="Q4" s="633"/>
-      <c r="R4" s="634"/>
+      <c r="M4" s="617"/>
+      <c r="N4" s="618"/>
+      <c r="O4" s="618"/>
+      <c r="P4" s="618"/>
+      <c r="Q4" s="618"/>
+      <c r="R4" s="619"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="580" t="s">
+      <c r="B5" s="565" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="595"/>
-      <c r="D5" s="498" t="str">
+      <c r="C5" s="580"/>
+      <c r="D5" s="483" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="499"/>
-      <c r="F5" s="499"/>
-      <c r="G5" s="499"/>
-      <c r="H5" s="500"/>
-      <c r="I5" s="596"/>
-      <c r="J5" s="597"/>
-      <c r="K5" s="598"/>
-      <c r="L5" s="500"/>
-      <c r="M5" s="632"/>
-      <c r="N5" s="633"/>
-      <c r="O5" s="633"/>
-      <c r="P5" s="633"/>
-      <c r="Q5" s="633"/>
-      <c r="R5" s="634"/>
+      <c r="E5" s="484"/>
+      <c r="F5" s="484"/>
+      <c r="G5" s="484"/>
+      <c r="H5" s="485"/>
+      <c r="I5" s="581"/>
+      <c r="J5" s="582"/>
+      <c r="K5" s="583"/>
+      <c r="L5" s="485"/>
+      <c r="M5" s="617"/>
+      <c r="N5" s="618"/>
+      <c r="O5" s="618"/>
+      <c r="P5" s="618"/>
+      <c r="Q5" s="618"/>
+      <c r="R5" s="619"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="580" t="s">
+      <c r="B6" s="565" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="595"/>
-      <c r="D6" s="492" t="str">
+      <c r="C6" s="580"/>
+      <c r="D6" s="477" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="585"/>
-      <c r="F6" s="585"/>
-      <c r="G6" s="585"/>
-      <c r="H6" s="586"/>
-      <c r="I6" s="596"/>
-      <c r="J6" s="597"/>
-      <c r="K6" s="598"/>
-      <c r="L6" s="500"/>
-      <c r="M6" s="632"/>
-      <c r="N6" s="633"/>
-      <c r="O6" s="633"/>
-      <c r="P6" s="633"/>
-      <c r="Q6" s="633"/>
-      <c r="R6" s="634"/>
+      <c r="E6" s="570"/>
+      <c r="F6" s="570"/>
+      <c r="G6" s="570"/>
+      <c r="H6" s="571"/>
+      <c r="I6" s="581"/>
+      <c r="J6" s="582"/>
+      <c r="K6" s="583"/>
+      <c r="L6" s="485"/>
+      <c r="M6" s="617"/>
+      <c r="N6" s="618"/>
+      <c r="O6" s="618"/>
+      <c r="P6" s="618"/>
+      <c r="Q6" s="618"/>
+      <c r="R6" s="619"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="590" t="s">
+      <c r="B7" s="575" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="599"/>
-      <c r="D7" s="501">
+      <c r="C7" s="584"/>
+      <c r="D7" s="486">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="592"/>
-      <c r="F7" s="592"/>
-      <c r="G7" s="592"/>
-      <c r="H7" s="593"/>
-      <c r="I7" s="600" t="s">
+      <c r="E7" s="577"/>
+      <c r="F7" s="577"/>
+      <c r="G7" s="577"/>
+      <c r="H7" s="578"/>
+      <c r="I7" s="585" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="599"/>
-      <c r="K7" s="489">
+      <c r="J7" s="584"/>
+      <c r="K7" s="474">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="490"/>
-      <c r="M7" s="632"/>
-      <c r="N7" s="633"/>
-      <c r="O7" s="633"/>
-      <c r="P7" s="633"/>
-      <c r="Q7" s="633"/>
-      <c r="R7" s="634"/>
+      <c r="L7" s="475"/>
+      <c r="M7" s="617"/>
+      <c r="N7" s="618"/>
+      <c r="O7" s="618"/>
+      <c r="P7" s="618"/>
+      <c r="Q7" s="618"/>
+      <c r="R7" s="619"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14500,38 +14573,38 @@
       <c r="R12" s="317"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" s="471" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="461"/>
-      <c r="B13" s="462" t="s">
+    <row r="13" spans="1:19" s="459" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="449"/>
+      <c r="B13" s="450" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="463">
+      <c r="C13" s="451">
         <v>38.1</v>
       </c>
-      <c r="D13" s="464">
+      <c r="D13" s="452">
         <v>0.03</v>
       </c>
-      <c r="E13" s="464">
+      <c r="E13" s="452">
         <v>0</v>
       </c>
-      <c r="F13" s="465" t="s">
+      <c r="F13" s="453" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="292" t="s">
         <v>136</v>
       </c>
-      <c r="H13" s="466"/>
-      <c r="I13" s="467"/>
-      <c r="J13" s="467"/>
-      <c r="K13" s="467"/>
-      <c r="L13" s="467"/>
-      <c r="M13" s="468"/>
-      <c r="N13" s="468"/>
-      <c r="O13" s="468"/>
-      <c r="P13" s="468"/>
-      <c r="Q13" s="468"/>
-      <c r="R13" s="469"/>
-      <c r="S13" s="470"/>
+      <c r="H13" s="454"/>
+      <c r="I13" s="455"/>
+      <c r="J13" s="455"/>
+      <c r="K13" s="455"/>
+      <c r="L13" s="455"/>
+      <c r="M13" s="456"/>
+      <c r="N13" s="456"/>
+      <c r="O13" s="456"/>
+      <c r="P13" s="456"/>
+      <c r="Q13" s="456"/>
+      <c r="R13" s="457"/>
+      <c r="S13" s="458"/>
     </row>
     <row r="14" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
@@ -14733,12 +14806,12 @@
     </row>
     <row r="20" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
-      <c r="B20" s="577" t="s">
+      <c r="B20" s="562" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="578"/>
-      <c r="D20" s="578"/>
-      <c r="E20" s="579"/>
+      <c r="C20" s="563"/>
+      <c r="D20" s="563"/>
+      <c r="E20" s="564"/>
       <c r="F20" s="114" t="s">
         <v>16</v>
       </c>
@@ -14783,25 +14856,25 @@
       <c r="B22" s="121"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L23" s="627" t="s">
+      <c r="L23" s="612" t="s">
         <v>135</v>
       </c>
-      <c r="M23" s="627"/>
-      <c r="N23" s="627"/>
-      <c r="O23" s="460"/>
-      <c r="P23" s="460"/>
-      <c r="Q23" s="476"/>
-      <c r="R23" s="476"/>
+      <c r="M23" s="612"/>
+      <c r="N23" s="612"/>
+      <c r="O23" s="448"/>
+      <c r="P23" s="448"/>
+      <c r="Q23" s="464"/>
+      <c r="R23" s="464"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O24" s="549" t="s">
+      <c r="O24" s="534" t="s">
         <v>139</v>
       </c>
-      <c r="P24" s="549"/>
-      <c r="Q24" s="550" t="s">
+      <c r="P24" s="534"/>
+      <c r="Q24" s="535" t="s">
         <v>140</v>
       </c>
-      <c r="R24" s="551"/>
+      <c r="R24" s="536"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -14891,47 +14964,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="601"/>
-      <c r="C2" s="602"/>
-      <c r="D2" s="603"/>
-      <c r="E2" s="610" t="s">
+      <c r="B2" s="586"/>
+      <c r="C2" s="587"/>
+      <c r="D2" s="588"/>
+      <c r="E2" s="595" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="611"/>
-      <c r="G2" s="611"/>
-      <c r="H2" s="612"/>
-      <c r="I2" s="616" t="s">
+      <c r="F2" s="596"/>
+      <c r="G2" s="596"/>
+      <c r="H2" s="597"/>
+      <c r="I2" s="601" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="617"/>
-      <c r="K2" s="620">
+      <c r="J2" s="602"/>
+      <c r="K2" s="605">
         <f>Данные!B19</f>
         <v>70</v>
       </c>
-      <c r="L2" s="621"/>
+      <c r="L2" s="606"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="635"/>
-      <c r="Q2" s="635"/>
+      <c r="P2" s="620"/>
+      <c r="Q2" s="620"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="604"/>
-      <c r="C3" s="605"/>
-      <c r="D3" s="606"/>
-      <c r="E3" s="613" t="s">
+      <c r="B3" s="589"/>
+      <c r="C3" s="590"/>
+      <c r="D3" s="591"/>
+      <c r="E3" s="598" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="614"/>
-      <c r="G3" s="614"/>
-      <c r="H3" s="615"/>
-      <c r="I3" s="618"/>
-      <c r="J3" s="619"/>
-      <c r="K3" s="622"/>
-      <c r="L3" s="623"/>
+      <c r="F3" s="599"/>
+      <c r="G3" s="599"/>
+      <c r="H3" s="600"/>
+      <c r="I3" s="603"/>
+      <c r="J3" s="604"/>
+      <c r="K3" s="607"/>
+      <c r="L3" s="608"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14942,9 +15015,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="607"/>
-      <c r="C4" s="608"/>
-      <c r="D4" s="609"/>
+      <c r="B4" s="592"/>
+      <c r="C4" s="593"/>
+      <c r="D4" s="594"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14963,22 +15036,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="580" t="s">
+      <c r="B5" s="565" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="595"/>
-      <c r="D5" s="498" t="str">
+      <c r="C5" s="580"/>
+      <c r="D5" s="483" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="499"/>
-      <c r="F5" s="499"/>
-      <c r="G5" s="499"/>
-      <c r="H5" s="500"/>
-      <c r="I5" s="596"/>
-      <c r="J5" s="597"/>
-      <c r="K5" s="598"/>
-      <c r="L5" s="500"/>
+      <c r="E5" s="484"/>
+      <c r="F5" s="484"/>
+      <c r="G5" s="484"/>
+      <c r="H5" s="485"/>
+      <c r="I5" s="581"/>
+      <c r="J5" s="582"/>
+      <c r="K5" s="583"/>
+      <c r="L5" s="485"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14989,22 +15062,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="580" t="s">
+      <c r="B6" s="565" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="595"/>
-      <c r="D6" s="492" t="str">
+      <c r="C6" s="580"/>
+      <c r="D6" s="477" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4б-500-14 (Батькова)</v>
       </c>
-      <c r="E6" s="585"/>
-      <c r="F6" s="585"/>
-      <c r="G6" s="585"/>
-      <c r="H6" s="586"/>
-      <c r="I6" s="596"/>
-      <c r="J6" s="597"/>
-      <c r="K6" s="598"/>
-      <c r="L6" s="500"/>
+      <c r="E6" s="570"/>
+      <c r="F6" s="570"/>
+      <c r="G6" s="570"/>
+      <c r="H6" s="571"/>
+      <c r="I6" s="581"/>
+      <c r="J6" s="582"/>
+      <c r="K6" s="583"/>
+      <c r="L6" s="485"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -15015,27 +15088,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="590" t="s">
+      <c r="B7" s="575" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="599"/>
-      <c r="D7" s="501">
+      <c r="C7" s="584"/>
+      <c r="D7" s="486">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="592"/>
-      <c r="F7" s="592"/>
-      <c r="G7" s="592"/>
-      <c r="H7" s="593"/>
-      <c r="I7" s="600" t="s">
+      <c r="E7" s="577"/>
+      <c r="F7" s="577"/>
+      <c r="G7" s="577"/>
+      <c r="H7" s="578"/>
+      <c r="I7" s="585" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="599"/>
-      <c r="K7" s="489">
+      <c r="J7" s="584"/>
+      <c r="K7" s="474">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="490"/>
+      <c r="L7" s="475"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15164,38 +15237,38 @@
       <c r="R11" s="99"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" s="471" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="461"/>
-      <c r="B12" s="472" t="s">
+    <row r="12" spans="1:19" s="459" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="449"/>
+      <c r="B12" s="460" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="473">
+      <c r="C12" s="461">
         <v>28.6</v>
       </c>
-      <c r="D12" s="467">
+      <c r="D12" s="455">
         <v>0</v>
       </c>
-      <c r="E12" s="467">
+      <c r="E12" s="455">
         <v>-0.03</v>
       </c>
-      <c r="F12" s="465" t="s">
+      <c r="F12" s="453" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="292" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="474"/>
-      <c r="I12" s="467"/>
-      <c r="J12" s="467"/>
-      <c r="K12" s="467"/>
-      <c r="L12" s="467"/>
-      <c r="M12" s="467"/>
-      <c r="N12" s="467"/>
-      <c r="O12" s="467"/>
-      <c r="P12" s="467"/>
-      <c r="Q12" s="467"/>
-      <c r="R12" s="475"/>
-      <c r="S12" s="470"/>
+      <c r="H12" s="462"/>
+      <c r="I12" s="455"/>
+      <c r="J12" s="455"/>
+      <c r="K12" s="455"/>
+      <c r="L12" s="455"/>
+      <c r="M12" s="455"/>
+      <c r="N12" s="455"/>
+      <c r="O12" s="455"/>
+      <c r="P12" s="455"/>
+      <c r="Q12" s="455"/>
+      <c r="R12" s="463"/>
+      <c r="S12" s="458"/>
     </row>
     <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
@@ -15298,12 +15371,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="577" t="s">
+      <c r="B16" s="562" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="578"/>
-      <c r="D16" s="578"/>
-      <c r="E16" s="579"/>
+      <c r="C16" s="563"/>
+      <c r="D16" s="563"/>
+      <c r="E16" s="564"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15348,25 +15421,25 @@
       <c r="B18" s="121"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="627" t="s">
+      <c r="L19" s="612" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="627"/>
-      <c r="N19" s="627"/>
-      <c r="O19" s="460"/>
-      <c r="P19" s="460"/>
-      <c r="Q19" s="476"/>
-      <c r="R19" s="476"/>
+      <c r="M19" s="612"/>
+      <c r="N19" s="612"/>
+      <c r="O19" s="448"/>
+      <c r="P19" s="448"/>
+      <c r="Q19" s="464"/>
+      <c r="R19" s="464"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="549" t="s">
+      <c r="O20" s="534" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="549"/>
-      <c r="Q20" s="550" t="s">
+      <c r="P20" s="534"/>
+      <c r="Q20" s="535" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="551"/>
+      <c r="R20" s="536"/>
     </row>
   </sheetData>
   <mergeCells count="22">
